--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['17', '68', '90']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -557,6 +560,9 @@
   </si>
   <si>
     <t>['41', '54']</t>
+  </si>
+  <si>
+    <t>['28', '51']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK88"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1168,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1353,7 +1359,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1544,7 +1550,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1822,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT5">
         <v>1.13</v>
@@ -1926,7 +1932,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2016,7 +2022,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2499,7 +2505,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2589,7 +2595,7 @@
         <v>1.29</v>
       </c>
       <c r="AT9">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2690,7 +2696,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2777,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT10">
         <v>0.71</v>
@@ -2971,7 +2977,7 @@
         <v>1.38</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3159,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT12">
         <v>1.38</v>
@@ -3263,7 +3269,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3735,7 +3741,7 @@
         <v>2.13</v>
       </c>
       <c r="AT15">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU15">
         <v>1.36</v>
@@ -4027,7 +4033,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4117,7 +4123,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU17">
         <v>1.15</v>
@@ -4409,7 +4415,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4499,7 +4505,7 @@
         <v>2.13</v>
       </c>
       <c r="AT19">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU19">
         <v>1.59</v>
@@ -4600,7 +4606,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4982,7 +4988,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5072,7 +5078,7 @@
         <v>1.43</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5260,7 +5266,7 @@
         <v>1.33</v>
       </c>
       <c r="AS23">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT23">
         <v>1.13</v>
@@ -5451,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT24">
         <v>0.71</v>
@@ -5555,7 +5561,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5937,7 +5943,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6319,7 +6325,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6406,10 +6412,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT29">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU29">
         <v>0.92</v>
@@ -6510,7 +6516,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6597,10 +6603,10 @@
         <v>1.67</v>
       </c>
       <c r="AS30">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT30">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU30">
         <v>1.11</v>
@@ -6701,7 +6707,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6892,7 +6898,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7083,7 +7089,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7274,7 +7280,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7552,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT35">
         <v>0.71</v>
@@ -7847,7 +7853,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8038,7 +8044,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8128,7 +8134,7 @@
         <v>1.43</v>
       </c>
       <c r="AT38">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU38">
         <v>0.87</v>
@@ -8802,7 +8808,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8889,7 +8895,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT42">
         <v>1.38</v>
@@ -8993,7 +8999,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9083,7 +9089,7 @@
         <v>1.29</v>
       </c>
       <c r="AT43">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU43">
         <v>1.23</v>
@@ -9184,7 +9190,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9375,7 +9381,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9462,10 +9468,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT45">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9566,7 +9572,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9656,7 +9662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU46">
         <v>1.19</v>
@@ -9757,7 +9763,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9844,7 +9850,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT47">
         <v>0.86</v>
@@ -10226,7 +10232,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT49">
         <v>0.38</v>
@@ -10330,7 +10336,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10417,10 +10423,10 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT50">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU50">
         <v>1.53</v>
@@ -10521,7 +10527,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10990,7 +10996,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT53">
         <v>1.13</v>
@@ -11375,7 +11381,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU55">
         <v>1.17</v>
@@ -11566,7 +11572,7 @@
         <v>2.13</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU56">
         <v>1.53</v>
@@ -11667,7 +11673,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11757,7 +11763,7 @@
         <v>1.43</v>
       </c>
       <c r="AT57">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11858,7 +11864,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11945,7 +11951,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT58">
         <v>1.13</v>
@@ -12139,7 +12145,7 @@
         <v>1.38</v>
       </c>
       <c r="AT59">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU59">
         <v>1.4</v>
@@ -12240,7 +12246,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12327,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT60">
         <v>0.71</v>
@@ -12521,7 +12527,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU61">
         <v>1.58</v>
@@ -12813,7 +12819,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12900,7 +12906,7 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT63">
         <v>1.38</v>
@@ -13004,7 +13010,7 @@
         <v>120</v>
       </c>
       <c r="P64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13094,7 +13100,7 @@
         <v>2.38</v>
       </c>
       <c r="AT64">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13195,7 +13201,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13282,7 +13288,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT65">
         <v>1.13</v>
@@ -13386,7 +13392,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13577,7 +13583,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13664,7 +13670,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT67">
         <v>2.29</v>
@@ -13768,7 +13774,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13858,7 +13864,7 @@
         <v>0.75</v>
       </c>
       <c r="AT68">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU68">
         <v>1.17</v>
@@ -14237,7 +14243,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT70">
         <v>0.38</v>
@@ -14341,7 +14347,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14428,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT71">
         <v>0.86</v>
@@ -14532,7 +14538,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14622,7 +14628,7 @@
         <v>1.67</v>
       </c>
       <c r="AT72">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU72">
         <v>1.58</v>
@@ -14723,7 +14729,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14813,7 +14819,7 @@
         <v>2.38</v>
       </c>
       <c r="AT73">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU73">
         <v>1.6</v>
@@ -15105,7 +15111,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15386,7 +15392,7 @@
         <v>1.38</v>
       </c>
       <c r="AT76">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU76">
         <v>1.53</v>
@@ -15869,7 +15875,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -15956,10 +15962,10 @@
         <v>2.2</v>
       </c>
       <c r="AS79">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT79">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16147,7 +16153,7 @@
         <v>0.8</v>
       </c>
       <c r="AS80">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT80">
         <v>0.71</v>
@@ -16442,7 +16448,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16529,7 +16535,7 @@
         <v>2.17</v>
       </c>
       <c r="AS82">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT82">
         <v>2.29</v>
@@ -16633,7 +16639,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -16914,7 +16920,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU84">
         <v>1.61</v>
@@ -17397,7 +17403,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17588,7 +17594,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17678,7 +17684,7 @@
         <v>0.75</v>
       </c>
       <c r="AT88">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU88">
         <v>1.26</v>
@@ -17730,6 +17736,770 @@
       </c>
       <c r="BK88">
         <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5239141</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45119.5</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s">
+        <v>68</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>80</v>
+      </c>
+      <c r="P89" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q89">
+        <v>8</v>
+      </c>
+      <c r="R89">
+        <v>7</v>
+      </c>
+      <c r="S89">
+        <v>15</v>
+      </c>
+      <c r="T89">
+        <v>2.46</v>
+      </c>
+      <c r="U89">
+        <v>2.26</v>
+      </c>
+      <c r="V89">
+        <v>4.19</v>
+      </c>
+      <c r="W89">
+        <v>1.36</v>
+      </c>
+      <c r="X89">
+        <v>3</v>
+      </c>
+      <c r="Y89">
+        <v>2.65</v>
+      </c>
+      <c r="Z89">
+        <v>1.45</v>
+      </c>
+      <c r="AA89">
+        <v>6.6</v>
+      </c>
+      <c r="AB89">
+        <v>1.09</v>
+      </c>
+      <c r="AC89">
+        <v>1.83</v>
+      </c>
+      <c r="AD89">
+        <v>3.76</v>
+      </c>
+      <c r="AE89">
+        <v>4.05</v>
+      </c>
+      <c r="AF89">
+        <v>1.06</v>
+      </c>
+      <c r="AG89">
+        <v>11.25</v>
+      </c>
+      <c r="AH89">
+        <v>1.3</v>
+      </c>
+      <c r="AI89">
+        <v>3.55</v>
+      </c>
+      <c r="AJ89">
+        <v>1.87</v>
+      </c>
+      <c r="AK89">
+        <v>1.92</v>
+      </c>
+      <c r="AL89">
+        <v>1.77</v>
+      </c>
+      <c r="AM89">
+        <v>2</v>
+      </c>
+      <c r="AN89">
+        <v>1.25</v>
+      </c>
+      <c r="AO89">
+        <v>1.28</v>
+      </c>
+      <c r="AP89">
+        <v>1.9</v>
+      </c>
+      <c r="AQ89">
+        <v>2.6</v>
+      </c>
+      <c r="AR89">
+        <v>0.57</v>
+      </c>
+      <c r="AS89">
+        <v>2.17</v>
+      </c>
+      <c r="AT89">
+        <v>0.88</v>
+      </c>
+      <c r="AU89">
+        <v>1.77</v>
+      </c>
+      <c r="AV89">
+        <v>1.4</v>
+      </c>
+      <c r="AW89">
+        <v>3.17</v>
+      </c>
+      <c r="AX89">
+        <v>1.43</v>
+      </c>
+      <c r="AY89">
+        <v>7.5</v>
+      </c>
+      <c r="AZ89">
+        <v>4.03</v>
+      </c>
+      <c r="BA89">
+        <v>1.16</v>
+      </c>
+      <c r="BB89">
+        <v>1.35</v>
+      </c>
+      <c r="BC89">
+        <v>1.6</v>
+      </c>
+      <c r="BD89">
+        <v>2</v>
+      </c>
+      <c r="BE89">
+        <v>2.6</v>
+      </c>
+      <c r="BF89">
+        <v>6</v>
+      </c>
+      <c r="BG89">
+        <v>6</v>
+      </c>
+      <c r="BH89">
+        <v>4</v>
+      </c>
+      <c r="BI89">
+        <v>1</v>
+      </c>
+      <c r="BJ89">
+        <v>10</v>
+      </c>
+      <c r="BK89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5239142</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45122.375</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>67</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>80</v>
+      </c>
+      <c r="P90" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q90">
+        <v>7</v>
+      </c>
+      <c r="R90">
+        <v>3</v>
+      </c>
+      <c r="S90">
+        <v>10</v>
+      </c>
+      <c r="T90">
+        <v>2.3</v>
+      </c>
+      <c r="U90">
+        <v>2.05</v>
+      </c>
+      <c r="V90">
+        <v>5</v>
+      </c>
+      <c r="W90">
+        <v>1.44</v>
+      </c>
+      <c r="X90">
+        <v>2.62</v>
+      </c>
+      <c r="Y90">
+        <v>3</v>
+      </c>
+      <c r="Z90">
+        <v>1.36</v>
+      </c>
+      <c r="AA90">
+        <v>7.5</v>
+      </c>
+      <c r="AB90">
+        <v>1.07</v>
+      </c>
+      <c r="AC90">
+        <v>1.67</v>
+      </c>
+      <c r="AD90">
+        <v>3.6</v>
+      </c>
+      <c r="AE90">
+        <v>4.8</v>
+      </c>
+      <c r="AF90">
+        <v>1.08</v>
+      </c>
+      <c r="AG90">
+        <v>7</v>
+      </c>
+      <c r="AH90">
+        <v>1.4</v>
+      </c>
+      <c r="AI90">
+        <v>2.75</v>
+      </c>
+      <c r="AJ90">
+        <v>2.14</v>
+      </c>
+      <c r="AK90">
+        <v>1.63</v>
+      </c>
+      <c r="AL90">
+        <v>2.09</v>
+      </c>
+      <c r="AM90">
+        <v>1.69</v>
+      </c>
+      <c r="AN90">
+        <v>1.15</v>
+      </c>
+      <c r="AO90">
+        <v>1.29</v>
+      </c>
+      <c r="AP90">
+        <v>2.1</v>
+      </c>
+      <c r="AQ90">
+        <v>1.43</v>
+      </c>
+      <c r="AR90">
+        <v>0.67</v>
+      </c>
+      <c r="AS90">
+        <v>1.38</v>
+      </c>
+      <c r="AT90">
+        <v>0.71</v>
+      </c>
+      <c r="AU90">
+        <v>1.22</v>
+      </c>
+      <c r="AV90">
+        <v>1.21</v>
+      </c>
+      <c r="AW90">
+        <v>2.43</v>
+      </c>
+      <c r="AX90">
+        <v>1.45</v>
+      </c>
+      <c r="AY90">
+        <v>9</v>
+      </c>
+      <c r="AZ90">
+        <v>3.28</v>
+      </c>
+      <c r="BA90">
+        <v>1.21</v>
+      </c>
+      <c r="BB90">
+        <v>1.4</v>
+      </c>
+      <c r="BC90">
+        <v>1.71</v>
+      </c>
+      <c r="BD90">
+        <v>2.2</v>
+      </c>
+      <c r="BE90">
+        <v>3</v>
+      </c>
+      <c r="BF90">
+        <v>4</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>2</v>
+      </c>
+      <c r="BI90">
+        <v>2</v>
+      </c>
+      <c r="BJ90">
+        <v>6</v>
+      </c>
+      <c r="BK90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5239143</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45122.45833333334</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>136</v>
+      </c>
+      <c r="P91" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q91">
+        <v>6</v>
+      </c>
+      <c r="R91">
+        <v>4</v>
+      </c>
+      <c r="S91">
+        <v>10</v>
+      </c>
+      <c r="T91">
+        <v>3.1</v>
+      </c>
+      <c r="U91">
+        <v>2.16</v>
+      </c>
+      <c r="V91">
+        <v>3.25</v>
+      </c>
+      <c r="W91">
+        <v>1.36</v>
+      </c>
+      <c r="X91">
+        <v>3</v>
+      </c>
+      <c r="Y91">
+        <v>2.62</v>
+      </c>
+      <c r="Z91">
+        <v>1.44</v>
+      </c>
+      <c r="AA91">
+        <v>6</v>
+      </c>
+      <c r="AB91">
+        <v>1.11</v>
+      </c>
+      <c r="AC91">
+        <v>2.56</v>
+      </c>
+      <c r="AD91">
+        <v>3.45</v>
+      </c>
+      <c r="AE91">
+        <v>2.65</v>
+      </c>
+      <c r="AF91">
+        <v>1.05</v>
+      </c>
+      <c r="AG91">
+        <v>9</v>
+      </c>
+      <c r="AH91">
+        <v>1.3</v>
+      </c>
+      <c r="AI91">
+        <v>3.4</v>
+      </c>
+      <c r="AJ91">
+        <v>1.89</v>
+      </c>
+      <c r="AK91">
+        <v>1.91</v>
+      </c>
+      <c r="AL91">
+        <v>1.69</v>
+      </c>
+      <c r="AM91">
+        <v>2.11</v>
+      </c>
+      <c r="AN91">
+        <v>1.48</v>
+      </c>
+      <c r="AO91">
+        <v>1.31</v>
+      </c>
+      <c r="AP91">
+        <v>1.51</v>
+      </c>
+      <c r="AQ91">
+        <v>1.14</v>
+      </c>
+      <c r="AR91">
+        <v>2.13</v>
+      </c>
+      <c r="AS91">
+        <v>1.38</v>
+      </c>
+      <c r="AT91">
+        <v>1.89</v>
+      </c>
+      <c r="AU91">
+        <v>1.3</v>
+      </c>
+      <c r="AV91">
+        <v>1.4</v>
+      </c>
+      <c r="AW91">
+        <v>2.7</v>
+      </c>
+      <c r="AX91">
+        <v>2.2</v>
+      </c>
+      <c r="AY91">
+        <v>8</v>
+      </c>
+      <c r="AZ91">
+        <v>1.91</v>
+      </c>
+      <c r="BA91">
+        <v>1.2</v>
+      </c>
+      <c r="BB91">
+        <v>1.4</v>
+      </c>
+      <c r="BC91">
+        <v>1.7</v>
+      </c>
+      <c r="BD91">
+        <v>2.2</v>
+      </c>
+      <c r="BE91">
+        <v>3</v>
+      </c>
+      <c r="BF91">
+        <v>9</v>
+      </c>
+      <c r="BG91">
+        <v>4</v>
+      </c>
+      <c r="BH91">
+        <v>3</v>
+      </c>
+      <c r="BI91">
+        <v>3</v>
+      </c>
+      <c r="BJ91">
+        <v>12</v>
+      </c>
+      <c r="BK91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5239144</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45123.52083333334</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>75</v>
+      </c>
+      <c r="H92" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>133</v>
+      </c>
+      <c r="P92" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
+      </c>
+      <c r="S92">
+        <v>8</v>
+      </c>
+      <c r="T92">
+        <v>4.75</v>
+      </c>
+      <c r="U92">
+        <v>2.05</v>
+      </c>
+      <c r="V92">
+        <v>2.6</v>
+      </c>
+      <c r="W92">
+        <v>1.44</v>
+      </c>
+      <c r="X92">
+        <v>2.63</v>
+      </c>
+      <c r="Y92">
+        <v>3.4</v>
+      </c>
+      <c r="Z92">
+        <v>1.3</v>
+      </c>
+      <c r="AA92">
+        <v>10</v>
+      </c>
+      <c r="AB92">
+        <v>1.06</v>
+      </c>
+      <c r="AC92">
+        <v>3.35</v>
+      </c>
+      <c r="AD92">
+        <v>3.35</v>
+      </c>
+      <c r="AE92">
+        <v>1.99</v>
+      </c>
+      <c r="AF92">
+        <v>1.08</v>
+      </c>
+      <c r="AG92">
+        <v>7</v>
+      </c>
+      <c r="AH92">
+        <v>1.36</v>
+      </c>
+      <c r="AI92">
+        <v>3</v>
+      </c>
+      <c r="AJ92">
+        <v>1.98</v>
+      </c>
+      <c r="AK92">
+        <v>1.9</v>
+      </c>
+      <c r="AL92">
+        <v>2</v>
+      </c>
+      <c r="AM92">
+        <v>1.75</v>
+      </c>
+      <c r="AN92">
+        <v>1.9</v>
+      </c>
+      <c r="AO92">
+        <v>1.32</v>
+      </c>
+      <c r="AP92">
+        <v>1.13</v>
+      </c>
+      <c r="AQ92">
+        <v>0.8</v>
+      </c>
+      <c r="AR92">
+        <v>2</v>
+      </c>
+      <c r="AS92">
+        <v>0.83</v>
+      </c>
+      <c r="AT92">
+        <v>1.86</v>
+      </c>
+      <c r="AU92">
+        <v>1.38</v>
+      </c>
+      <c r="AV92">
+        <v>1.35</v>
+      </c>
+      <c r="AW92">
+        <v>2.73</v>
+      </c>
+      <c r="AX92">
+        <v>2.54</v>
+      </c>
+      <c r="AY92">
+        <v>8</v>
+      </c>
+      <c r="AZ92">
+        <v>1.69</v>
+      </c>
+      <c r="BA92">
+        <v>1.18</v>
+      </c>
+      <c r="BB92">
+        <v>1.36</v>
+      </c>
+      <c r="BC92">
+        <v>1.63</v>
+      </c>
+      <c r="BD92">
+        <v>2.1</v>
+      </c>
+      <c r="BE92">
+        <v>2.8</v>
+      </c>
+      <c r="BF92">
+        <v>4</v>
+      </c>
+      <c r="BG92">
+        <v>4</v>
+      </c>
+      <c r="BH92">
+        <v>2</v>
+      </c>
+      <c r="BI92">
+        <v>4</v>
+      </c>
+      <c r="BJ92">
+        <v>6</v>
+      </c>
+      <c r="BK92">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['17', '68', '90']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -521,9 +524,6 @@
   </si>
   <si>
     <t>['48', '74']</t>
-  </si>
-  <si>
-    <t>['69']</t>
   </si>
   <si>
     <t>['90+8']</t>
@@ -924,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1168,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1359,7 +1359,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1550,7 +1550,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2404,7 +2404,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU8">
         <v>1.45</v>
@@ -2505,7 +2505,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2696,7 +2696,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3269,7 +3269,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -4033,7 +4033,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4415,7 +4415,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4606,7 +4606,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4988,7 +4988,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5561,7 +5561,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5651,7 +5651,7 @@
         <v>0.75</v>
       </c>
       <c r="AT25">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU25">
         <v>1.35</v>
@@ -5943,7 +5943,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6325,7 +6325,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6516,7 +6516,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6707,7 +6707,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6898,7 +6898,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6988,7 +6988,7 @@
         <v>1.43</v>
       </c>
       <c r="AT32">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU32">
         <v>0.5600000000000001</v>
@@ -7089,7 +7089,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7280,7 +7280,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7752,7 +7752,7 @@
         <v>1.38</v>
       </c>
       <c r="AT36">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -7853,7 +7853,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8044,7 +8044,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8808,7 +8808,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8999,7 +8999,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9190,7 +9190,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9381,7 +9381,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>0.71</v>
@@ -9572,7 +9572,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9763,7 +9763,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10044,7 +10044,7 @@
         <v>2.38</v>
       </c>
       <c r="AT48">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10232,7 +10232,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT49">
         <v>0.38</v>
@@ -10336,7 +10336,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10527,7 +10527,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10996,7 +10996,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>1.13</v>
@@ -11673,7 +11673,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11864,7 +11864,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12246,7 +12246,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.71</v>
@@ -12819,7 +12819,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -13010,7 +13010,7 @@
         <v>120</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13673,7 +13673,7 @@
         <v>1.38</v>
       </c>
       <c r="AT67">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU67">
         <v>1.17</v>
@@ -14434,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT71">
         <v>0.86</v>
@@ -15875,7 +15875,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16538,7 +16538,7 @@
         <v>0.83</v>
       </c>
       <c r="AT82">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU82">
         <v>1.42</v>
@@ -17872,7 +17872,7 @@
         <v>0.57</v>
       </c>
       <c r="AS89">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT89">
         <v>0.88</v>
@@ -18500,6 +18500,197 @@
       </c>
       <c r="BK92">
         <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5239145</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45124.5</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s">
+        <v>65</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>137</v>
+      </c>
+      <c r="P93" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q93">
+        <v>6</v>
+      </c>
+      <c r="R93">
+        <v>7</v>
+      </c>
+      <c r="S93">
+        <v>13</v>
+      </c>
+      <c r="T93">
+        <v>3.75</v>
+      </c>
+      <c r="U93">
+        <v>2.05</v>
+      </c>
+      <c r="V93">
+        <v>3.1</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>2.63</v>
+      </c>
+      <c r="Y93">
+        <v>3.25</v>
+      </c>
+      <c r="Z93">
+        <v>1.33</v>
+      </c>
+      <c r="AA93">
+        <v>10</v>
+      </c>
+      <c r="AB93">
+        <v>1.06</v>
+      </c>
+      <c r="AC93">
+        <v>2.87</v>
+      </c>
+      <c r="AD93">
+        <v>3</v>
+      </c>
+      <c r="AE93">
+        <v>2.3</v>
+      </c>
+      <c r="AF93">
+        <v>1.07</v>
+      </c>
+      <c r="AG93">
+        <v>7</v>
+      </c>
+      <c r="AH93">
+        <v>1.36</v>
+      </c>
+      <c r="AI93">
+        <v>2.9</v>
+      </c>
+      <c r="AJ93">
+        <v>2.1</v>
+      </c>
+      <c r="AK93">
+        <v>1.67</v>
+      </c>
+      <c r="AL93">
+        <v>1.95</v>
+      </c>
+      <c r="AM93">
+        <v>1.8</v>
+      </c>
+      <c r="AN93">
+        <v>1.52</v>
+      </c>
+      <c r="AO93">
+        <v>1.34</v>
+      </c>
+      <c r="AP93">
+        <v>1.39</v>
+      </c>
+      <c r="AQ93">
+        <v>2.17</v>
+      </c>
+      <c r="AR93">
+        <v>2.29</v>
+      </c>
+      <c r="AS93">
+        <v>2</v>
+      </c>
+      <c r="AT93">
+        <v>2.13</v>
+      </c>
+      <c r="AU93">
+        <v>1.73</v>
+      </c>
+      <c r="AV93">
+        <v>1.56</v>
+      </c>
+      <c r="AW93">
+        <v>3.29</v>
+      </c>
+      <c r="AX93">
+        <v>1.91</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>2.2</v>
+      </c>
+      <c r="BA93">
+        <v>1.22</v>
+      </c>
+      <c r="BB93">
+        <v>1.44</v>
+      </c>
+      <c r="BC93">
+        <v>1.93</v>
+      </c>
+      <c r="BD93">
+        <v>2.25</v>
+      </c>
+      <c r="BE93">
+        <v>3.04</v>
+      </c>
+      <c r="BF93">
+        <v>5</v>
+      </c>
+      <c r="BG93">
+        <v>6</v>
+      </c>
+      <c r="BH93">
+        <v>5</v>
+      </c>
+      <c r="BI93">
+        <v>9</v>
+      </c>
+      <c r="BJ93">
+        <v>10</v>
+      </c>
+      <c r="BK93">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,10 +430,19 @@
     <t>['69']</t>
   </si>
   <si>
-    <t>['12', '73']</t>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['12', '71', '80']</t>
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['38', '41', '77', '90']</t>
+  </si>
+  <si>
+    <t>['12', '73']</t>
   </si>
   <si>
     <t>['54']</t>
@@ -538,9 +547,6 @@
     <t>['27', '84']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['45+1']</t>
   </si>
   <si>
@@ -563,6 +569,15 @@
   </si>
   <si>
     <t>['28', '51']</t>
+  </si>
+  <si>
+    <t>['47', '66']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['32', '90']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK93"/>
+  <dimension ref="A1:BK98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1183,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1359,7 +1374,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1449,7 +1464,7 @@
         <v>2.38</v>
       </c>
       <c r="AT3">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1550,7 +1565,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1640,7 +1655,7 @@
         <v>0.75</v>
       </c>
       <c r="AT4">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1828,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT5">
         <v>1.13</v>
@@ -1932,7 +1947,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2210,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT7">
         <v>1.13</v>
@@ -2505,7 +2520,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2696,7 +2711,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2977,7 +2992,7 @@
         <v>1.38</v>
       </c>
       <c r="AT11">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3165,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT12">
         <v>1.38</v>
@@ -3269,7 +3284,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3738,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT15">
         <v>0.88</v>
@@ -4033,7 +4048,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4123,7 +4138,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>1.15</v>
@@ -4314,7 +4329,7 @@
         <v>1.67</v>
       </c>
       <c r="AT18">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>1.67</v>
@@ -4415,7 +4430,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4502,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="AS19">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT19">
         <v>1.89</v>
@@ -4606,7 +4621,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4884,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT21">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU21">
         <v>1.41</v>
@@ -4988,7 +5003,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5075,10 +5090,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT22">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5266,7 +5281,7 @@
         <v>1.33</v>
       </c>
       <c r="AS23">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT23">
         <v>1.13</v>
@@ -5460,7 +5475,7 @@
         <v>1.38</v>
       </c>
       <c r="AT24">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU24">
         <v>1.11</v>
@@ -5561,7 +5576,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5943,7 +5958,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6033,7 +6048,7 @@
         <v>1.29</v>
       </c>
       <c r="AT27">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU27">
         <v>1.05</v>
@@ -6325,7 +6340,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6412,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT29">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>0.92</v>
@@ -6516,7 +6531,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6707,7 +6722,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6898,7 +6913,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6985,7 +7000,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT32">
         <v>2.13</v>
@@ -7089,7 +7104,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7179,7 +7194,7 @@
         <v>1.38</v>
       </c>
       <c r="AT33">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU33">
         <v>1.65</v>
@@ -7280,7 +7295,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7558,10 +7573,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT35">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7853,7 +7868,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7940,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT37">
         <v>0.71</v>
@@ -8044,7 +8059,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8131,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT38">
         <v>0.88</v>
@@ -8325,7 +8340,7 @@
         <v>2.38</v>
       </c>
       <c r="AT39">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU39">
         <v>1.71</v>
@@ -8516,7 +8531,7 @@
         <v>0.75</v>
       </c>
       <c r="AT40">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU40">
         <v>1.18</v>
@@ -8808,7 +8823,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8999,7 +9014,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9190,7 +9205,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9277,7 +9292,7 @@
         <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT44">
         <v>1.13</v>
@@ -9381,7 +9396,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9468,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9572,7 +9587,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9662,7 +9677,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>1.19</v>
@@ -9763,7 +9778,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9850,10 +9865,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT47">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU47">
         <v>1.12</v>
@@ -10232,10 +10247,10 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT49">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10336,7 +10351,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10423,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT50">
         <v>1.89</v>
@@ -10527,7 +10542,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10617,7 +10632,7 @@
         <v>1.38</v>
       </c>
       <c r="AT51">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -10996,7 +11011,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT53">
         <v>1.13</v>
@@ -11190,7 +11205,7 @@
         <v>1.67</v>
       </c>
       <c r="AT54">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU54">
         <v>1.65</v>
@@ -11569,10 +11584,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT56">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU56">
         <v>1.53</v>
@@ -11673,7 +11688,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11760,10 +11775,10 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT57">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11864,7 +11879,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12145,7 +12160,7 @@
         <v>1.38</v>
       </c>
       <c r="AT59">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU59">
         <v>1.4</v>
@@ -12246,7 +12261,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12333,10 +12348,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT60">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU60">
         <v>1.9</v>
@@ -12718,7 +12733,7 @@
         <v>1.29</v>
       </c>
       <c r="AT62">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU62">
         <v>1.23</v>
@@ -12819,7 +12834,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12906,7 +12921,7 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT63">
         <v>1.38</v>
@@ -13201,7 +13216,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13392,7 +13407,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13479,7 +13494,7 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT66">
         <v>0.71</v>
@@ -13583,7 +13598,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13670,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT67">
         <v>2.13</v>
@@ -13774,7 +13789,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13864,7 +13879,7 @@
         <v>0.75</v>
       </c>
       <c r="AT68">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU68">
         <v>1.17</v>
@@ -14052,10 +14067,10 @@
         <v>0.8</v>
       </c>
       <c r="AS69">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT69">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU69">
         <v>1.49</v>
@@ -14243,10 +14258,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT70">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU70">
         <v>1.54</v>
@@ -14347,7 +14362,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14434,10 +14449,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT71">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU71">
         <v>1.76</v>
@@ -14538,7 +14553,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14628,7 +14643,7 @@
         <v>1.67</v>
       </c>
       <c r="AT72">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.58</v>
@@ -14729,7 +14744,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15111,7 +15126,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15771,10 +15786,10 @@
         <v>0.43</v>
       </c>
       <c r="AS78">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT78">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU78">
         <v>1.13</v>
@@ -15875,7 +15890,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -15965,7 +15980,7 @@
         <v>1.38</v>
       </c>
       <c r="AT79">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16153,7 +16168,7 @@
         <v>0.8</v>
       </c>
       <c r="AS80">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT80">
         <v>0.71</v>
@@ -16347,7 +16362,7 @@
         <v>0.75</v>
       </c>
       <c r="AT81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU81">
         <v>1.18</v>
@@ -16448,7 +16463,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16535,7 +16550,7 @@
         <v>2.17</v>
       </c>
       <c r="AS82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT82">
         <v>2.13</v>
@@ -16639,7 +16654,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -16726,7 +16741,7 @@
         <v>0.86</v>
       </c>
       <c r="AS83">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT83">
         <v>1.13</v>
@@ -17111,7 +17126,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17403,7 +17418,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17594,7 +17609,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17785,7 +17800,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -17872,7 +17887,7 @@
         <v>0.57</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT89">
         <v>0.88</v>
@@ -18066,7 +18081,7 @@
         <v>1.38</v>
       </c>
       <c r="AT90">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.22</v>
@@ -18254,7 +18269,7 @@
         <v>2.13</v>
       </c>
       <c r="AS91">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT91">
         <v>1.89</v>
@@ -18358,7 +18373,7 @@
         <v>133</v>
       </c>
       <c r="P92" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18445,10 +18460,10 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT92">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU92">
         <v>1.38</v>
@@ -18636,7 +18651,7 @@
         <v>2.29</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT93">
         <v>2.13</v>
@@ -18691,6 +18706,961 @@
       </c>
       <c r="BK93">
         <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5239148</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45129.45833333334</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>66</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>138</v>
+      </c>
+      <c r="P94" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>5</v>
+      </c>
+      <c r="S94">
+        <v>8</v>
+      </c>
+      <c r="T94">
+        <v>3.14</v>
+      </c>
+      <c r="U94">
+        <v>2.07</v>
+      </c>
+      <c r="V94">
+        <v>3.44</v>
+      </c>
+      <c r="W94">
+        <v>1.43</v>
+      </c>
+      <c r="X94">
+        <v>2.71</v>
+      </c>
+      <c r="Y94">
+        <v>3</v>
+      </c>
+      <c r="Z94">
+        <v>1.36</v>
+      </c>
+      <c r="AA94">
+        <v>7.9</v>
+      </c>
+      <c r="AB94">
+        <v>1.06</v>
+      </c>
+      <c r="AC94">
+        <v>2.6</v>
+      </c>
+      <c r="AD94">
+        <v>3.3</v>
+      </c>
+      <c r="AE94">
+        <v>2.65</v>
+      </c>
+      <c r="AF94">
+        <v>1.05</v>
+      </c>
+      <c r="AG94">
+        <v>8</v>
+      </c>
+      <c r="AH94">
+        <v>1.33</v>
+      </c>
+      <c r="AI94">
+        <v>3</v>
+      </c>
+      <c r="AJ94">
+        <v>2.03</v>
+      </c>
+      <c r="AK94">
+        <v>1.7</v>
+      </c>
+      <c r="AL94">
+        <v>1.82</v>
+      </c>
+      <c r="AM94">
+        <v>1.94</v>
+      </c>
+      <c r="AN94">
+        <v>1.44</v>
+      </c>
+      <c r="AO94">
+        <v>1.33</v>
+      </c>
+      <c r="AP94">
+        <v>1.51</v>
+      </c>
+      <c r="AQ94">
+        <v>2</v>
+      </c>
+      <c r="AR94">
+        <v>1.86</v>
+      </c>
+      <c r="AS94">
+        <v>1.75</v>
+      </c>
+      <c r="AT94">
+        <v>2</v>
+      </c>
+      <c r="AU94">
+        <v>1.68</v>
+      </c>
+      <c r="AV94">
+        <v>1.31</v>
+      </c>
+      <c r="AW94">
+        <v>2.99</v>
+      </c>
+      <c r="AX94">
+        <v>1.85</v>
+      </c>
+      <c r="AY94">
+        <v>8</v>
+      </c>
+      <c r="AZ94">
+        <v>2.28</v>
+      </c>
+      <c r="BA94">
+        <v>1.2</v>
+      </c>
+      <c r="BB94">
+        <v>1.38</v>
+      </c>
+      <c r="BC94">
+        <v>1.67</v>
+      </c>
+      <c r="BD94">
+        <v>2.12</v>
+      </c>
+      <c r="BE94">
+        <v>2.85</v>
+      </c>
+      <c r="BF94">
+        <v>4</v>
+      </c>
+      <c r="BG94">
+        <v>4</v>
+      </c>
+      <c r="BH94">
+        <v>6</v>
+      </c>
+      <c r="BI94">
+        <v>3</v>
+      </c>
+      <c r="BJ94">
+        <v>10</v>
+      </c>
+      <c r="BK94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5239146</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45129.45833333334</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s">
+        <v>69</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>139</v>
+      </c>
+      <c r="P95" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>8</v>
+      </c>
+      <c r="T95">
+        <v>2.3</v>
+      </c>
+      <c r="U95">
+        <v>2.18</v>
+      </c>
+      <c r="V95">
+        <v>5.25</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>2.83</v>
+      </c>
+      <c r="Y95">
+        <v>2.88</v>
+      </c>
+      <c r="Z95">
+        <v>1.39</v>
+      </c>
+      <c r="AA95">
+        <v>7.2</v>
+      </c>
+      <c r="AB95">
+        <v>1.08</v>
+      </c>
+      <c r="AC95">
+        <v>1.77</v>
+      </c>
+      <c r="AD95">
+        <v>3.7</v>
+      </c>
+      <c r="AE95">
+        <v>4.2</v>
+      </c>
+      <c r="AF95">
+        <v>1.02</v>
+      </c>
+      <c r="AG95">
+        <v>8.9</v>
+      </c>
+      <c r="AH95">
+        <v>1.3</v>
+      </c>
+      <c r="AI95">
+        <v>3.2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.89</v>
+      </c>
+      <c r="AK95">
+        <v>1.88</v>
+      </c>
+      <c r="AL95">
+        <v>1.88</v>
+      </c>
+      <c r="AM95">
+        <v>1.88</v>
+      </c>
+      <c r="AN95">
+        <v>1.18</v>
+      </c>
+      <c r="AO95">
+        <v>1.27</v>
+      </c>
+      <c r="AP95">
+        <v>2.1</v>
+      </c>
+      <c r="AQ95">
+        <v>1.43</v>
+      </c>
+      <c r="AR95">
+        <v>0.71</v>
+      </c>
+      <c r="AS95">
+        <v>1.63</v>
+      </c>
+      <c r="AT95">
+        <v>0.63</v>
+      </c>
+      <c r="AU95">
+        <v>1.15</v>
+      </c>
+      <c r="AV95">
+        <v>1.3</v>
+      </c>
+      <c r="AW95">
+        <v>2.45</v>
+      </c>
+      <c r="AX95">
+        <v>1.64</v>
+      </c>
+      <c r="AY95">
+        <v>8.5</v>
+      </c>
+      <c r="AZ95">
+        <v>2.66</v>
+      </c>
+      <c r="BA95">
+        <v>1.2</v>
+      </c>
+      <c r="BB95">
+        <v>1.38</v>
+      </c>
+      <c r="BC95">
+        <v>1.67</v>
+      </c>
+      <c r="BD95">
+        <v>2.12</v>
+      </c>
+      <c r="BE95">
+        <v>2.85</v>
+      </c>
+      <c r="BF95">
+        <v>4</v>
+      </c>
+      <c r="BG95">
+        <v>3</v>
+      </c>
+      <c r="BH95">
+        <v>6</v>
+      </c>
+      <c r="BI95">
+        <v>4</v>
+      </c>
+      <c r="BJ95">
+        <v>10</v>
+      </c>
+      <c r="BK95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5239147</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45129.45833333334</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>140</v>
+      </c>
+      <c r="P96" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="S96">
+        <v>10</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>2.15</v>
+      </c>
+      <c r="V96">
+        <v>6.75</v>
+      </c>
+      <c r="W96">
+        <v>1.42</v>
+      </c>
+      <c r="X96">
+        <v>2.65</v>
+      </c>
+      <c r="Y96">
+        <v>2.95</v>
+      </c>
+      <c r="Z96">
+        <v>1.35</v>
+      </c>
+      <c r="AA96">
+        <v>8.5</v>
+      </c>
+      <c r="AB96">
+        <v>1.07</v>
+      </c>
+      <c r="AC96">
+        <v>1.49</v>
+      </c>
+      <c r="AD96">
+        <v>4.22</v>
+      </c>
+      <c r="AE96">
+        <v>7.15</v>
+      </c>
+      <c r="AF96">
+        <v>1.07</v>
+      </c>
+      <c r="AG96">
+        <v>10.25</v>
+      </c>
+      <c r="AH96">
+        <v>1.36</v>
+      </c>
+      <c r="AI96">
+        <v>3.2</v>
+      </c>
+      <c r="AJ96">
+        <v>2.08</v>
+      </c>
+      <c r="AK96">
+        <v>1.76</v>
+      </c>
+      <c r="AL96">
+        <v>2.25</v>
+      </c>
+      <c r="AM96">
+        <v>1.62</v>
+      </c>
+      <c r="AN96">
+        <v>1.12</v>
+      </c>
+      <c r="AO96">
+        <v>1.23</v>
+      </c>
+      <c r="AP96">
+        <v>2.6</v>
+      </c>
+      <c r="AQ96">
+        <v>2.13</v>
+      </c>
+      <c r="AR96">
+        <v>0.86</v>
+      </c>
+      <c r="AS96">
+        <v>2.22</v>
+      </c>
+      <c r="AT96">
+        <v>0.75</v>
+      </c>
+      <c r="AU96">
+        <v>1.52</v>
+      </c>
+      <c r="AV96">
+        <v>1.39</v>
+      </c>
+      <c r="AW96">
+        <v>2.91</v>
+      </c>
+      <c r="AX96">
+        <v>1.3</v>
+      </c>
+      <c r="AY96">
+        <v>10</v>
+      </c>
+      <c r="AZ96">
+        <v>4.42</v>
+      </c>
+      <c r="BA96">
+        <v>1.25</v>
+      </c>
+      <c r="BB96">
+        <v>1.47</v>
+      </c>
+      <c r="BC96">
+        <v>1.83</v>
+      </c>
+      <c r="BD96">
+        <v>2.38</v>
+      </c>
+      <c r="BE96">
+        <v>3.25</v>
+      </c>
+      <c r="BF96">
+        <v>3</v>
+      </c>
+      <c r="BG96">
+        <v>3</v>
+      </c>
+      <c r="BH96">
+        <v>2</v>
+      </c>
+      <c r="BI96">
+        <v>6</v>
+      </c>
+      <c r="BJ96">
+        <v>5</v>
+      </c>
+      <c r="BK96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5239149</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45130.375</v>
+      </c>
+      <c r="F97">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>80</v>
+      </c>
+      <c r="P97" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>5</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>2.05</v>
+      </c>
+      <c r="V97">
+        <v>4</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>2.6</v>
+      </c>
+      <c r="Y97">
+        <v>3</v>
+      </c>
+      <c r="Z97">
+        <v>1.33</v>
+      </c>
+      <c r="AA97">
+        <v>7</v>
+      </c>
+      <c r="AB97">
+        <v>1.07</v>
+      </c>
+      <c r="AC97">
+        <v>1.99</v>
+      </c>
+      <c r="AD97">
+        <v>3.35</v>
+      </c>
+      <c r="AE97">
+        <v>3.35</v>
+      </c>
+      <c r="AF97">
+        <v>1.06</v>
+      </c>
+      <c r="AG97">
+        <v>7.5</v>
+      </c>
+      <c r="AH97">
+        <v>1.33</v>
+      </c>
+      <c r="AI97">
+        <v>3</v>
+      </c>
+      <c r="AJ97">
+        <v>1.83</v>
+      </c>
+      <c r="AK97">
+        <v>1.83</v>
+      </c>
+      <c r="AL97">
+        <v>1.85</v>
+      </c>
+      <c r="AM97">
+        <v>1.85</v>
+      </c>
+      <c r="AN97">
+        <v>1.3</v>
+      </c>
+      <c r="AO97">
+        <v>1.35</v>
+      </c>
+      <c r="AP97">
+        <v>1.7</v>
+      </c>
+      <c r="AQ97">
+        <v>0.83</v>
+      </c>
+      <c r="AR97">
+        <v>0.71</v>
+      </c>
+      <c r="AS97">
+        <v>0.71</v>
+      </c>
+      <c r="AT97">
+        <v>1</v>
+      </c>
+      <c r="AU97">
+        <v>1.3</v>
+      </c>
+      <c r="AV97">
+        <v>1.11</v>
+      </c>
+      <c r="AW97">
+        <v>2.41</v>
+      </c>
+      <c r="AX97">
+        <v>1.51</v>
+      </c>
+      <c r="AY97">
+        <v>8.5</v>
+      </c>
+      <c r="AZ97">
+        <v>3.07</v>
+      </c>
+      <c r="BA97">
+        <v>1.22</v>
+      </c>
+      <c r="BB97">
+        <v>1.42</v>
+      </c>
+      <c r="BC97">
+        <v>1.74</v>
+      </c>
+      <c r="BD97">
+        <v>2.23</v>
+      </c>
+      <c r="BE97">
+        <v>3</v>
+      </c>
+      <c r="BF97">
+        <v>5</v>
+      </c>
+      <c r="BG97">
+        <v>4</v>
+      </c>
+      <c r="BH97">
+        <v>8</v>
+      </c>
+      <c r="BI97">
+        <v>2</v>
+      </c>
+      <c r="BJ97">
+        <v>13</v>
+      </c>
+      <c r="BK97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5239150</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45130.52083333334</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>68</v>
+      </c>
+      <c r="H98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98" t="s">
+        <v>141</v>
+      </c>
+      <c r="P98" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q98">
+        <v>7</v>
+      </c>
+      <c r="R98">
+        <v>11</v>
+      </c>
+      <c r="S98">
+        <v>18</v>
+      </c>
+      <c r="T98">
+        <v>2.52</v>
+      </c>
+      <c r="U98">
+        <v>2.28</v>
+      </c>
+      <c r="V98">
+        <v>4.89</v>
+      </c>
+      <c r="W98">
+        <v>1.42</v>
+      </c>
+      <c r="X98">
+        <v>3</v>
+      </c>
+      <c r="Y98">
+        <v>3.05</v>
+      </c>
+      <c r="Z98">
+        <v>1.41</v>
+      </c>
+      <c r="AA98">
+        <v>7.5</v>
+      </c>
+      <c r="AB98">
+        <v>1.07</v>
+      </c>
+      <c r="AC98">
+        <v>1.74</v>
+      </c>
+      <c r="AD98">
+        <v>3.75</v>
+      </c>
+      <c r="AE98">
+        <v>4.1</v>
+      </c>
+      <c r="AF98">
+        <v>1.06</v>
+      </c>
+      <c r="AG98">
+        <v>11.5</v>
+      </c>
+      <c r="AH98">
+        <v>1.31</v>
+      </c>
+      <c r="AI98">
+        <v>3.48</v>
+      </c>
+      <c r="AJ98">
+        <v>1.91</v>
+      </c>
+      <c r="AK98">
+        <v>1.79</v>
+      </c>
+      <c r="AL98">
+        <v>1.93</v>
+      </c>
+      <c r="AM98">
+        <v>1.85</v>
+      </c>
+      <c r="AN98">
+        <v>1.24</v>
+      </c>
+      <c r="AO98">
+        <v>1.28</v>
+      </c>
+      <c r="AP98">
+        <v>1.95</v>
+      </c>
+      <c r="AQ98">
+        <v>1.38</v>
+      </c>
+      <c r="AR98">
+        <v>0.38</v>
+      </c>
+      <c r="AS98">
+        <v>1.56</v>
+      </c>
+      <c r="AT98">
+        <v>0.33</v>
+      </c>
+      <c r="AU98">
+        <v>1.37</v>
+      </c>
+      <c r="AV98">
+        <v>1.07</v>
+      </c>
+      <c r="AW98">
+        <v>2.44</v>
+      </c>
+      <c r="AX98">
+        <v>1.64</v>
+      </c>
+      <c r="AY98">
+        <v>8.5</v>
+      </c>
+      <c r="AZ98">
+        <v>2.66</v>
+      </c>
+      <c r="BA98">
+        <v>1.2</v>
+      </c>
+      <c r="BB98">
+        <v>1.38</v>
+      </c>
+      <c r="BC98">
+        <v>1.67</v>
+      </c>
+      <c r="BD98">
+        <v>2.12</v>
+      </c>
+      <c r="BE98">
+        <v>2.85</v>
+      </c>
+      <c r="BF98">
+        <v>5</v>
+      </c>
+      <c r="BG98">
+        <v>6</v>
+      </c>
+      <c r="BH98">
+        <v>3</v>
+      </c>
+      <c r="BI98">
+        <v>6</v>
+      </c>
+      <c r="BJ98">
+        <v>8</v>
+      </c>
+      <c r="BK98">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -19645,7 +19645,7 @@
         <v>2.85</v>
       </c>
       <c r="BF98">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG98">
         <v>6</v>
@@ -19654,13 +19654,13 @@
         <v>3</v>
       </c>
       <c r="BI98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ98">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK98">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,15 @@
     <t>['38', '41', '77', '90']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['26', '53', '66', '89']</t>
+  </si>
+  <si>
+    <t>['3', '55']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -547,9 +556,6 @@
     <t>['27', '84']</t>
   </si>
   <si>
-    <t>['45+1']</t>
-  </si>
-  <si>
     <t>['35', '46', '82', '86']</t>
   </si>
   <si>
@@ -578,6 +584,18 @@
   </si>
   <si>
     <t>['32', '90']</t>
+  </si>
+  <si>
+    <t>['11', '15']</t>
+  </si>
+  <si>
+    <t>['55', '60']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['5', '25']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK98"/>
+  <dimension ref="A1:BK104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,7 +1201,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1270,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT2">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1461,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT3">
         <v>0.33</v>
@@ -1565,7 +1583,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1652,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT4">
         <v>0.75</v>
@@ -1846,7 +1864,7 @@
         <v>1.56</v>
       </c>
       <c r="AT5">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1947,7 +1965,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2037,7 +2055,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2520,7 +2538,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2607,10 +2625,10 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2711,7 +2729,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2798,10 +2816,10 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT10">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2989,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT11">
         <v>2</v>
@@ -3183,7 +3201,7 @@
         <v>1.56</v>
       </c>
       <c r="AT12">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU12">
         <v>0.87</v>
@@ -3284,7 +3302,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3371,10 +3389,10 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT13">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU13">
         <v>0.97</v>
@@ -3562,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT14">
         <v>1.13</v>
@@ -3756,7 +3774,7 @@
         <v>2.22</v>
       </c>
       <c r="AT15">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU15">
         <v>1.36</v>
@@ -3944,10 +3962,10 @@
         <v>2</v>
       </c>
       <c r="AS16">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT16">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU16">
         <v>1.33</v>
@@ -4048,7 +4066,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4326,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT18">
         <v>0.75</v>
@@ -4430,7 +4448,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4520,7 +4538,7 @@
         <v>2.22</v>
       </c>
       <c r="AT19">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU19">
         <v>1.59</v>
@@ -4621,7 +4639,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4708,7 +4726,7 @@
         <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT20">
         <v>1.13</v>
@@ -5003,7 +5021,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5472,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT24">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU24">
         <v>1.11</v>
@@ -5576,7 +5594,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5663,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT25">
         <v>2.13</v>
@@ -5854,10 +5872,10 @@
         <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT26">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU26">
         <v>0.99</v>
@@ -5958,7 +5976,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6045,10 +6063,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT27">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU27">
         <v>1.05</v>
@@ -6236,10 +6254,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT28">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.57</v>
@@ -6340,7 +6358,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6531,7 +6549,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6618,10 +6636,10 @@
         <v>1.67</v>
       </c>
       <c r="AS30">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT30">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU30">
         <v>1.11</v>
@@ -6722,7 +6740,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6809,10 +6827,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT31">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU31">
         <v>1.67</v>
@@ -6913,7 +6931,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7104,7 +7122,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7191,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT33">
         <v>0.33</v>
@@ -7295,7 +7313,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7385,7 +7403,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7576,7 +7594,7 @@
         <v>0.71</v>
       </c>
       <c r="AT35">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7764,7 +7782,7 @@
         <v>2.33</v>
       </c>
       <c r="AS36">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT36">
         <v>2.13</v>
@@ -7868,7 +7886,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7958,7 +7976,7 @@
         <v>2.22</v>
       </c>
       <c r="AT37">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.44</v>
@@ -8059,7 +8077,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8149,7 +8167,7 @@
         <v>1.63</v>
       </c>
       <c r="AT38">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU38">
         <v>0.87</v>
@@ -8337,7 +8355,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT39">
         <v>0.75</v>
@@ -8528,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT40">
         <v>0.33</v>
@@ -8719,10 +8737,10 @@
         <v>1.25</v>
       </c>
       <c r="AS41">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT41">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -8823,7 +8841,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8910,10 +8928,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT42">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -9014,7 +9032,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9101,10 +9119,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU43">
         <v>1.23</v>
@@ -9205,7 +9223,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9396,7 +9414,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9587,7 +9605,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9778,7 +9796,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10056,7 +10074,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT48">
         <v>2.13</v>
@@ -10351,7 +10369,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10441,7 +10459,7 @@
         <v>0.71</v>
       </c>
       <c r="AT50">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU50">
         <v>1.53</v>
@@ -10542,7 +10560,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10629,10 +10647,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT51">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -10820,10 +10838,10 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT52">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU52">
         <v>1.31</v>
@@ -11202,7 +11220,7 @@
         <v>0.6</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT54">
         <v>0.33</v>
@@ -11396,7 +11414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU55">
         <v>1.17</v>
@@ -11688,7 +11706,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11879,7 +11897,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11966,10 +11984,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT58">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU58">
         <v>1.25</v>
@@ -12157,7 +12175,7 @@
         <v>0.25</v>
       </c>
       <c r="AS59">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12261,7 +12279,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12351,7 +12369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU60">
         <v>1.9</v>
@@ -12539,10 +12557,10 @@
         <v>2.2</v>
       </c>
       <c r="AS61">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT61">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU61">
         <v>1.58</v>
@@ -12730,7 +12748,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT62">
         <v>0.75</v>
@@ -12834,7 +12852,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12924,7 +12942,7 @@
         <v>0.71</v>
       </c>
       <c r="AT63">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU63">
         <v>1.7</v>
@@ -13112,10 +13130,10 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT64">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13216,7 +13234,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13303,7 +13321,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT65">
         <v>1.13</v>
@@ -13407,7 +13425,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13497,7 +13515,7 @@
         <v>1.63</v>
       </c>
       <c r="AT66">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>1.18</v>
@@ -13598,7 +13616,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13789,7 +13807,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13876,7 +13894,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT68">
         <v>2</v>
@@ -14070,7 +14088,7 @@
         <v>2.22</v>
       </c>
       <c r="AT69">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU69">
         <v>1.49</v>
@@ -14553,7 +14571,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14640,7 +14658,7 @@
         <v>0.2</v>
       </c>
       <c r="AS72">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14744,7 +14762,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14831,10 +14849,10 @@
         <v>1.83</v>
       </c>
       <c r="AS73">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT73">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU73">
         <v>1.6</v>
@@ -15025,7 +15043,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU74">
         <v>1.27</v>
@@ -15126,7 +15144,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15213,10 +15231,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT75">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU75">
         <v>1.26</v>
@@ -15404,10 +15422,10 @@
         <v>0.2</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT76">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU76">
         <v>1.53</v>
@@ -15595,10 +15613,10 @@
         <v>1.43</v>
       </c>
       <c r="AS77">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT77">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -15890,7 +15908,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -15977,7 +15995,7 @@
         <v>2.2</v>
       </c>
       <c r="AS79">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT79">
         <v>2</v>
@@ -16171,7 +16189,7 @@
         <v>1.56</v>
       </c>
       <c r="AT80">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.2</v>
@@ -16359,10 +16377,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT81">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU81">
         <v>1.18</v>
@@ -16463,7 +16481,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16654,7 +16672,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -16744,7 +16762,7 @@
         <v>2.22</v>
       </c>
       <c r="AT83">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU83">
         <v>1.51</v>
@@ -16932,10 +16950,10 @@
         <v>0.17</v>
       </c>
       <c r="AS84">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT84">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU84">
         <v>1.61</v>
@@ -17314,7 +17332,7 @@
         <v>1.29</v>
       </c>
       <c r="AS86">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT86">
         <v>1.13</v>
@@ -17418,7 +17436,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17505,10 +17523,10 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -17609,7 +17627,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17696,10 +17714,10 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT88">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU88">
         <v>1.26</v>
@@ -17800,7 +17818,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -17890,7 +17908,7 @@
         <v>1.75</v>
       </c>
       <c r="AT89">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU89">
         <v>1.77</v>
@@ -18078,7 +18096,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18272,7 +18290,7 @@
         <v>1.56</v>
       </c>
       <c r="AT91">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU91">
         <v>1.3</v>
@@ -18373,7 +18391,7 @@
         <v>133</v>
       </c>
       <c r="P92" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18755,7 +18773,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18946,7 +18964,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19036,7 +19054,7 @@
         <v>1.63</v>
       </c>
       <c r="AT95">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU95">
         <v>1.15</v>
@@ -19328,7 +19346,7 @@
         <v>80</v>
       </c>
       <c r="P97" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19519,7 +19537,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19661,6 +19679,1152 @@
       </c>
       <c r="BK98">
         <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5239151</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45135.5</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>68</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>80</v>
+      </c>
+      <c r="P99" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q99">
+        <v>10</v>
+      </c>
+      <c r="R99">
+        <v>4</v>
+      </c>
+      <c r="S99">
+        <v>14</v>
+      </c>
+      <c r="T99">
+        <v>3.42</v>
+      </c>
+      <c r="U99">
+        <v>2.06</v>
+      </c>
+      <c r="V99">
+        <v>3.18</v>
+      </c>
+      <c r="W99">
+        <v>1.43</v>
+      </c>
+      <c r="X99">
+        <v>2.6</v>
+      </c>
+      <c r="Y99">
+        <v>3</v>
+      </c>
+      <c r="Z99">
+        <v>1.34</v>
+      </c>
+      <c r="AA99">
+        <v>8</v>
+      </c>
+      <c r="AB99">
+        <v>1.07</v>
+      </c>
+      <c r="AC99">
+        <v>2.77</v>
+      </c>
+      <c r="AD99">
+        <v>3.33</v>
+      </c>
+      <c r="AE99">
+        <v>2.58</v>
+      </c>
+      <c r="AF99">
+        <v>1.07</v>
+      </c>
+      <c r="AG99">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AH99">
+        <v>1.36</v>
+      </c>
+      <c r="AI99">
+        <v>3.2</v>
+      </c>
+      <c r="AJ99">
+        <v>2.1</v>
+      </c>
+      <c r="AK99">
+        <v>1.74</v>
+      </c>
+      <c r="AL99">
+        <v>1.83</v>
+      </c>
+      <c r="AM99">
+        <v>1.93</v>
+      </c>
+      <c r="AN99">
+        <v>1.5</v>
+      </c>
+      <c r="AO99">
+        <v>1.3</v>
+      </c>
+      <c r="AP99">
+        <v>1.44</v>
+      </c>
+      <c r="AQ99">
+        <v>1.38</v>
+      </c>
+      <c r="AR99">
+        <v>0.88</v>
+      </c>
+      <c r="AS99">
+        <v>1.22</v>
+      </c>
+      <c r="AT99">
+        <v>1.11</v>
+      </c>
+      <c r="AU99">
+        <v>1.23</v>
+      </c>
+      <c r="AV99">
+        <v>1.37</v>
+      </c>
+      <c r="AW99">
+        <v>2.6</v>
+      </c>
+      <c r="AX99">
+        <v>1.75</v>
+      </c>
+      <c r="AY99">
+        <v>8</v>
+      </c>
+      <c r="AZ99">
+        <v>2.44</v>
+      </c>
+      <c r="BA99">
+        <v>1.27</v>
+      </c>
+      <c r="BB99">
+        <v>1.46</v>
+      </c>
+      <c r="BC99">
+        <v>1.9</v>
+      </c>
+      <c r="BD99">
+        <v>2.25</v>
+      </c>
+      <c r="BE99">
+        <v>3</v>
+      </c>
+      <c r="BF99">
+        <v>6</v>
+      </c>
+      <c r="BG99">
+        <v>4</v>
+      </c>
+      <c r="BH99">
+        <v>3</v>
+      </c>
+      <c r="BI99">
+        <v>2</v>
+      </c>
+      <c r="BJ99">
+        <v>9</v>
+      </c>
+      <c r="BK99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5239152</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45136.45833333334</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>66</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>142</v>
+      </c>
+      <c r="P100" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q100">
+        <v>6</v>
+      </c>
+      <c r="R100">
+        <v>3</v>
+      </c>
+      <c r="S100">
+        <v>9</v>
+      </c>
+      <c r="T100">
+        <v>3.45</v>
+      </c>
+      <c r="U100">
+        <v>2.05</v>
+      </c>
+      <c r="V100">
+        <v>3.83</v>
+      </c>
+      <c r="W100">
+        <v>1.55</v>
+      </c>
+      <c r="X100">
+        <v>2.55</v>
+      </c>
+      <c r="Y100">
+        <v>3.38</v>
+      </c>
+      <c r="Z100">
+        <v>1.35</v>
+      </c>
+      <c r="AA100">
+        <v>7.8</v>
+      </c>
+      <c r="AB100">
+        <v>1.05</v>
+      </c>
+      <c r="AC100">
+        <v>2.55</v>
+      </c>
+      <c r="AD100">
+        <v>3.4</v>
+      </c>
+      <c r="AE100">
+        <v>2.76</v>
+      </c>
+      <c r="AF100">
+        <v>1.06</v>
+      </c>
+      <c r="AG100">
+        <v>7</v>
+      </c>
+      <c r="AH100">
+        <v>1.42</v>
+      </c>
+      <c r="AI100">
+        <v>2.6</v>
+      </c>
+      <c r="AJ100">
+        <v>2.13</v>
+      </c>
+      <c r="AK100">
+        <v>1.62</v>
+      </c>
+      <c r="AL100">
+        <v>2.05</v>
+      </c>
+      <c r="AM100">
+        <v>1.75</v>
+      </c>
+      <c r="AN100">
+        <v>1.28</v>
+      </c>
+      <c r="AO100">
+        <v>1.4</v>
+      </c>
+      <c r="AP100">
+        <v>1.5</v>
+      </c>
+      <c r="AQ100">
+        <v>2.38</v>
+      </c>
+      <c r="AR100">
+        <v>1.38</v>
+      </c>
+      <c r="AS100">
+        <v>2.11</v>
+      </c>
+      <c r="AT100">
+        <v>1.56</v>
+      </c>
+      <c r="AU100">
+        <v>1.55</v>
+      </c>
+      <c r="AV100">
+        <v>1.62</v>
+      </c>
+      <c r="AW100">
+        <v>3.17</v>
+      </c>
+      <c r="AX100">
+        <v>1.82</v>
+      </c>
+      <c r="AY100">
+        <v>8</v>
+      </c>
+      <c r="AZ100">
+        <v>2.33</v>
+      </c>
+      <c r="BA100">
+        <v>1.2</v>
+      </c>
+      <c r="BB100">
+        <v>1.38</v>
+      </c>
+      <c r="BC100">
+        <v>1.67</v>
+      </c>
+      <c r="BD100">
+        <v>2.1</v>
+      </c>
+      <c r="BE100">
+        <v>2.85</v>
+      </c>
+      <c r="BF100">
+        <v>7</v>
+      </c>
+      <c r="BG100">
+        <v>3</v>
+      </c>
+      <c r="BH100">
+        <v>4</v>
+      </c>
+      <c r="BI100">
+        <v>2</v>
+      </c>
+      <c r="BJ100">
+        <v>11</v>
+      </c>
+      <c r="BK100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5239153</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45137.375</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>91</v>
+      </c>
+      <c r="P101" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
+        <v>6</v>
+      </c>
+      <c r="S101">
+        <v>8</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
+        <v>2.25</v>
+      </c>
+      <c r="V101">
+        <v>4</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>3.25</v>
+      </c>
+      <c r="Y101">
+        <v>2.63</v>
+      </c>
+      <c r="Z101">
+        <v>1.44</v>
+      </c>
+      <c r="AA101">
+        <v>6.5</v>
+      </c>
+      <c r="AB101">
+        <v>1.11</v>
+      </c>
+      <c r="AC101">
+        <v>1.95</v>
+      </c>
+      <c r="AD101">
+        <v>3.4</v>
+      </c>
+      <c r="AE101">
+        <v>3.6</v>
+      </c>
+      <c r="AF101">
+        <v>1.05</v>
+      </c>
+      <c r="AG101">
+        <v>12.75</v>
+      </c>
+      <c r="AH101">
+        <v>1.27</v>
+      </c>
+      <c r="AI101">
+        <v>3.8</v>
+      </c>
+      <c r="AJ101">
+        <v>2</v>
+      </c>
+      <c r="AK101">
+        <v>1.85</v>
+      </c>
+      <c r="AL101">
+        <v>1.67</v>
+      </c>
+      <c r="AM101">
+        <v>2.1</v>
+      </c>
+      <c r="AN101">
+        <v>1.28</v>
+      </c>
+      <c r="AO101">
+        <v>1.3</v>
+      </c>
+      <c r="AP101">
+        <v>1.82</v>
+      </c>
+      <c r="AQ101">
+        <v>1.29</v>
+      </c>
+      <c r="AR101">
+        <v>1.13</v>
+      </c>
+      <c r="AS101">
+        <v>1.25</v>
+      </c>
+      <c r="AT101">
+        <v>1.11</v>
+      </c>
+      <c r="AU101">
+        <v>1.4</v>
+      </c>
+      <c r="AV101">
+        <v>0.91</v>
+      </c>
+      <c r="AW101">
+        <v>2.31</v>
+      </c>
+      <c r="AX101">
+        <v>1.75</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>2.42</v>
+      </c>
+      <c r="BA101">
+        <v>1.2</v>
+      </c>
+      <c r="BB101">
+        <v>1.38</v>
+      </c>
+      <c r="BC101">
+        <v>1.67</v>
+      </c>
+      <c r="BD101">
+        <v>2.12</v>
+      </c>
+      <c r="BE101">
+        <v>2.85</v>
+      </c>
+      <c r="BF101">
+        <v>8</v>
+      </c>
+      <c r="BG101">
+        <v>5</v>
+      </c>
+      <c r="BH101">
+        <v>4</v>
+      </c>
+      <c r="BI101">
+        <v>5</v>
+      </c>
+      <c r="BJ101">
+        <v>12</v>
+      </c>
+      <c r="BK101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5239154</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45137.41666666666</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>74</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>4</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102" t="s">
+        <v>143</v>
+      </c>
+      <c r="P102" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q102">
+        <v>8</v>
+      </c>
+      <c r="R102">
+        <v>4</v>
+      </c>
+      <c r="S102">
+        <v>12</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
+        <v>2.1</v>
+      </c>
+      <c r="V102">
+        <v>4.33</v>
+      </c>
+      <c r="W102">
+        <v>1.44</v>
+      </c>
+      <c r="X102">
+        <v>2.63</v>
+      </c>
+      <c r="Y102">
+        <v>3.25</v>
+      </c>
+      <c r="Z102">
+        <v>1.33</v>
+      </c>
+      <c r="AA102">
+        <v>9</v>
+      </c>
+      <c r="AB102">
+        <v>1.07</v>
+      </c>
+      <c r="AC102">
+        <v>2</v>
+      </c>
+      <c r="AD102">
+        <v>3.2</v>
+      </c>
+      <c r="AE102">
+        <v>3.6</v>
+      </c>
+      <c r="AF102">
+        <v>1.03</v>
+      </c>
+      <c r="AG102">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH102">
+        <v>1.33</v>
+      </c>
+      <c r="AI102">
+        <v>2.97</v>
+      </c>
+      <c r="AJ102">
+        <v>2.11</v>
+      </c>
+      <c r="AK102">
+        <v>1.61</v>
+      </c>
+      <c r="AL102">
+        <v>1.91</v>
+      </c>
+      <c r="AM102">
+        <v>1.91</v>
+      </c>
+      <c r="AN102">
+        <v>1.28</v>
+      </c>
+      <c r="AO102">
+        <v>1.31</v>
+      </c>
+      <c r="AP102">
+        <v>1.78</v>
+      </c>
+      <c r="AQ102">
+        <v>1.38</v>
+      </c>
+      <c r="AR102">
+        <v>1.89</v>
+      </c>
+      <c r="AS102">
+        <v>1.56</v>
+      </c>
+      <c r="AT102">
+        <v>1.7</v>
+      </c>
+      <c r="AU102">
+        <v>1.52</v>
+      </c>
+      <c r="AV102">
+        <v>1.38</v>
+      </c>
+      <c r="AW102">
+        <v>2.9</v>
+      </c>
+      <c r="AX102">
+        <v>1.82</v>
+      </c>
+      <c r="AY102">
+        <v>8</v>
+      </c>
+      <c r="AZ102">
+        <v>2.39</v>
+      </c>
+      <c r="BA102">
+        <v>1.2</v>
+      </c>
+      <c r="BB102">
+        <v>1.4</v>
+      </c>
+      <c r="BC102">
+        <v>1.73</v>
+      </c>
+      <c r="BD102">
+        <v>2.13</v>
+      </c>
+      <c r="BE102">
+        <v>2.84</v>
+      </c>
+      <c r="BF102">
+        <v>7</v>
+      </c>
+      <c r="BG102">
+        <v>3</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>1</v>
+      </c>
+      <c r="BJ102">
+        <v>7</v>
+      </c>
+      <c r="BK102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5239155</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45137.41666666666</v>
+      </c>
+      <c r="F103">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>65</v>
+      </c>
+      <c r="H103" t="s">
+        <v>69</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>144</v>
+      </c>
+      <c r="P103" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q103">
+        <v>6</v>
+      </c>
+      <c r="R103">
+        <v>3</v>
+      </c>
+      <c r="S103">
+        <v>9</v>
+      </c>
+      <c r="T103">
+        <v>2.02</v>
+      </c>
+      <c r="U103">
+        <v>2.26</v>
+      </c>
+      <c r="V103">
+        <v>6.4</v>
+      </c>
+      <c r="W103">
+        <v>1.39</v>
+      </c>
+      <c r="X103">
+        <v>2.88</v>
+      </c>
+      <c r="Y103">
+        <v>2.82</v>
+      </c>
+      <c r="Z103">
+        <v>1.4</v>
+      </c>
+      <c r="AA103">
+        <v>7.1</v>
+      </c>
+      <c r="AB103">
+        <v>1.08</v>
+      </c>
+      <c r="AC103">
+        <v>1.45</v>
+      </c>
+      <c r="AD103">
+        <v>4.1</v>
+      </c>
+      <c r="AE103">
+        <v>6.5</v>
+      </c>
+      <c r="AF103">
+        <v>1.02</v>
+      </c>
+      <c r="AG103">
+        <v>9.1</v>
+      </c>
+      <c r="AH103">
+        <v>1.28</v>
+      </c>
+      <c r="AI103">
+        <v>3.26</v>
+      </c>
+      <c r="AJ103">
+        <v>1.98</v>
+      </c>
+      <c r="AK103">
+        <v>1.88</v>
+      </c>
+      <c r="AL103">
+        <v>2.06</v>
+      </c>
+      <c r="AM103">
+        <v>1.71</v>
+      </c>
+      <c r="AN103">
+        <v>1.1</v>
+      </c>
+      <c r="AO103">
+        <v>1.22</v>
+      </c>
+      <c r="AP103">
+        <v>2.63</v>
+      </c>
+      <c r="AQ103">
+        <v>1.67</v>
+      </c>
+      <c r="AR103">
+        <v>0.63</v>
+      </c>
+      <c r="AS103">
+        <v>1.8</v>
+      </c>
+      <c r="AT103">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU103">
+        <v>1.53</v>
+      </c>
+      <c r="AV103">
+        <v>1.26</v>
+      </c>
+      <c r="AW103">
+        <v>2.79</v>
+      </c>
+      <c r="AX103">
+        <v>1.41</v>
+      </c>
+      <c r="AY103">
+        <v>9</v>
+      </c>
+      <c r="AZ103">
+        <v>3.49</v>
+      </c>
+      <c r="BA103">
+        <v>1.25</v>
+      </c>
+      <c r="BB103">
+        <v>1.47</v>
+      </c>
+      <c r="BC103">
+        <v>1.8</v>
+      </c>
+      <c r="BD103">
+        <v>2.38</v>
+      </c>
+      <c r="BE103">
+        <v>3.25</v>
+      </c>
+      <c r="BF103">
+        <v>9</v>
+      </c>
+      <c r="BG103">
+        <v>3</v>
+      </c>
+      <c r="BH103">
+        <v>3</v>
+      </c>
+      <c r="BI103">
+        <v>5</v>
+      </c>
+      <c r="BJ103">
+        <v>12</v>
+      </c>
+      <c r="BK103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>5239156</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45137.52083333334</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>67</v>
+      </c>
+      <c r="H104" t="s">
+        <v>76</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>80</v>
+      </c>
+      <c r="P104" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q104">
+        <v>5</v>
+      </c>
+      <c r="R104">
+        <v>9</v>
+      </c>
+      <c r="S104">
+        <v>14</v>
+      </c>
+      <c r="T104">
+        <v>3.4</v>
+      </c>
+      <c r="U104">
+        <v>2.13</v>
+      </c>
+      <c r="V104">
+        <v>3.04</v>
+      </c>
+      <c r="W104">
+        <v>1.39</v>
+      </c>
+      <c r="X104">
+        <v>2.88</v>
+      </c>
+      <c r="Y104">
+        <v>2.82</v>
+      </c>
+      <c r="Z104">
+        <v>1.4</v>
+      </c>
+      <c r="AA104">
+        <v>7.2</v>
+      </c>
+      <c r="AB104">
+        <v>1.08</v>
+      </c>
+      <c r="AC104">
+        <v>2.95</v>
+      </c>
+      <c r="AD104">
+        <v>3.15</v>
+      </c>
+      <c r="AE104">
+        <v>1.99</v>
+      </c>
+      <c r="AF104">
+        <v>1.02</v>
+      </c>
+      <c r="AG104">
+        <v>9.5</v>
+      </c>
+      <c r="AH104">
+        <v>1.25</v>
+      </c>
+      <c r="AI104">
+        <v>3.5</v>
+      </c>
+      <c r="AJ104">
+        <v>1.72</v>
+      </c>
+      <c r="AK104">
+        <v>1.82</v>
+      </c>
+      <c r="AL104">
+        <v>1.73</v>
+      </c>
+      <c r="AM104">
+        <v>2.04</v>
+      </c>
+      <c r="AN104">
+        <v>1.52</v>
+      </c>
+      <c r="AO104">
+        <v>1.33</v>
+      </c>
+      <c r="AP104">
+        <v>1.32</v>
+      </c>
+      <c r="AQ104">
+        <v>0.75</v>
+      </c>
+      <c r="AR104">
+        <v>0.71</v>
+      </c>
+      <c r="AS104">
+        <v>0.67</v>
+      </c>
+      <c r="AT104">
+        <v>1</v>
+      </c>
+      <c r="AU104">
+        <v>1.22</v>
+      </c>
+      <c r="AV104">
+        <v>1.39</v>
+      </c>
+      <c r="AW104">
+        <v>2.61</v>
+      </c>
+      <c r="AX104">
+        <v>2.33</v>
+      </c>
+      <c r="AY104">
+        <v>8</v>
+      </c>
+      <c r="AZ104">
+        <v>1.82</v>
+      </c>
+      <c r="BA104">
+        <v>1.2</v>
+      </c>
+      <c r="BB104">
+        <v>1.38</v>
+      </c>
+      <c r="BC104">
+        <v>1.67</v>
+      </c>
+      <c r="BD104">
+        <v>2.12</v>
+      </c>
+      <c r="BE104">
+        <v>2.85</v>
+      </c>
+      <c r="BF104">
+        <v>7</v>
+      </c>
+      <c r="BG104">
+        <v>7</v>
+      </c>
+      <c r="BH104">
+        <v>1</v>
+      </c>
+      <c r="BI104">
+        <v>5</v>
+      </c>
+      <c r="BJ104">
+        <v>8</v>
+      </c>
+      <c r="BK104">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,9 @@
     <t>['3', '55']</t>
   </si>
   <si>
+    <t>['9', '19', '77', '90']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -596,6 +599,12 @@
   </si>
   <si>
     <t>['5', '25']</t>
+  </si>
+  <si>
+    <t>['36', '55']</t>
+  </si>
+  <si>
+    <t>['35', '84']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK104"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1210,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1482,7 +1491,7 @@
         <v>2.11</v>
       </c>
       <c r="AT3">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1583,7 +1592,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1965,7 +1974,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2243,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT7">
         <v>1.13</v>
@@ -2538,7 +2547,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2729,7 +2738,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2816,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3302,7 +3311,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3771,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT15">
         <v>1.11</v>
@@ -4066,7 +4075,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4156,7 +4165,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU17">
         <v>1.15</v>
@@ -4448,7 +4457,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4535,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="AS19">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT19">
         <v>1.7</v>
@@ -4639,7 +4648,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4917,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT21">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU21">
         <v>1.41</v>
@@ -5021,7 +5030,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5490,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT24">
         <v>0.5600000000000001</v>
@@ -5594,7 +5603,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5976,7 +5985,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6358,7 +6367,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6448,7 +6457,7 @@
         <v>1.56</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU29">
         <v>0.92</v>
@@ -6549,7 +6558,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6636,7 +6645,7 @@
         <v>1.67</v>
       </c>
       <c r="AS30">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT30">
         <v>1.7</v>
@@ -6740,7 +6749,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6931,7 +6940,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7122,7 +7131,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7212,7 +7221,7 @@
         <v>1.56</v>
       </c>
       <c r="AT33">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU33">
         <v>1.65</v>
@@ -7313,7 +7322,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7886,7 +7895,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7973,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8077,7 +8086,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8549,7 +8558,7 @@
         <v>0.67</v>
       </c>
       <c r="AT40">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU40">
         <v>1.18</v>
@@ -8841,7 +8850,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8928,7 +8937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT42">
         <v>1.56</v>
@@ -9032,7 +9041,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9223,7 +9232,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9414,7 +9423,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9504,7 +9513,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9605,7 +9614,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9796,7 +9805,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10268,7 +10277,7 @@
         <v>1.75</v>
       </c>
       <c r="AT49">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10369,7 +10378,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10560,7 +10569,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11223,7 +11232,7 @@
         <v>1.8</v>
       </c>
       <c r="AT54">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU54">
         <v>1.65</v>
@@ -11602,7 +11611,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT56">
         <v>2</v>
@@ -11706,7 +11715,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11796,7 +11805,7 @@
         <v>1.63</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11897,7 +11906,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11984,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT58">
         <v>1.11</v>
@@ -12178,7 +12187,7 @@
         <v>1.56</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU59">
         <v>1.4</v>
@@ -12279,7 +12288,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12852,7 +12861,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -13234,7 +13243,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13321,7 +13330,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT65">
         <v>1.13</v>
@@ -13425,7 +13434,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13616,7 +13625,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13807,7 +13816,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14085,7 +14094,7 @@
         <v>0.8</v>
       </c>
       <c r="AS69">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT69">
         <v>0.5600000000000001</v>
@@ -14279,7 +14288,7 @@
         <v>0.71</v>
       </c>
       <c r="AT70">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU70">
         <v>1.54</v>
@@ -14661,7 +14670,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU72">
         <v>1.58</v>
@@ -14762,7 +14771,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15144,7 +15153,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15807,7 +15816,7 @@
         <v>1.63</v>
       </c>
       <c r="AT78">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU78">
         <v>1.13</v>
@@ -15908,7 +15917,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -15995,7 +16004,7 @@
         <v>2.2</v>
       </c>
       <c r="AS79">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT79">
         <v>2</v>
@@ -16481,7 +16490,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16672,7 +16681,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -16759,7 +16768,7 @@
         <v>0.86</v>
       </c>
       <c r="AS83">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT83">
         <v>1.11</v>
@@ -17436,7 +17445,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17627,7 +17636,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17818,7 +17827,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -18096,10 +18105,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU90">
         <v>1.22</v>
@@ -18773,7 +18782,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18964,7 +18973,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19242,7 +19251,7 @@
         <v>0.86</v>
       </c>
       <c r="AS96">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT96">
         <v>0.75</v>
@@ -19346,7 +19355,7 @@
         <v>80</v>
       </c>
       <c r="P97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19436,7 +19445,7 @@
         <v>0.71</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU97">
         <v>1.3</v>
@@ -19537,7 +19546,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19627,7 +19636,7 @@
         <v>1.56</v>
       </c>
       <c r="AT98">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU98">
         <v>1.37</v>
@@ -19728,7 +19737,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19815,7 +19824,7 @@
         <v>0.88</v>
       </c>
       <c r="AS99">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT99">
         <v>1.11</v>
@@ -19919,7 +19928,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20110,7 +20119,7 @@
         <v>91</v>
       </c>
       <c r="P101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20301,7 +20310,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20683,7 +20692,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20825,6 +20834,388 @@
       </c>
       <c r="BK104">
         <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>5239157</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45142.5</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>113</v>
+      </c>
+      <c r="P105" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q105">
+        <v>5</v>
+      </c>
+      <c r="R105">
+        <v>4</v>
+      </c>
+      <c r="S105">
+        <v>9</v>
+      </c>
+      <c r="T105">
+        <v>2.75</v>
+      </c>
+      <c r="U105">
+        <v>2.1</v>
+      </c>
+      <c r="V105">
+        <v>3.6</v>
+      </c>
+      <c r="W105">
+        <v>1.42</v>
+      </c>
+      <c r="X105">
+        <v>2.65</v>
+      </c>
+      <c r="Y105">
+        <v>2.95</v>
+      </c>
+      <c r="Z105">
+        <v>1.35</v>
+      </c>
+      <c r="AA105">
+        <v>8.25</v>
+      </c>
+      <c r="AB105">
+        <v>1.07</v>
+      </c>
+      <c r="AC105">
+        <v>2.13</v>
+      </c>
+      <c r="AD105">
+        <v>3.3</v>
+      </c>
+      <c r="AE105">
+        <v>3.25</v>
+      </c>
+      <c r="AF105">
+        <v>1.07</v>
+      </c>
+      <c r="AG105">
+        <v>10.5</v>
+      </c>
+      <c r="AH105">
+        <v>1.34</v>
+      </c>
+      <c r="AI105">
+        <v>3.28</v>
+      </c>
+      <c r="AJ105">
+        <v>1.99</v>
+      </c>
+      <c r="AK105">
+        <v>1.73</v>
+      </c>
+      <c r="AL105">
+        <v>1.85</v>
+      </c>
+      <c r="AM105">
+        <v>1.95</v>
+      </c>
+      <c r="AN105">
+        <v>1.35</v>
+      </c>
+      <c r="AO105">
+        <v>1.32</v>
+      </c>
+      <c r="AP105">
+        <v>1.65</v>
+      </c>
+      <c r="AQ105">
+        <v>1.22</v>
+      </c>
+      <c r="AR105">
+        <v>0.33</v>
+      </c>
+      <c r="AS105">
+        <v>1.1</v>
+      </c>
+      <c r="AT105">
+        <v>0.6</v>
+      </c>
+      <c r="AU105">
+        <v>1.27</v>
+      </c>
+      <c r="AV105">
+        <v>1.14</v>
+      </c>
+      <c r="AW105">
+        <v>2.41</v>
+      </c>
+      <c r="AX105">
+        <v>1.69</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>2.54</v>
+      </c>
+      <c r="BA105">
+        <v>1.15</v>
+      </c>
+      <c r="BB105">
+        <v>1.32</v>
+      </c>
+      <c r="BC105">
+        <v>1.6</v>
+      </c>
+      <c r="BD105">
+        <v>1.94</v>
+      </c>
+      <c r="BE105">
+        <v>2.44</v>
+      </c>
+      <c r="BF105">
+        <v>6</v>
+      </c>
+      <c r="BG105">
+        <v>8</v>
+      </c>
+      <c r="BH105">
+        <v>3</v>
+      </c>
+      <c r="BI105">
+        <v>1</v>
+      </c>
+      <c r="BJ105">
+        <v>9</v>
+      </c>
+      <c r="BK105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5239158</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45143.375</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>67</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>6</v>
+      </c>
+      <c r="O106" t="s">
+        <v>145</v>
+      </c>
+      <c r="P106" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q106">
+        <v>2</v>
+      </c>
+      <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <v>6</v>
+      </c>
+      <c r="T106">
+        <v>1.83</v>
+      </c>
+      <c r="U106">
+        <v>2.5</v>
+      </c>
+      <c r="V106">
+        <v>6.94</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>3.25</v>
+      </c>
+      <c r="Y106">
+        <v>2.63</v>
+      </c>
+      <c r="Z106">
+        <v>1.44</v>
+      </c>
+      <c r="AA106">
+        <v>6.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.11</v>
+      </c>
+      <c r="AC106">
+        <v>1.38</v>
+      </c>
+      <c r="AD106">
+        <v>5.11</v>
+      </c>
+      <c r="AE106">
+        <v>8.15</v>
+      </c>
+      <c r="AF106">
+        <v>1.04</v>
+      </c>
+      <c r="AG106">
+        <v>14.25</v>
+      </c>
+      <c r="AH106">
+        <v>1.26</v>
+      </c>
+      <c r="AI106">
+        <v>3.93</v>
+      </c>
+      <c r="AJ106">
+        <v>1.79</v>
+      </c>
+      <c r="AK106">
+        <v>1.91</v>
+      </c>
+      <c r="AL106">
+        <v>2.06</v>
+      </c>
+      <c r="AM106">
+        <v>1.73</v>
+      </c>
+      <c r="AN106">
+        <v>1.07</v>
+      </c>
+      <c r="AO106">
+        <v>1.17</v>
+      </c>
+      <c r="AP106">
+        <v>3</v>
+      </c>
+      <c r="AQ106">
+        <v>2.22</v>
+      </c>
+      <c r="AR106">
+        <v>1</v>
+      </c>
+      <c r="AS106">
+        <v>2.3</v>
+      </c>
+      <c r="AT106">
+        <v>0.89</v>
+      </c>
+      <c r="AU106">
+        <v>1.46</v>
+      </c>
+      <c r="AV106">
+        <v>1.1</v>
+      </c>
+      <c r="AW106">
+        <v>2.56</v>
+      </c>
+      <c r="AX106">
+        <v>1.21</v>
+      </c>
+      <c r="AY106">
+        <v>10</v>
+      </c>
+      <c r="AZ106">
+        <v>5.23</v>
+      </c>
+      <c r="BA106">
+        <v>1.22</v>
+      </c>
+      <c r="BB106">
+        <v>1.44</v>
+      </c>
+      <c r="BC106">
+        <v>1.9</v>
+      </c>
+      <c r="BD106">
+        <v>2.07</v>
+      </c>
+      <c r="BE106">
+        <v>2.5</v>
+      </c>
+      <c r="BF106">
+        <v>6</v>
+      </c>
+      <c r="BG106">
+        <v>5</v>
+      </c>
+      <c r="BH106">
+        <v>2</v>
+      </c>
+      <c r="BI106">
+        <v>3</v>
+      </c>
+      <c r="BJ106">
+        <v>8</v>
+      </c>
+      <c r="BK106">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,9 @@
     <t>['9', '19', '77', '90']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -605,6 +608,9 @@
   </si>
   <si>
     <t>['35', '84']</t>
+  </si>
+  <si>
+    <t>['24', '31', '40', '74']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,7 +1216,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1300,7 +1306,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1592,7 +1598,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1974,7 +1980,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2061,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
         <v>1.7</v>
@@ -2255,7 +2261,7 @@
         <v>2.3</v>
       </c>
       <c r="AT7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2443,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
         <v>2.13</v>
@@ -2547,7 +2553,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2738,7 +2744,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2828,7 +2834,7 @@
         <v>1.1</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3311,7 +3317,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3592,7 +3598,7 @@
         <v>1.8</v>
       </c>
       <c r="AT14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>2.23</v>
@@ -4075,7 +4081,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4162,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT17">
         <v>0.89</v>
@@ -4457,7 +4463,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4648,7 +4654,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4738,7 +4744,7 @@
         <v>1.25</v>
       </c>
       <c r="AT20">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>1.1</v>
@@ -5030,7 +5036,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5311,7 +5317,7 @@
         <v>1.56</v>
       </c>
       <c r="AT23">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5603,7 +5609,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5985,7 +5991,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6266,7 +6272,7 @@
         <v>2.11</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU28">
         <v>1.57</v>
@@ -6367,7 +6373,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6558,7 +6564,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6749,7 +6755,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6940,7 +6946,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7131,7 +7137,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7322,7 +7328,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7409,7 +7415,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT34">
         <v>1.56</v>
@@ -7600,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT35">
         <v>0.5600000000000001</v>
@@ -7895,7 +7901,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7985,7 +7991,7 @@
         <v>2.3</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU37">
         <v>1.44</v>
@@ -8086,7 +8092,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8850,7 +8856,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9041,7 +9047,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9232,7 +9238,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9322,7 +9328,7 @@
         <v>1.63</v>
       </c>
       <c r="AT44">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>1.19</v>
@@ -9423,7 +9429,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9614,7 +9620,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9701,7 +9707,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -9805,7 +9811,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10378,7 +10384,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10465,7 +10471,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>1.7</v>
@@ -10569,7 +10575,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11041,7 +11047,7 @@
         <v>1.75</v>
       </c>
       <c r="AT53">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.94</v>
@@ -11420,7 +11426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT55">
         <v>1.11</v>
@@ -11715,7 +11721,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11906,7 +11912,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12288,7 +12294,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12861,7 +12867,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12948,7 +12954,7 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT63">
         <v>1.56</v>
@@ -13243,7 +13249,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13333,7 +13339,7 @@
         <v>1.1</v>
       </c>
       <c r="AT65">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>1.27</v>
@@ -13434,7 +13440,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13524,7 +13530,7 @@
         <v>1.63</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU66">
         <v>1.18</v>
@@ -13625,7 +13631,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13816,7 +13822,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14285,7 +14291,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT70">
         <v>0.6</v>
@@ -14771,7 +14777,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15049,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT74">
         <v>1.11</v>
@@ -15153,7 +15159,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15917,7 +15923,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16198,7 +16204,7 @@
         <v>1.56</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU80">
         <v>1.2</v>
@@ -16490,7 +16496,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16577,7 +16583,7 @@
         <v>2.17</v>
       </c>
       <c r="AS82">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT82">
         <v>2.13</v>
@@ -16681,7 +16687,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -17150,7 +17156,7 @@
         <v>0.83</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
         <v>0.75</v>
@@ -17344,7 +17350,7 @@
         <v>2.11</v>
       </c>
       <c r="AT86">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.61</v>
@@ -17445,7 +17451,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17535,7 +17541,7 @@
         <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -17636,7 +17642,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17827,7 +17833,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -18487,7 +18493,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT92">
         <v>2</v>
@@ -18782,7 +18788,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18973,7 +18979,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19355,7 +19361,7 @@
         <v>80</v>
       </c>
       <c r="P97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19442,7 +19448,7 @@
         <v>0.71</v>
       </c>
       <c r="AS97">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>0.89</v>
@@ -19546,7 +19552,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19737,7 +19743,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19928,7 +19934,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20119,7 +20125,7 @@
         <v>91</v>
       </c>
       <c r="P101" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20310,7 +20316,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20692,7 +20698,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20782,7 +20788,7 @@
         <v>0.67</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU104">
         <v>1.22</v>
@@ -20883,7 +20889,7 @@
         <v>113</v>
       </c>
       <c r="P105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21074,7 +21080,7 @@
         <v>145</v>
       </c>
       <c r="P106" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21215,6 +21221,388 @@
         <v>8</v>
       </c>
       <c r="BK106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5239159</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45145.5</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>4</v>
+      </c>
+      <c r="N107">
+        <v>5</v>
+      </c>
+      <c r="O107" t="s">
+        <v>106</v>
+      </c>
+      <c r="P107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q107">
+        <v>2</v>
+      </c>
+      <c r="R107">
+        <v>5</v>
+      </c>
+      <c r="S107">
+        <v>7</v>
+      </c>
+      <c r="T107">
+        <v>3.75</v>
+      </c>
+      <c r="U107">
+        <v>2.2</v>
+      </c>
+      <c r="V107">
+        <v>2.75</v>
+      </c>
+      <c r="W107">
+        <v>1.36</v>
+      </c>
+      <c r="X107">
+        <v>3</v>
+      </c>
+      <c r="Y107">
+        <v>2.64</v>
+      </c>
+      <c r="Z107">
+        <v>1.45</v>
+      </c>
+      <c r="AA107">
+        <v>6.5</v>
+      </c>
+      <c r="AB107">
+        <v>1.09</v>
+      </c>
+      <c r="AC107">
+        <v>3.15</v>
+      </c>
+      <c r="AD107">
+        <v>3.5</v>
+      </c>
+      <c r="AE107">
+        <v>2.12</v>
+      </c>
+      <c r="AF107">
+        <v>1.04</v>
+      </c>
+      <c r="AG107">
+        <v>13.5</v>
+      </c>
+      <c r="AH107">
+        <v>1.23</v>
+      </c>
+      <c r="AI107">
+        <v>3.8</v>
+      </c>
+      <c r="AJ107">
+        <v>1.83</v>
+      </c>
+      <c r="AK107">
+        <v>1.87</v>
+      </c>
+      <c r="AL107">
+        <v>1.66</v>
+      </c>
+      <c r="AM107">
+        <v>2.16</v>
+      </c>
+      <c r="AN107">
+        <v>1.67</v>
+      </c>
+      <c r="AO107">
+        <v>1.29</v>
+      </c>
+      <c r="AP107">
+        <v>1.36</v>
+      </c>
+      <c r="AQ107">
+        <v>1.5</v>
+      </c>
+      <c r="AR107">
+        <v>1</v>
+      </c>
+      <c r="AS107">
+        <v>1.33</v>
+      </c>
+      <c r="AT107">
+        <v>1.22</v>
+      </c>
+      <c r="AU107">
+        <v>1.44</v>
+      </c>
+      <c r="AV107">
+        <v>1.44</v>
+      </c>
+      <c r="AW107">
+        <v>2.88</v>
+      </c>
+      <c r="AX107">
+        <v>2.27</v>
+      </c>
+      <c r="AY107">
+        <v>8.5</v>
+      </c>
+      <c r="AZ107">
+        <v>1.85</v>
+      </c>
+      <c r="BA107">
+        <v>1.11</v>
+      </c>
+      <c r="BB107">
+        <v>1.25</v>
+      </c>
+      <c r="BC107">
+        <v>1.47</v>
+      </c>
+      <c r="BD107">
+        <v>1.9</v>
+      </c>
+      <c r="BE107">
+        <v>2.27</v>
+      </c>
+      <c r="BF107">
+        <v>5</v>
+      </c>
+      <c r="BG107">
+        <v>10</v>
+      </c>
+      <c r="BH107">
+        <v>3</v>
+      </c>
+      <c r="BI107">
+        <v>7</v>
+      </c>
+      <c r="BJ107">
+        <v>8</v>
+      </c>
+      <c r="BK107">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5239160</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45145.5</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>146</v>
+      </c>
+      <c r="P108" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q108">
+        <v>5</v>
+      </c>
+      <c r="R108">
+        <v>3</v>
+      </c>
+      <c r="S108">
+        <v>8</v>
+      </c>
+      <c r="T108">
+        <v>4.75</v>
+      </c>
+      <c r="U108">
+        <v>2.1</v>
+      </c>
+      <c r="V108">
+        <v>2.5</v>
+      </c>
+      <c r="W108">
+        <v>1.44</v>
+      </c>
+      <c r="X108">
+        <v>2.63</v>
+      </c>
+      <c r="Y108">
+        <v>3</v>
+      </c>
+      <c r="Z108">
+        <v>1.36</v>
+      </c>
+      <c r="AA108">
+        <v>9</v>
+      </c>
+      <c r="AB108">
+        <v>1.07</v>
+      </c>
+      <c r="AC108">
+        <v>4.04</v>
+      </c>
+      <c r="AD108">
+        <v>3.6</v>
+      </c>
+      <c r="AE108">
+        <v>1.82</v>
+      </c>
+      <c r="AF108">
+        <v>1.06</v>
+      </c>
+      <c r="AG108">
+        <v>10</v>
+      </c>
+      <c r="AH108">
+        <v>1.36</v>
+      </c>
+      <c r="AI108">
+        <v>3.2</v>
+      </c>
+      <c r="AJ108">
+        <v>1.93</v>
+      </c>
+      <c r="AK108">
+        <v>1.78</v>
+      </c>
+      <c r="AL108">
+        <v>1.95</v>
+      </c>
+      <c r="AM108">
+        <v>1.8</v>
+      </c>
+      <c r="AN108">
+        <v>2</v>
+      </c>
+      <c r="AO108">
+        <v>1.33</v>
+      </c>
+      <c r="AP108">
+        <v>1.25</v>
+      </c>
+      <c r="AQ108">
+        <v>0.71</v>
+      </c>
+      <c r="AR108">
+        <v>1.13</v>
+      </c>
+      <c r="AS108">
+        <v>1</v>
+      </c>
+      <c r="AT108">
+        <v>1</v>
+      </c>
+      <c r="AU108">
+        <v>1.34</v>
+      </c>
+      <c r="AV108">
+        <v>1.26</v>
+      </c>
+      <c r="AW108">
+        <v>2.6</v>
+      </c>
+      <c r="AX108">
+        <v>2.33</v>
+      </c>
+      <c r="AY108">
+        <v>8</v>
+      </c>
+      <c r="AZ108">
+        <v>1.82</v>
+      </c>
+      <c r="BA108">
+        <v>1.2</v>
+      </c>
+      <c r="BB108">
+        <v>1.4</v>
+      </c>
+      <c r="BC108">
+        <v>1.72</v>
+      </c>
+      <c r="BD108">
+        <v>2.16</v>
+      </c>
+      <c r="BE108">
+        <v>2.84</v>
+      </c>
+      <c r="BF108">
+        <v>5</v>
+      </c>
+      <c r="BG108">
+        <v>3</v>
+      </c>
+      <c r="BH108">
+        <v>4</v>
+      </c>
+      <c r="BI108">
+        <v>5</v>
+      </c>
+      <c r="BJ108">
+        <v>9</v>
+      </c>
+      <c r="BK108">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,12 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['45+2', '46', '88']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -611,6 +617,15 @@
   </si>
   <si>
     <t>['24', '31', '40', '74']</t>
+  </si>
+  <si>
+    <t>['60', '68']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['2', '45+1', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1231,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1306,7 +1321,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1598,7 +1613,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1876,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT5">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1980,7 +1995,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2452,7 +2467,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU8">
         <v>1.45</v>
@@ -2553,7 +2568,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2640,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT9">
         <v>1.7</v>
@@ -2744,7 +2759,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2831,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
         <v>1.1</v>
-      </c>
-      <c r="AT10">
-        <v>1.22</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3022,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3213,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT12">
         <v>1.56</v>
@@ -3317,7 +3332,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3407,7 +3422,7 @@
         <v>0.67</v>
       </c>
       <c r="AT13">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU13">
         <v>0.97</v>
@@ -3980,7 +3995,7 @@
         <v>2.11</v>
       </c>
       <c r="AT16">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU16">
         <v>1.33</v>
@@ -4081,7 +4096,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4171,7 +4186,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU17">
         <v>1.15</v>
@@ -4463,7 +4478,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4654,7 +4669,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4741,7 +4756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -5036,7 +5051,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5123,10 +5138,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5314,7 +5329,7 @@
         <v>1.33</v>
       </c>
       <c r="AS23">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5505,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>0.5600000000000001</v>
@@ -5609,7 +5624,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5699,7 +5714,7 @@
         <v>0.67</v>
       </c>
       <c r="AT25">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU25">
         <v>1.35</v>
@@ -5887,10 +5902,10 @@
         <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT26">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU26">
         <v>0.99</v>
@@ -5991,7 +6006,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6078,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT27">
         <v>0.5600000000000001</v>
@@ -6272,7 +6287,7 @@
         <v>2.11</v>
       </c>
       <c r="AT28">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU28">
         <v>1.57</v>
@@ -6373,7 +6388,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6460,10 +6475,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT29">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU29">
         <v>0.92</v>
@@ -6564,7 +6579,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6651,7 +6666,7 @@
         <v>1.67</v>
       </c>
       <c r="AS30">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>1.7</v>
@@ -6755,7 +6770,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6946,7 +6961,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7033,10 +7048,10 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT32">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU32">
         <v>0.5600000000000001</v>
@@ -7137,7 +7152,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7224,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT33">
         <v>0.6</v>
@@ -7328,7 +7343,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7797,10 +7812,10 @@
         <v>2.33</v>
       </c>
       <c r="AS36">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT36">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -7901,7 +7916,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7991,7 +8006,7 @@
         <v>2.3</v>
       </c>
       <c r="AT37">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU37">
         <v>1.44</v>
@@ -8092,7 +8107,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8179,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT38">
         <v>1.11</v>
@@ -8755,7 +8770,7 @@
         <v>1.8</v>
       </c>
       <c r="AT41">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -8856,7 +8871,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8943,7 +8958,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT42">
         <v>1.56</v>
@@ -9047,7 +9062,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9134,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT43">
         <v>1.11</v>
@@ -9238,7 +9253,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9325,7 +9340,7 @@
         <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -9429,7 +9444,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9519,7 +9534,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9620,7 +9635,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9710,7 +9725,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU46">
         <v>1.19</v>
@@ -9811,7 +9826,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9898,7 +9913,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT47">
         <v>0.75</v>
@@ -10092,7 +10107,7 @@
         <v>2.11</v>
       </c>
       <c r="AT48">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10384,7 +10399,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10575,7 +10590,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10662,7 +10677,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT51">
         <v>0.5600000000000001</v>
@@ -11620,7 +11635,7 @@
         <v>2.3</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU56">
         <v>1.53</v>
@@ -11721,7 +11736,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11808,10 +11823,10 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT57">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11912,7 +11927,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11999,10 +12014,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
+        <v>1</v>
+      </c>
+      <c r="AT58">
         <v>1.1</v>
-      </c>
-      <c r="AT58">
-        <v>1.11</v>
       </c>
       <c r="AU58">
         <v>1.25</v>
@@ -12190,10 +12205,10 @@
         <v>0.25</v>
       </c>
       <c r="AS59">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT59">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU59">
         <v>1.4</v>
@@ -12294,7 +12309,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12763,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT62">
         <v>0.75</v>
@@ -12867,7 +12882,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -13249,7 +13264,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13336,7 +13351,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13440,7 +13455,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13527,10 +13542,10 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT66">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU66">
         <v>1.18</v>
@@ -13631,7 +13646,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13718,10 +13733,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT67">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU67">
         <v>1.17</v>
@@ -13822,7 +13837,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13912,7 +13927,7 @@
         <v>0.67</v>
       </c>
       <c r="AT68">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU68">
         <v>1.17</v>
@@ -14676,7 +14691,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU72">
         <v>1.58</v>
@@ -14777,7 +14792,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15058,7 +15073,7 @@
         <v>1.33</v>
       </c>
       <c r="AT74">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU74">
         <v>1.27</v>
@@ -15159,7 +15174,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15246,7 +15261,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT75">
         <v>1.56</v>
@@ -15437,7 +15452,7 @@
         <v>0.2</v>
       </c>
       <c r="AS76">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT76">
         <v>1.11</v>
@@ -15628,7 +15643,7 @@
         <v>1.43</v>
       </c>
       <c r="AS77">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT77">
         <v>1.56</v>
@@ -15819,7 +15834,7 @@
         <v>0.43</v>
       </c>
       <c r="AS78">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT78">
         <v>0.6</v>
@@ -15923,7 +15938,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16010,10 +16025,10 @@
         <v>2.2</v>
       </c>
       <c r="AS79">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT79">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16201,10 +16216,10 @@
         <v>0.8</v>
       </c>
       <c r="AS80">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT80">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU80">
         <v>1.2</v>
@@ -16496,7 +16511,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16586,7 +16601,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU82">
         <v>1.42</v>
@@ -16687,7 +16702,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -16777,7 +16792,7 @@
         <v>2.3</v>
       </c>
       <c r="AT83">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU83">
         <v>1.51</v>
@@ -17451,7 +17466,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17538,10 +17553,10 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT87">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -17642,7 +17657,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17833,7 +17848,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -18111,10 +18126,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT90">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU90">
         <v>1.22</v>
@@ -18302,7 +18317,7 @@
         <v>2.13</v>
       </c>
       <c r="AS91">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT91">
         <v>1.7</v>
@@ -18496,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU92">
         <v>1.38</v>
@@ -18687,7 +18702,7 @@
         <v>1.75</v>
       </c>
       <c r="AT93">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU93">
         <v>1.73</v>
@@ -18788,7 +18803,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18878,7 +18893,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU94">
         <v>1.68</v>
@@ -18979,7 +18994,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19066,7 +19081,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
         <v>0.5600000000000001</v>
@@ -19361,7 +19376,7 @@
         <v>80</v>
       </c>
       <c r="P97" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19451,7 +19466,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU97">
         <v>1.3</v>
@@ -19552,7 +19567,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19639,7 +19654,7 @@
         <v>0.38</v>
       </c>
       <c r="AS98">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT98">
         <v>0.6</v>
@@ -19743,7 +19758,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19830,7 +19845,7 @@
         <v>0.88</v>
       </c>
       <c r="AS99">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT99">
         <v>1.11</v>
@@ -19934,7 +19949,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20125,7 +20140,7 @@
         <v>91</v>
       </c>
       <c r="P101" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20212,10 +20227,10 @@
         <v>1.13</v>
       </c>
       <c r="AS101">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT101">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU101">
         <v>1.4</v>
@@ -20316,7 +20331,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20403,7 +20418,7 @@
         <v>1.89</v>
       </c>
       <c r="AS102">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT102">
         <v>1.7</v>
@@ -20698,7 +20713,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20788,7 +20803,7 @@
         <v>0.67</v>
       </c>
       <c r="AT104">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU104">
         <v>1.22</v>
@@ -20889,7 +20904,7 @@
         <v>113</v>
       </c>
       <c r="P105" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -20976,7 +20991,7 @@
         <v>0.33</v>
       </c>
       <c r="AS105">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT105">
         <v>0.6</v>
@@ -21080,7 +21095,7 @@
         <v>145</v>
       </c>
       <c r="P106" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21170,7 +21185,7 @@
         <v>2.3</v>
       </c>
       <c r="AT106">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU106">
         <v>1.46</v>
@@ -21271,7 +21286,7 @@
         <v>106</v>
       </c>
       <c r="P107" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21361,7 +21376,7 @@
         <v>1.33</v>
       </c>
       <c r="AT107">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU107">
         <v>1.44</v>
@@ -21604,6 +21619,961 @@
       </c>
       <c r="BK108">
         <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5239161</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45147.54166666666</v>
+      </c>
+      <c r="F109">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" t="s">
+        <v>66</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>5</v>
+      </c>
+      <c r="O109" t="s">
+        <v>147</v>
+      </c>
+      <c r="P109" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q109">
+        <v>6</v>
+      </c>
+      <c r="R109">
+        <v>8</v>
+      </c>
+      <c r="S109">
+        <v>14</v>
+      </c>
+      <c r="T109">
+        <v>3.75</v>
+      </c>
+      <c r="U109">
+        <v>2.21</v>
+      </c>
+      <c r="V109">
+        <v>3.12</v>
+      </c>
+      <c r="W109">
+        <v>1.43</v>
+      </c>
+      <c r="X109">
+        <v>2.94</v>
+      </c>
+      <c r="Y109">
+        <v>3.12</v>
+      </c>
+      <c r="Z109">
+        <v>1.39</v>
+      </c>
+      <c r="AA109">
+        <v>7.6</v>
+      </c>
+      <c r="AB109">
+        <v>1.07</v>
+      </c>
+      <c r="AC109">
+        <v>2.8</v>
+      </c>
+      <c r="AD109">
+        <v>3</v>
+      </c>
+      <c r="AE109">
+        <v>2.3</v>
+      </c>
+      <c r="AF109">
+        <v>1.05</v>
+      </c>
+      <c r="AG109">
+        <v>7.5</v>
+      </c>
+      <c r="AH109">
+        <v>1.28</v>
+      </c>
+      <c r="AI109">
+        <v>3.3</v>
+      </c>
+      <c r="AJ109">
+        <v>2</v>
+      </c>
+      <c r="AK109">
+        <v>1.73</v>
+      </c>
+      <c r="AL109">
+        <v>1.72</v>
+      </c>
+      <c r="AM109">
+        <v>1.97</v>
+      </c>
+      <c r="AN109">
+        <v>1.55</v>
+      </c>
+      <c r="AO109">
+        <v>1.33</v>
+      </c>
+      <c r="AP109">
+        <v>1.36</v>
+      </c>
+      <c r="AQ109">
+        <v>1.56</v>
+      </c>
+      <c r="AR109">
+        <v>2</v>
+      </c>
+      <c r="AS109">
+        <v>1.7</v>
+      </c>
+      <c r="AT109">
+        <v>1.78</v>
+      </c>
+      <c r="AU109">
+        <v>1.45</v>
+      </c>
+      <c r="AV109">
+        <v>1.29</v>
+      </c>
+      <c r="AW109">
+        <v>2.74</v>
+      </c>
+      <c r="AX109">
+        <v>2.2</v>
+      </c>
+      <c r="AY109">
+        <v>7</v>
+      </c>
+      <c r="AZ109">
+        <v>2</v>
+      </c>
+      <c r="BA109">
+        <v>1.22</v>
+      </c>
+      <c r="BB109">
+        <v>1.5</v>
+      </c>
+      <c r="BC109">
+        <v>1.63</v>
+      </c>
+      <c r="BD109">
+        <v>2.01</v>
+      </c>
+      <c r="BE109">
+        <v>2.51</v>
+      </c>
+      <c r="BF109">
+        <v>6</v>
+      </c>
+      <c r="BG109">
+        <v>6</v>
+      </c>
+      <c r="BH109">
+        <v>4</v>
+      </c>
+      <c r="BI109">
+        <v>4</v>
+      </c>
+      <c r="BJ109">
+        <v>10</v>
+      </c>
+      <c r="BK109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5239162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45149.5</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" t="s">
+        <v>67</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>129</v>
+      </c>
+      <c r="P110" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q110">
+        <v>13</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>14</v>
+      </c>
+      <c r="T110">
+        <v>2.3</v>
+      </c>
+      <c r="U110">
+        <v>2.3</v>
+      </c>
+      <c r="V110">
+        <v>4.33</v>
+      </c>
+      <c r="W110">
+        <v>1.3</v>
+      </c>
+      <c r="X110">
+        <v>3.2</v>
+      </c>
+      <c r="Y110">
+        <v>2.4</v>
+      </c>
+      <c r="Z110">
+        <v>1.5</v>
+      </c>
+      <c r="AA110">
+        <v>5.5</v>
+      </c>
+      <c r="AB110">
+        <v>1.11</v>
+      </c>
+      <c r="AC110">
+        <v>1.82</v>
+      </c>
+      <c r="AD110">
+        <v>3.6</v>
+      </c>
+      <c r="AE110">
+        <v>3.8</v>
+      </c>
+      <c r="AF110">
+        <v>1</v>
+      </c>
+      <c r="AG110">
+        <v>10.5</v>
+      </c>
+      <c r="AH110">
+        <v>1.22</v>
+      </c>
+      <c r="AI110">
+        <v>3.8</v>
+      </c>
+      <c r="AJ110">
+        <v>1.71</v>
+      </c>
+      <c r="AK110">
+        <v>2.04</v>
+      </c>
+      <c r="AL110">
+        <v>1.65</v>
+      </c>
+      <c r="AM110">
+        <v>2.1</v>
+      </c>
+      <c r="AN110">
+        <v>1.25</v>
+      </c>
+      <c r="AO110">
+        <v>1.25</v>
+      </c>
+      <c r="AP110">
+        <v>1.95</v>
+      </c>
+      <c r="AQ110">
+        <v>1.25</v>
+      </c>
+      <c r="AR110">
+        <v>0.89</v>
+      </c>
+      <c r="AS110">
+        <v>1.22</v>
+      </c>
+      <c r="AT110">
+        <v>0.9</v>
+      </c>
+      <c r="AU110">
+        <v>1.43</v>
+      </c>
+      <c r="AV110">
+        <v>1.11</v>
+      </c>
+      <c r="AW110">
+        <v>2.54</v>
+      </c>
+      <c r="AX110">
+        <v>1.64</v>
+      </c>
+      <c r="AY110">
+        <v>8.5</v>
+      </c>
+      <c r="AZ110">
+        <v>2.66</v>
+      </c>
+      <c r="BA110">
+        <v>1.18</v>
+      </c>
+      <c r="BB110">
+        <v>1.36</v>
+      </c>
+      <c r="BC110">
+        <v>1.66</v>
+      </c>
+      <c r="BD110">
+        <v>2.11</v>
+      </c>
+      <c r="BE110">
+        <v>2.76</v>
+      </c>
+      <c r="BF110">
+        <v>7</v>
+      </c>
+      <c r="BG110">
+        <v>2</v>
+      </c>
+      <c r="BH110">
+        <v>7</v>
+      </c>
+      <c r="BI110">
+        <v>1</v>
+      </c>
+      <c r="BJ110">
+        <v>14</v>
+      </c>
+      <c r="BK110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5239163</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45150.45833333334</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>91</v>
+      </c>
+      <c r="P111" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>6</v>
+      </c>
+      <c r="S111">
+        <v>7</v>
+      </c>
+      <c r="T111">
+        <v>2.35</v>
+      </c>
+      <c r="U111">
+        <v>2.19</v>
+      </c>
+      <c r="V111">
+        <v>4.75</v>
+      </c>
+      <c r="W111">
+        <v>1.38</v>
+      </c>
+      <c r="X111">
+        <v>2.91</v>
+      </c>
+      <c r="Y111">
+        <v>2.82</v>
+      </c>
+      <c r="Z111">
+        <v>1.4</v>
+      </c>
+      <c r="AA111">
+        <v>6.95</v>
+      </c>
+      <c r="AB111">
+        <v>1.08</v>
+      </c>
+      <c r="AC111">
+        <v>1.85</v>
+      </c>
+      <c r="AD111">
+        <v>3.3</v>
+      </c>
+      <c r="AE111">
+        <v>3.65</v>
+      </c>
+      <c r="AF111">
+        <v>1.01</v>
+      </c>
+      <c r="AG111">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH111">
+        <v>1.27</v>
+      </c>
+      <c r="AI111">
+        <v>3.32</v>
+      </c>
+      <c r="AJ111">
+        <v>1.95</v>
+      </c>
+      <c r="AK111">
+        <v>1.75</v>
+      </c>
+      <c r="AL111">
+        <v>1.8</v>
+      </c>
+      <c r="AM111">
+        <v>1.95</v>
+      </c>
+      <c r="AN111">
+        <v>1.22</v>
+      </c>
+      <c r="AO111">
+        <v>1.27</v>
+      </c>
+      <c r="AP111">
+        <v>1.99</v>
+      </c>
+      <c r="AQ111">
+        <v>1.63</v>
+      </c>
+      <c r="AR111">
+        <v>1.11</v>
+      </c>
+      <c r="AS111">
+        <v>1.56</v>
+      </c>
+      <c r="AT111">
+        <v>1.1</v>
+      </c>
+      <c r="AU111">
+        <v>1.17</v>
+      </c>
+      <c r="AV111">
+        <v>0.97</v>
+      </c>
+      <c r="AW111">
+        <v>2.14</v>
+      </c>
+      <c r="AX111">
+        <v>1.43</v>
+      </c>
+      <c r="AY111">
+        <v>6</v>
+      </c>
+      <c r="AZ111">
+        <v>3.3</v>
+      </c>
+      <c r="BA111">
+        <v>1.22</v>
+      </c>
+      <c r="BB111">
+        <v>1.44</v>
+      </c>
+      <c r="BC111">
+        <v>1.78</v>
+      </c>
+      <c r="BD111">
+        <v>2.25</v>
+      </c>
+      <c r="BE111">
+        <v>2.98</v>
+      </c>
+      <c r="BF111">
+        <v>5</v>
+      </c>
+      <c r="BG111">
+        <v>4</v>
+      </c>
+      <c r="BH111">
+        <v>1</v>
+      </c>
+      <c r="BI111">
+        <v>2</v>
+      </c>
+      <c r="BJ111">
+        <v>6</v>
+      </c>
+      <c r="BK111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5239165</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>80</v>
+      </c>
+      <c r="P112" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q112">
+        <v>8</v>
+      </c>
+      <c r="R112">
+        <v>4</v>
+      </c>
+      <c r="S112">
+        <v>12</v>
+      </c>
+      <c r="T112">
+        <v>4.5</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
+        <v>2.7</v>
+      </c>
+      <c r="W112">
+        <v>1.52</v>
+      </c>
+      <c r="X112">
+        <v>2.35</v>
+      </c>
+      <c r="Y112">
+        <v>3.4</v>
+      </c>
+      <c r="Z112">
+        <v>1.28</v>
+      </c>
+      <c r="AA112">
+        <v>11</v>
+      </c>
+      <c r="AB112">
+        <v>1.05</v>
+      </c>
+      <c r="AC112">
+        <v>3.8</v>
+      </c>
+      <c r="AD112">
+        <v>3</v>
+      </c>
+      <c r="AE112">
+        <v>1.95</v>
+      </c>
+      <c r="AF112">
+        <v>1.09</v>
+      </c>
+      <c r="AG112">
+        <v>8.15</v>
+      </c>
+      <c r="AH112">
+        <v>1.47</v>
+      </c>
+      <c r="AI112">
+        <v>2.72</v>
+      </c>
+      <c r="AJ112">
+        <v>2.35</v>
+      </c>
+      <c r="AK112">
+        <v>1.53</v>
+      </c>
+      <c r="AL112">
+        <v>2.15</v>
+      </c>
+      <c r="AM112">
+        <v>1.7</v>
+      </c>
+      <c r="AN112">
+        <v>1.78</v>
+      </c>
+      <c r="AO112">
+        <v>1.32</v>
+      </c>
+      <c r="AP112">
+        <v>1.27</v>
+      </c>
+      <c r="AQ112">
+        <v>1.1</v>
+      </c>
+      <c r="AR112">
+        <v>2.13</v>
+      </c>
+      <c r="AS112">
+        <v>1</v>
+      </c>
+      <c r="AT112">
+        <v>2.22</v>
+      </c>
+      <c r="AU112">
+        <v>1.29</v>
+      </c>
+      <c r="AV112">
+        <v>1.6</v>
+      </c>
+      <c r="AW112">
+        <v>2.89</v>
+      </c>
+      <c r="AX112">
+        <v>2.1</v>
+      </c>
+      <c r="AY112">
+        <v>5.75</v>
+      </c>
+      <c r="AZ112">
+        <v>1.95</v>
+      </c>
+      <c r="BA112">
+        <v>1.3</v>
+      </c>
+      <c r="BB112">
+        <v>1.58</v>
+      </c>
+      <c r="BC112">
+        <v>1.85</v>
+      </c>
+      <c r="BD112">
+        <v>2.62</v>
+      </c>
+      <c r="BE112">
+        <v>3.56</v>
+      </c>
+      <c r="BF112">
+        <v>6</v>
+      </c>
+      <c r="BG112">
+        <v>5</v>
+      </c>
+      <c r="BH112">
+        <v>4</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>10</v>
+      </c>
+      <c r="BK112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5239164</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>148</v>
+      </c>
+      <c r="P113" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q113">
+        <v>2</v>
+      </c>
+      <c r="R113">
+        <v>3</v>
+      </c>
+      <c r="S113">
+        <v>5</v>
+      </c>
+      <c r="T113">
+        <v>2.6</v>
+      </c>
+      <c r="U113">
+        <v>2</v>
+      </c>
+      <c r="V113">
+        <v>4.2</v>
+      </c>
+      <c r="W113">
+        <v>1.46</v>
+      </c>
+      <c r="X113">
+        <v>2.5</v>
+      </c>
+      <c r="Y113">
+        <v>3.1</v>
+      </c>
+      <c r="Z113">
+        <v>1.32</v>
+      </c>
+      <c r="AA113">
+        <v>8.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.06</v>
+      </c>
+      <c r="AC113">
+        <v>1.9</v>
+      </c>
+      <c r="AD113">
+        <v>3.15</v>
+      </c>
+      <c r="AE113">
+        <v>3.65</v>
+      </c>
+      <c r="AF113">
+        <v>1.08</v>
+      </c>
+      <c r="AG113">
+        <v>7</v>
+      </c>
+      <c r="AH113">
+        <v>1.4</v>
+      </c>
+      <c r="AI113">
+        <v>2.75</v>
+      </c>
+      <c r="AJ113">
+        <v>2.02</v>
+      </c>
+      <c r="AK113">
+        <v>1.7</v>
+      </c>
+      <c r="AL113">
+        <v>1.93</v>
+      </c>
+      <c r="AM113">
+        <v>1.75</v>
+      </c>
+      <c r="AN113">
+        <v>1.25</v>
+      </c>
+      <c r="AO113">
+        <v>1.3</v>
+      </c>
+      <c r="AP113">
+        <v>1.8</v>
+      </c>
+      <c r="AQ113">
+        <v>1.56</v>
+      </c>
+      <c r="AR113">
+        <v>1.22</v>
+      </c>
+      <c r="AS113">
+        <v>1.7</v>
+      </c>
+      <c r="AT113">
+        <v>1.1</v>
+      </c>
+      <c r="AU113">
+        <v>1.5</v>
+      </c>
+      <c r="AV113">
+        <v>1.52</v>
+      </c>
+      <c r="AW113">
+        <v>3.02</v>
+      </c>
+      <c r="AX113">
+        <v>1.55</v>
+      </c>
+      <c r="AY113">
+        <v>6</v>
+      </c>
+      <c r="AZ113">
+        <v>2.75</v>
+      </c>
+      <c r="BA113">
+        <v>1.13</v>
+      </c>
+      <c r="BB113">
+        <v>1.28</v>
+      </c>
+      <c r="BC113">
+        <v>1.52</v>
+      </c>
+      <c r="BD113">
+        <v>1.88</v>
+      </c>
+      <c r="BE113">
+        <v>2.39</v>
+      </c>
+      <c r="BF113">
+        <v>6</v>
+      </c>
+      <c r="BG113">
+        <v>6</v>
+      </c>
+      <c r="BH113">
+        <v>8</v>
+      </c>
+      <c r="BI113">
+        <v>4</v>
+      </c>
+      <c r="BJ113">
+        <v>14</v>
+      </c>
+      <c r="BK113">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['1', '49']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -626,6 +629,9 @@
   </si>
   <si>
     <t>['2', '45+1', '90+1']</t>
+  </si>
+  <si>
+    <t>['47', '56', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1237,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1509,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT3">
         <v>0.6</v>
@@ -1613,7 +1619,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1995,7 +2001,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2568,7 +2574,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2759,7 +2765,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3332,7 +3338,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3992,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="AS16">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT16">
         <v>1.1</v>
@@ -4096,7 +4102,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4478,7 +4484,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4669,7 +4675,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5051,7 +5057,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5523,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU24">
         <v>1.11</v>
@@ -5624,7 +5630,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6006,7 +6012,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6096,7 +6102,7 @@
         <v>1.22</v>
       </c>
       <c r="AT27">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU27">
         <v>1.05</v>
@@ -6284,7 +6290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT28">
         <v>1.1</v>
@@ -6388,7 +6394,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6579,7 +6585,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6770,7 +6776,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6961,7 +6967,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7152,7 +7158,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7343,7 +7349,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7624,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="AT35">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7916,7 +7922,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8107,7 +8113,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8385,7 +8391,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT39">
         <v>0.75</v>
@@ -8871,7 +8877,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9062,7 +9068,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9253,7 +9259,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9444,7 +9450,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9635,7 +9641,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9826,7 +9832,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10104,7 +10110,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT48">
         <v>2.22</v>
@@ -10399,7 +10405,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10590,7 +10596,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10680,7 +10686,7 @@
         <v>1.7</v>
       </c>
       <c r="AT51">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -11736,7 +11742,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11927,7 +11933,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12309,7 +12315,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12399,7 +12405,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU60">
         <v>1.9</v>
@@ -12882,7 +12888,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -13160,7 +13166,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT64">
         <v>1.11</v>
@@ -13264,7 +13270,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13455,7 +13461,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13646,7 +13652,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13837,7 +13843,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14118,7 +14124,7 @@
         <v>2.3</v>
       </c>
       <c r="AT69">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU69">
         <v>1.49</v>
@@ -14792,7 +14798,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14879,7 +14885,7 @@
         <v>1.83</v>
       </c>
       <c r="AS73">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT73">
         <v>1.7</v>
@@ -15174,7 +15180,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15938,7 +15944,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16410,7 +16416,7 @@
         <v>0.67</v>
       </c>
       <c r="AT81">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU81">
         <v>1.18</v>
@@ -16511,7 +16517,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16702,7 +16708,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -17362,7 +17368,7 @@
         <v>1.29</v>
       </c>
       <c r="AS86">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17466,7 +17472,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17657,7 +17663,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17848,7 +17854,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -18803,7 +18809,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18994,7 +19000,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19084,7 +19090,7 @@
         <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU95">
         <v>1.15</v>
@@ -19376,7 +19382,7 @@
         <v>80</v>
       </c>
       <c r="P97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19567,7 +19573,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19758,7 +19764,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19949,7 +19955,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20036,7 +20042,7 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT100">
         <v>1.56</v>
@@ -20140,7 +20146,7 @@
         <v>91</v>
       </c>
       <c r="P101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20331,7 +20337,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20612,7 +20618,7 @@
         <v>1.8</v>
       </c>
       <c r="AT103">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU103">
         <v>1.53</v>
@@ -20713,7 +20719,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20904,7 +20910,7 @@
         <v>113</v>
       </c>
       <c r="P105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21095,7 +21101,7 @@
         <v>145</v>
       </c>
       <c r="P106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21286,7 +21292,7 @@
         <v>106</v>
       </c>
       <c r="P107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21668,7 +21674,7 @@
         <v>147</v>
       </c>
       <c r="P109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21859,7 +21865,7 @@
         <v>129</v>
       </c>
       <c r="P110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -22050,7 +22056,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -22241,7 +22247,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22573,6 +22579,197 @@
         <v>14</v>
       </c>
       <c r="BK113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5239166</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45153.5</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>66</v>
+      </c>
+      <c r="H114" t="s">
+        <v>69</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114" t="s">
+        <v>149</v>
+      </c>
+      <c r="P114" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q114">
+        <v>6</v>
+      </c>
+      <c r="R114">
+        <v>4</v>
+      </c>
+      <c r="S114">
+        <v>10</v>
+      </c>
+      <c r="T114">
+        <v>1.9</v>
+      </c>
+      <c r="U114">
+        <v>2.35</v>
+      </c>
+      <c r="V114">
+        <v>6.25</v>
+      </c>
+      <c r="W114">
+        <v>1.3</v>
+      </c>
+      <c r="X114">
+        <v>3.4</v>
+      </c>
+      <c r="Y114">
+        <v>2.38</v>
+      </c>
+      <c r="Z114">
+        <v>1.53</v>
+      </c>
+      <c r="AA114">
+        <v>5</v>
+      </c>
+      <c r="AB114">
+        <v>1.14</v>
+      </c>
+      <c r="AC114">
+        <v>1.36</v>
+      </c>
+      <c r="AD114">
+        <v>4.33</v>
+      </c>
+      <c r="AE114">
+        <v>6</v>
+      </c>
+      <c r="AF114">
+        <v>1.04</v>
+      </c>
+      <c r="AG114">
+        <v>10</v>
+      </c>
+      <c r="AH114">
+        <v>1.25</v>
+      </c>
+      <c r="AI114">
+        <v>3.75</v>
+      </c>
+      <c r="AJ114">
+        <v>1.7</v>
+      </c>
+      <c r="AK114">
+        <v>2</v>
+      </c>
+      <c r="AL114">
+        <v>1.91</v>
+      </c>
+      <c r="AM114">
+        <v>1.8</v>
+      </c>
+      <c r="AN114">
+        <v>1.12</v>
+      </c>
+      <c r="AO114">
+        <v>1.2</v>
+      </c>
+      <c r="AP114">
+        <v>2.75</v>
+      </c>
+      <c r="AQ114">
+        <v>2.11</v>
+      </c>
+      <c r="AR114">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS114">
+        <v>1.9</v>
+      </c>
+      <c r="AT114">
+        <v>0.8</v>
+      </c>
+      <c r="AU114">
+        <v>1.54</v>
+      </c>
+      <c r="AV114">
+        <v>1.25</v>
+      </c>
+      <c r="AW114">
+        <v>2.79</v>
+      </c>
+      <c r="AX114">
+        <v>1.26</v>
+      </c>
+      <c r="AY114">
+        <v>11.5</v>
+      </c>
+      <c r="AZ114">
+        <v>4.7</v>
+      </c>
+      <c r="BA114">
+        <v>1.14</v>
+      </c>
+      <c r="BB114">
+        <v>1.3</v>
+      </c>
+      <c r="BC114">
+        <v>1.55</v>
+      </c>
+      <c r="BD114">
+        <v>1.92</v>
+      </c>
+      <c r="BE114">
+        <v>2.46</v>
+      </c>
+      <c r="BF114">
+        <v>7</v>
+      </c>
+      <c r="BG114">
+        <v>6</v>
+      </c>
+      <c r="BH114">
+        <v>6</v>
+      </c>
+      <c r="BI114">
+        <v>4</v>
+      </c>
+      <c r="BJ114">
+        <v>13</v>
+      </c>
+      <c r="BK114">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -633,6 +633,9 @@
   <si>
     <t>['47', '56', '90+2']</t>
   </si>
+  <si>
+    <t>['54', '76']</t>
+  </si>
 </sst>
 </file>
 
@@ -993,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK114"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1706,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT4">
         <v>0.75</v>
@@ -2282,7 +2285,7 @@
         <v>2.3</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3425,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT13">
         <v>1.1</v>
@@ -3619,7 +3622,7 @@
         <v>1.8</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU14">
         <v>2.23</v>
@@ -3810,7 +3813,7 @@
         <v>2.3</v>
       </c>
       <c r="AT15">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU15">
         <v>1.36</v>
@@ -4765,7 +4768,7 @@
         <v>1.22</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU20">
         <v>1.1</v>
@@ -5338,7 +5341,7 @@
         <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5717,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT25">
         <v>2.22</v>
@@ -7627,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT35">
         <v>0.8</v>
@@ -8203,7 +8206,7 @@
         <v>1.56</v>
       </c>
       <c r="AT38">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU38">
         <v>0.87</v>
@@ -8582,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT40">
         <v>0.6</v>
@@ -9158,7 +9161,7 @@
         <v>1.22</v>
       </c>
       <c r="AT43">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU43">
         <v>1.23</v>
@@ -9349,7 +9352,7 @@
         <v>1.56</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU44">
         <v>1.19</v>
@@ -10492,7 +10495,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT50">
         <v>1.7</v>
@@ -10874,7 +10877,7 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT52">
         <v>1.56</v>
@@ -11068,7 +11071,7 @@
         <v>1.75</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU53">
         <v>1.94</v>
@@ -11450,7 +11453,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU55">
         <v>1.17</v>
@@ -12975,7 +12978,7 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT63">
         <v>1.56</v>
@@ -13169,7 +13172,7 @@
         <v>1.9</v>
       </c>
       <c r="AT64">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13360,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU65">
         <v>1.27</v>
@@ -13930,7 +13933,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT68">
         <v>1.78</v>
@@ -14312,7 +14315,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT70">
         <v>0.6</v>
@@ -15461,7 +15464,7 @@
         <v>1.7</v>
       </c>
       <c r="AT76">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU76">
         <v>1.53</v>
@@ -16413,7 +16416,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT81">
         <v>0.8</v>
@@ -16604,7 +16607,7 @@
         <v>2.17</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT82">
         <v>2.22</v>
@@ -16989,7 +16992,7 @@
         <v>1.8</v>
       </c>
       <c r="AT84">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU84">
         <v>1.61</v>
@@ -17371,7 +17374,7 @@
         <v>1.9</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU86">
         <v>1.61</v>
@@ -17750,7 +17753,7 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT88">
         <v>1.7</v>
@@ -17944,7 +17947,7 @@
         <v>1.75</v>
       </c>
       <c r="AT89">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU89">
         <v>1.77</v>
@@ -18514,7 +18517,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT92">
         <v>1.78</v>
@@ -19469,7 +19472,7 @@
         <v>0.71</v>
       </c>
       <c r="AS97">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT97">
         <v>0.9</v>
@@ -19854,7 +19857,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU99">
         <v>1.23</v>
@@ -20806,7 +20809,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT104">
         <v>1.1</v>
@@ -21570,10 +21573,10 @@
         <v>1.13</v>
       </c>
       <c r="AS108">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU108">
         <v>1.34</v>
@@ -22771,6 +22774,388 @@
       </c>
       <c r="BK114">
         <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5239167</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45156.5</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>75</v>
+      </c>
+      <c r="H115" t="s">
+        <v>68</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>80</v>
+      </c>
+      <c r="P115" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q115">
+        <v>7</v>
+      </c>
+      <c r="R115">
+        <v>3</v>
+      </c>
+      <c r="S115">
+        <v>10</v>
+      </c>
+      <c r="T115">
+        <v>4.17</v>
+      </c>
+      <c r="U115">
+        <v>2.29</v>
+      </c>
+      <c r="V115">
+        <v>2.72</v>
+      </c>
+      <c r="W115">
+        <v>1.39</v>
+      </c>
+      <c r="X115">
+        <v>3.13</v>
+      </c>
+      <c r="Y115">
+        <v>2.91</v>
+      </c>
+      <c r="Z115">
+        <v>1.44</v>
+      </c>
+      <c r="AA115">
+        <v>6.75</v>
+      </c>
+      <c r="AB115">
+        <v>1.09</v>
+      </c>
+      <c r="AC115">
+        <v>3.15</v>
+      </c>
+      <c r="AD115">
+        <v>3.4</v>
+      </c>
+      <c r="AE115">
+        <v>2.18</v>
+      </c>
+      <c r="AF115">
+        <v>1.05</v>
+      </c>
+      <c r="AG115">
+        <v>9</v>
+      </c>
+      <c r="AH115">
+        <v>1.3</v>
+      </c>
+      <c r="AI115">
+        <v>3.4</v>
+      </c>
+      <c r="AJ115">
+        <v>1.85</v>
+      </c>
+      <c r="AK115">
+        <v>1.85</v>
+      </c>
+      <c r="AL115">
+        <v>1.71</v>
+      </c>
+      <c r="AM115">
+        <v>2.08</v>
+      </c>
+      <c r="AN115">
+        <v>1.75</v>
+      </c>
+      <c r="AO115">
+        <v>1.3</v>
+      </c>
+      <c r="AP115">
+        <v>1.25</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>1.11</v>
+      </c>
+      <c r="AS115">
+        <v>0.89</v>
+      </c>
+      <c r="AT115">
+        <v>1.3</v>
+      </c>
+      <c r="AU115">
+        <v>1.33</v>
+      </c>
+      <c r="AV115">
+        <v>1.34</v>
+      </c>
+      <c r="AW115">
+        <v>2.67</v>
+      </c>
+      <c r="AX115">
+        <v>1.95</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>2.1</v>
+      </c>
+      <c r="BA115">
+        <v>1.2</v>
+      </c>
+      <c r="BB115">
+        <v>1.4</v>
+      </c>
+      <c r="BC115">
+        <v>1.67</v>
+      </c>
+      <c r="BD115">
+        <v>2.05</v>
+      </c>
+      <c r="BE115">
+        <v>2.6</v>
+      </c>
+      <c r="BF115">
+        <v>5</v>
+      </c>
+      <c r="BG115">
+        <v>5</v>
+      </c>
+      <c r="BH115">
+        <v>4</v>
+      </c>
+      <c r="BI115">
+        <v>4</v>
+      </c>
+      <c r="BJ115">
+        <v>9</v>
+      </c>
+      <c r="BK115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5239171</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45156.52083333334</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>67</v>
+      </c>
+      <c r="H116" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>80</v>
+      </c>
+      <c r="P116" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q116">
+        <v>2</v>
+      </c>
+      <c r="R116">
+        <v>5</v>
+      </c>
+      <c r="S116">
+        <v>7</v>
+      </c>
+      <c r="T116">
+        <v>4.63</v>
+      </c>
+      <c r="U116">
+        <v>2.21</v>
+      </c>
+      <c r="V116">
+        <v>2.71</v>
+      </c>
+      <c r="W116">
+        <v>1.45</v>
+      </c>
+      <c r="X116">
+        <v>2.84</v>
+      </c>
+      <c r="Y116">
+        <v>3.23</v>
+      </c>
+      <c r="Z116">
+        <v>1.37</v>
+      </c>
+      <c r="AA116">
+        <v>7</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>3.6</v>
+      </c>
+      <c r="AD116">
+        <v>3.4</v>
+      </c>
+      <c r="AE116">
+        <v>2</v>
+      </c>
+      <c r="AF116">
+        <v>1.06</v>
+      </c>
+      <c r="AG116">
+        <v>8</v>
+      </c>
+      <c r="AH116">
+        <v>1.36</v>
+      </c>
+      <c r="AI116">
+        <v>3</v>
+      </c>
+      <c r="AJ116">
+        <v>2</v>
+      </c>
+      <c r="AK116">
+        <v>1.7</v>
+      </c>
+      <c r="AL116">
+        <v>1.85</v>
+      </c>
+      <c r="AM116">
+        <v>1.85</v>
+      </c>
+      <c r="AN116">
+        <v>1.75</v>
+      </c>
+      <c r="AO116">
+        <v>1.3</v>
+      </c>
+      <c r="AP116">
+        <v>1.25</v>
+      </c>
+      <c r="AQ116">
+        <v>0.67</v>
+      </c>
+      <c r="AR116">
+        <v>1</v>
+      </c>
+      <c r="AS116">
+        <v>0.6</v>
+      </c>
+      <c r="AT116">
+        <v>1.2</v>
+      </c>
+      <c r="AU116">
+        <v>1.25</v>
+      </c>
+      <c r="AV116">
+        <v>1.29</v>
+      </c>
+      <c r="AW116">
+        <v>2.54</v>
+      </c>
+      <c r="AX116">
+        <v>2.44</v>
+      </c>
+      <c r="AY116">
+        <v>8</v>
+      </c>
+      <c r="AZ116">
+        <v>1.75</v>
+      </c>
+      <c r="BA116">
+        <v>1.17</v>
+      </c>
+      <c r="BB116">
+        <v>1.35</v>
+      </c>
+      <c r="BC116">
+        <v>1.63</v>
+      </c>
+      <c r="BD116">
+        <v>2.06</v>
+      </c>
+      <c r="BE116">
+        <v>2.69</v>
+      </c>
+      <c r="BF116">
+        <v>4</v>
+      </c>
+      <c r="BG116">
+        <v>3</v>
+      </c>
+      <c r="BH116">
+        <v>5</v>
+      </c>
+      <c r="BI116">
+        <v>6</v>
+      </c>
+      <c r="BJ116">
+        <v>9</v>
+      </c>
+      <c r="BK116">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,12 @@
     <t>['1', '49']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['25', '89', '90+3']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -635,6 +641,12 @@
   </si>
   <si>
     <t>['54', '76']</t>
+  </si>
+  <si>
+    <t>['18', '48', '67']</t>
+  </si>
+  <si>
+    <t>['62', '64', '68']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1252,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1327,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT2">
         <v>1.1</v>
@@ -1622,7 +1634,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1712,7 +1724,7 @@
         <v>0.6</v>
       </c>
       <c r="AT4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2004,7 +2016,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2577,7 +2589,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2768,7 +2780,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3049,7 +3061,7 @@
         <v>1.7</v>
       </c>
       <c r="AT11">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3240,7 +3252,7 @@
         <v>1.7</v>
       </c>
       <c r="AT12">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU12">
         <v>0.87</v>
@@ -3341,7 +3353,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3619,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT14">
         <v>1.2</v>
@@ -4105,7 +4117,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4383,10 +4395,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>1.67</v>
@@ -4487,7 +4499,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4678,7 +4690,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5060,7 +5072,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5147,10 +5159,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT22">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5633,7 +5645,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6015,7 +6027,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6397,7 +6409,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6588,7 +6600,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6779,7 +6791,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6866,10 +6878,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT31">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU31">
         <v>1.67</v>
@@ -6970,7 +6982,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7057,7 +7069,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT32">
         <v>2.22</v>
@@ -7161,7 +7173,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7352,7 +7364,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7442,7 +7454,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7925,7 +7937,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8116,7 +8128,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8203,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT38">
         <v>1.3</v>
@@ -8397,7 +8409,7 @@
         <v>1.9</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.71</v>
@@ -8776,7 +8788,7 @@
         <v>1.25</v>
       </c>
       <c r="AS41">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT41">
         <v>1.1</v>
@@ -8880,7 +8892,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8970,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AT42">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -9071,7 +9083,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9262,7 +9274,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9349,7 +9361,7 @@
         <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT44">
         <v>1.2</v>
@@ -9453,7 +9465,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9540,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT45">
         <v>0.9</v>
@@ -9644,7 +9656,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9734,7 +9746,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU46">
         <v>1.19</v>
@@ -9835,7 +9847,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9925,7 +9937,7 @@
         <v>1.7</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.12</v>
@@ -10304,7 +10316,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT49">
         <v>0.6</v>
@@ -10408,7 +10420,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10599,7 +10611,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10880,7 +10892,7 @@
         <v>0.6</v>
       </c>
       <c r="AT52">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU52">
         <v>1.31</v>
@@ -11068,7 +11080,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT53">
         <v>1.2</v>
@@ -11259,7 +11271,7 @@
         <v>0.6</v>
       </c>
       <c r="AS54">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT54">
         <v>0.6</v>
@@ -11644,7 +11656,7 @@
         <v>2.3</v>
       </c>
       <c r="AT56">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU56">
         <v>1.53</v>
@@ -11745,7 +11757,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11832,7 +11844,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT57">
         <v>0.9</v>
@@ -11936,7 +11948,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12318,7 +12330,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12405,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT60">
         <v>0.8</v>
@@ -12596,7 +12608,7 @@
         <v>2.2</v>
       </c>
       <c r="AS61">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT61">
         <v>1.7</v>
@@ -12790,7 +12802,7 @@
         <v>1.22</v>
       </c>
       <c r="AT62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.23</v>
@@ -12891,7 +12903,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12981,7 +12993,7 @@
         <v>0.89</v>
       </c>
       <c r="AT63">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU63">
         <v>1.7</v>
@@ -13273,7 +13285,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13464,7 +13476,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13551,7 +13563,7 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT66">
         <v>1.1</v>
@@ -13655,7 +13667,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13846,7 +13858,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13936,7 +13948,7 @@
         <v>0.6</v>
       </c>
       <c r="AT68">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU68">
         <v>1.17</v>
@@ -14506,10 +14518,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.76</v>
@@ -14697,7 +14709,7 @@
         <v>0.2</v>
       </c>
       <c r="AS72">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT72">
         <v>0.9</v>
@@ -14801,7 +14813,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15183,7 +15195,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15273,7 +15285,7 @@
         <v>1.22</v>
       </c>
       <c r="AT75">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU75">
         <v>1.26</v>
@@ -15655,7 +15667,7 @@
         <v>1.7</v>
       </c>
       <c r="AT77">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -15843,7 +15855,7 @@
         <v>0.43</v>
       </c>
       <c r="AS78">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT78">
         <v>0.6</v>
@@ -15947,7 +15959,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16037,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16520,7 +16532,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16711,7 +16723,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -16989,7 +17001,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT84">
         <v>1.3</v>
@@ -17183,7 +17195,7 @@
         <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17475,7 +17487,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17666,7 +17678,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17857,7 +17869,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -17944,7 +17956,7 @@
         <v>0.57</v>
       </c>
       <c r="AS89">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT89">
         <v>1.3</v>
@@ -18520,7 +18532,7 @@
         <v>0.89</v>
       </c>
       <c r="AT92">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU92">
         <v>1.38</v>
@@ -18708,7 +18720,7 @@
         <v>2.29</v>
       </c>
       <c r="AS93">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT93">
         <v>2.22</v>
@@ -18812,7 +18824,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18899,10 +18911,10 @@
         <v>1.86</v>
       </c>
       <c r="AS94">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT94">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU94">
         <v>1.68</v>
@@ -19003,7 +19015,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19090,7 +19102,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT95">
         <v>0.8</v>
@@ -19284,7 +19296,7 @@
         <v>2.3</v>
       </c>
       <c r="AT96">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.52</v>
@@ -19385,7 +19397,7 @@
         <v>80</v>
       </c>
       <c r="P97" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19576,7 +19588,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19767,7 +19779,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19958,7 +19970,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20048,7 +20060,7 @@
         <v>1.9</v>
       </c>
       <c r="AT100">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU100">
         <v>1.55</v>
@@ -20149,7 +20161,7 @@
         <v>91</v>
       </c>
       <c r="P101" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20340,7 +20352,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20618,7 +20630,7 @@
         <v>0.63</v>
       </c>
       <c r="AS103">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT103">
         <v>0.8</v>
@@ -20722,7 +20734,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20913,7 +20925,7 @@
         <v>113</v>
       </c>
       <c r="P105" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21104,7 +21116,7 @@
         <v>145</v>
       </c>
       <c r="P106" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21295,7 +21307,7 @@
         <v>106</v>
       </c>
       <c r="P107" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21677,7 +21689,7 @@
         <v>147</v>
       </c>
       <c r="P109" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21767,7 +21779,7 @@
         <v>1.7</v>
       </c>
       <c r="AT109">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU109">
         <v>1.45</v>
@@ -21868,7 +21880,7 @@
         <v>129</v>
       </c>
       <c r="P110" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -22059,7 +22071,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -22146,7 +22158,7 @@
         <v>1.11</v>
       </c>
       <c r="AS111">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT111">
         <v>1.1</v>
@@ -22250,7 +22262,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22632,7 +22644,7 @@
         <v>149</v>
       </c>
       <c r="P114" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22823,7 +22835,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23020,10 +23032,10 @@
         <v>2</v>
       </c>
       <c r="R116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T116">
         <v>4.63</v>
@@ -23156,6 +23168,579 @@
       </c>
       <c r="BK116">
         <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5239169</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45157.45833333334</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>80</v>
+      </c>
+      <c r="P117" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>4</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>2.88</v>
+      </c>
+      <c r="U117">
+        <v>2.05</v>
+      </c>
+      <c r="V117">
+        <v>3.8</v>
+      </c>
+      <c r="W117">
+        <v>1.45</v>
+      </c>
+      <c r="X117">
+        <v>2.88</v>
+      </c>
+      <c r="Y117">
+        <v>3.2</v>
+      </c>
+      <c r="Z117">
+        <v>1.38</v>
+      </c>
+      <c r="AA117">
+        <v>7.9</v>
+      </c>
+      <c r="AB117">
+        <v>1.06</v>
+      </c>
+      <c r="AC117">
+        <v>2.05</v>
+      </c>
+      <c r="AD117">
+        <v>3.27</v>
+      </c>
+      <c r="AE117">
+        <v>3.12</v>
+      </c>
+      <c r="AF117">
+        <v>1.06</v>
+      </c>
+      <c r="AG117">
+        <v>7.5</v>
+      </c>
+      <c r="AH117">
+        <v>1.36</v>
+      </c>
+      <c r="AI117">
+        <v>2.9</v>
+      </c>
+      <c r="AJ117">
+        <v>2.1</v>
+      </c>
+      <c r="AK117">
+        <v>1.67</v>
+      </c>
+      <c r="AL117">
+        <v>1.8</v>
+      </c>
+      <c r="AM117">
+        <v>1.91</v>
+      </c>
+      <c r="AN117">
+        <v>1.35</v>
+      </c>
+      <c r="AO117">
+        <v>1.3</v>
+      </c>
+      <c r="AP117">
+        <v>1.7</v>
+      </c>
+      <c r="AQ117">
+        <v>1.56</v>
+      </c>
+      <c r="AR117">
+        <v>0.75</v>
+      </c>
+      <c r="AS117">
+        <v>1.4</v>
+      </c>
+      <c r="AT117">
+        <v>1</v>
+      </c>
+      <c r="AU117">
+        <v>1.17</v>
+      </c>
+      <c r="AV117">
+        <v>1.36</v>
+      </c>
+      <c r="AW117">
+        <v>2.53</v>
+      </c>
+      <c r="AX117">
+        <v>1.82</v>
+      </c>
+      <c r="AY117">
+        <v>8</v>
+      </c>
+      <c r="AZ117">
+        <v>2.33</v>
+      </c>
+      <c r="BA117">
+        <v>1.22</v>
+      </c>
+      <c r="BB117">
+        <v>1.5</v>
+      </c>
+      <c r="BC117">
+        <v>1.81</v>
+      </c>
+      <c r="BD117">
+        <v>2.25</v>
+      </c>
+      <c r="BE117">
+        <v>2.98</v>
+      </c>
+      <c r="BF117">
+        <v>3</v>
+      </c>
+      <c r="BG117">
+        <v>3</v>
+      </c>
+      <c r="BH117">
+        <v>3</v>
+      </c>
+      <c r="BI117">
+        <v>1</v>
+      </c>
+      <c r="BJ117">
+        <v>6</v>
+      </c>
+      <c r="BK117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5239168</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45158.33333333334</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s">
+        <v>70</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>150</v>
+      </c>
+      <c r="P118" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q118">
+        <v>3</v>
+      </c>
+      <c r="R118">
+        <v>8</v>
+      </c>
+      <c r="S118">
+        <v>11</v>
+      </c>
+      <c r="T118">
+        <v>3.6</v>
+      </c>
+      <c r="U118">
+        <v>2.2</v>
+      </c>
+      <c r="V118">
+        <v>2.88</v>
+      </c>
+      <c r="W118">
+        <v>1.4</v>
+      </c>
+      <c r="X118">
+        <v>2.75</v>
+      </c>
+      <c r="Y118">
+        <v>2.75</v>
+      </c>
+      <c r="Z118">
+        <v>1.4</v>
+      </c>
+      <c r="AA118">
+        <v>8</v>
+      </c>
+      <c r="AB118">
+        <v>1.08</v>
+      </c>
+      <c r="AC118">
+        <v>3</v>
+      </c>
+      <c r="AD118">
+        <v>3.1</v>
+      </c>
+      <c r="AE118">
+        <v>2.15</v>
+      </c>
+      <c r="AF118">
+        <v>1.06</v>
+      </c>
+      <c r="AG118">
+        <v>9</v>
+      </c>
+      <c r="AH118">
+        <v>1.29</v>
+      </c>
+      <c r="AI118">
+        <v>3.25</v>
+      </c>
+      <c r="AJ118">
+        <v>1.91</v>
+      </c>
+      <c r="AK118">
+        <v>1.8</v>
+      </c>
+      <c r="AL118">
+        <v>1.7</v>
+      </c>
+      <c r="AM118">
+        <v>2.05</v>
+      </c>
+      <c r="AN118">
+        <v>1.6</v>
+      </c>
+      <c r="AO118">
+        <v>1.3</v>
+      </c>
+      <c r="AP118">
+        <v>1.37</v>
+      </c>
+      <c r="AQ118">
+        <v>1.75</v>
+      </c>
+      <c r="AR118">
+        <v>1.56</v>
+      </c>
+      <c r="AS118">
+        <v>1.56</v>
+      </c>
+      <c r="AT118">
+        <v>1.7</v>
+      </c>
+      <c r="AU118">
+        <v>1.64</v>
+      </c>
+      <c r="AV118">
+        <v>1.51</v>
+      </c>
+      <c r="AW118">
+        <v>3.15</v>
+      </c>
+      <c r="AX118">
+        <v>1.95</v>
+      </c>
+      <c r="AY118">
+        <v>8</v>
+      </c>
+      <c r="AZ118">
+        <v>2.1</v>
+      </c>
+      <c r="BA118">
+        <v>1.2</v>
+      </c>
+      <c r="BB118">
+        <v>1.38</v>
+      </c>
+      <c r="BC118">
+        <v>1.67</v>
+      </c>
+      <c r="BD118">
+        <v>2.12</v>
+      </c>
+      <c r="BE118">
+        <v>2.85</v>
+      </c>
+      <c r="BF118">
+        <v>8</v>
+      </c>
+      <c r="BG118">
+        <v>8</v>
+      </c>
+      <c r="BH118">
+        <v>7</v>
+      </c>
+      <c r="BI118">
+        <v>2</v>
+      </c>
+      <c r="BJ118">
+        <v>15</v>
+      </c>
+      <c r="BK118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5239170</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>65</v>
+      </c>
+      <c r="H119" t="s">
+        <v>66</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>151</v>
+      </c>
+      <c r="P119" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q119">
+        <v>4</v>
+      </c>
+      <c r="R119">
+        <v>5</v>
+      </c>
+      <c r="S119">
+        <v>9</v>
+      </c>
+      <c r="T119">
+        <v>2.7</v>
+      </c>
+      <c r="U119">
+        <v>2.05</v>
+      </c>
+      <c r="V119">
+        <v>4</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>2.75</v>
+      </c>
+      <c r="Y119">
+        <v>3</v>
+      </c>
+      <c r="Z119">
+        <v>1.36</v>
+      </c>
+      <c r="AA119">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB119">
+        <v>1.07</v>
+      </c>
+      <c r="AC119">
+        <v>1.94</v>
+      </c>
+      <c r="AD119">
+        <v>3.6</v>
+      </c>
+      <c r="AE119">
+        <v>3.9</v>
+      </c>
+      <c r="AF119">
+        <v>1.07</v>
+      </c>
+      <c r="AG119">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH119">
+        <v>1.36</v>
+      </c>
+      <c r="AI119">
+        <v>3.18</v>
+      </c>
+      <c r="AJ119">
+        <v>1.9</v>
+      </c>
+      <c r="AK119">
+        <v>1.8</v>
+      </c>
+      <c r="AL119">
+        <v>1.83</v>
+      </c>
+      <c r="AM119">
+        <v>1.91</v>
+      </c>
+      <c r="AN119">
+        <v>1.3</v>
+      </c>
+      <c r="AO119">
+        <v>1.33</v>
+      </c>
+      <c r="AP119">
+        <v>1.72</v>
+      </c>
+      <c r="AQ119">
+        <v>1.8</v>
+      </c>
+      <c r="AR119">
+        <v>1.78</v>
+      </c>
+      <c r="AS119">
+        <v>1.91</v>
+      </c>
+      <c r="AT119">
+        <v>1.6</v>
+      </c>
+      <c r="AU119">
+        <v>1.57</v>
+      </c>
+      <c r="AV119">
+        <v>1.31</v>
+      </c>
+      <c r="AW119">
+        <v>2.88</v>
+      </c>
+      <c r="AX119">
+        <v>1.73</v>
+      </c>
+      <c r="AY119">
+        <v>7.5</v>
+      </c>
+      <c r="AZ119">
+        <v>2.6</v>
+      </c>
+      <c r="BA119">
+        <v>1.22</v>
+      </c>
+      <c r="BB119">
+        <v>1.42</v>
+      </c>
+      <c r="BC119">
+        <v>1.74</v>
+      </c>
+      <c r="BD119">
+        <v>2.23</v>
+      </c>
+      <c r="BE119">
+        <v>3</v>
+      </c>
+      <c r="BF119">
+        <v>7</v>
+      </c>
+      <c r="BG119">
+        <v>2</v>
+      </c>
+      <c r="BH119">
+        <v>7</v>
+      </c>
+      <c r="BI119">
+        <v>3</v>
+      </c>
+      <c r="BJ119">
+        <v>14</v>
+      </c>
+      <c r="BK119">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,9 @@
     <t>['25', '89', '90+3']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -536,9 +539,6 @@
   </si>
   <si>
     <t>['31', '47', '64']</t>
-  </si>
-  <si>
-    <t>['77']</t>
   </si>
   <si>
     <t>['44', '62']</t>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>['62', '64', '68']</t>
+  </si>
+  <si>
+    <t>['19', '86']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1255,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1533,7 +1536,7 @@
         <v>1.9</v>
       </c>
       <c r="AT3">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1634,7 +1637,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2016,7 +2019,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2103,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT6">
         <v>1.7</v>
@@ -2485,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT8">
         <v>2.22</v>
@@ -2589,7 +2592,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2780,7 +2783,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3353,7 +3356,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -4117,7 +4120,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4204,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT17">
         <v>0.9</v>
@@ -4499,7 +4502,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4690,7 +4693,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4971,7 +4974,7 @@
         <v>2.3</v>
       </c>
       <c r="AT21">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU21">
         <v>1.41</v>
@@ -5072,7 +5075,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5645,7 +5648,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6027,7 +6030,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6409,7 +6412,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6600,7 +6603,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6791,7 +6794,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6982,7 +6985,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7173,7 +7176,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7263,7 +7266,7 @@
         <v>1.7</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU33">
         <v>1.65</v>
@@ -7364,7 +7367,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7451,7 +7454,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT34">
         <v>1.7</v>
@@ -7937,7 +7940,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8128,7 +8131,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8600,7 +8603,7 @@
         <v>0.6</v>
       </c>
       <c r="AT40">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU40">
         <v>1.18</v>
@@ -8892,7 +8895,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9083,7 +9086,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9274,7 +9277,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9465,7 +9468,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9743,7 +9746,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT46">
         <v>1.6</v>
@@ -10319,7 +10322,7 @@
         <v>1.56</v>
       </c>
       <c r="AT49">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -11274,7 +11277,7 @@
         <v>1.91</v>
       </c>
       <c r="AT54">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU54">
         <v>1.65</v>
@@ -11462,7 +11465,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT55">
         <v>1.3</v>
@@ -14330,7 +14333,7 @@
         <v>0.89</v>
       </c>
       <c r="AT70">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU70">
         <v>1.54</v>
@@ -15091,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT74">
         <v>1.1</v>
@@ -15858,7 +15861,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU78">
         <v>1.13</v>
@@ -17192,7 +17195,7 @@
         <v>0.83</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -19588,7 +19591,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19678,7 +19681,7 @@
         <v>1.7</v>
       </c>
       <c r="AT98">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU98">
         <v>1.37</v>
@@ -20161,7 +20164,7 @@
         <v>91</v>
       </c>
       <c r="P101" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -21015,7 +21018,7 @@
         <v>1</v>
       </c>
       <c r="AT105">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU105">
         <v>1.27</v>
@@ -21394,7 +21397,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT107">
         <v>1.1</v>
@@ -23741,6 +23744,197 @@
       </c>
       <c r="BK119">
         <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5239172</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45159.5</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" t="s">
+        <v>71</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>152</v>
+      </c>
+      <c r="P120" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q120">
+        <v>7</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>3.3</v>
+      </c>
+      <c r="U120">
+        <v>2.25</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>3</v>
+      </c>
+      <c r="Y120">
+        <v>2.5</v>
+      </c>
+      <c r="Z120">
+        <v>1.48</v>
+      </c>
+      <c r="AA120">
+        <v>6</v>
+      </c>
+      <c r="AB120">
+        <v>1.11</v>
+      </c>
+      <c r="AC120">
+        <v>2.76</v>
+      </c>
+      <c r="AD120">
+        <v>3.4</v>
+      </c>
+      <c r="AE120">
+        <v>2.12</v>
+      </c>
+      <c r="AF120">
+        <v>1.03</v>
+      </c>
+      <c r="AG120">
+        <v>13</v>
+      </c>
+      <c r="AH120">
+        <v>1.25</v>
+      </c>
+      <c r="AI120">
+        <v>4</v>
+      </c>
+      <c r="AJ120">
+        <v>1.65</v>
+      </c>
+      <c r="AK120">
+        <v>2.1</v>
+      </c>
+      <c r="AL120">
+        <v>1.59</v>
+      </c>
+      <c r="AM120">
+        <v>2.32</v>
+      </c>
+      <c r="AN120">
+        <v>1.57</v>
+      </c>
+      <c r="AO120">
+        <v>1.33</v>
+      </c>
+      <c r="AP120">
+        <v>1.5</v>
+      </c>
+      <c r="AQ120">
+        <v>1.33</v>
+      </c>
+      <c r="AR120">
+        <v>0.6</v>
+      </c>
+      <c r="AS120">
+        <v>1.2</v>
+      </c>
+      <c r="AT120">
+        <v>0.82</v>
+      </c>
+      <c r="AU120">
+        <v>1.4</v>
+      </c>
+      <c r="AV120">
+        <v>1.18</v>
+      </c>
+      <c r="AW120">
+        <v>2.58</v>
+      </c>
+      <c r="AX120">
+        <v>1.79</v>
+      </c>
+      <c r="AY120">
+        <v>7.5</v>
+      </c>
+      <c r="AZ120">
+        <v>2.43</v>
+      </c>
+      <c r="BA120">
+        <v>1.11</v>
+      </c>
+      <c r="BB120">
+        <v>1.29</v>
+      </c>
+      <c r="BC120">
+        <v>1.5</v>
+      </c>
+      <c r="BD120">
+        <v>1.87</v>
+      </c>
+      <c r="BE120">
+        <v>2.43</v>
+      </c>
+      <c r="BF120">
+        <v>3</v>
+      </c>
+      <c r="BG120">
+        <v>5</v>
+      </c>
+      <c r="BH120">
+        <v>6</v>
+      </c>
+      <c r="BI120">
+        <v>2</v>
+      </c>
+      <c r="BJ120">
+        <v>9</v>
+      </c>
+      <c r="BK120">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,21 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['33', '51']</t>
+  </si>
+  <si>
+    <t>['40', '73']</t>
+  </si>
+  <si>
+    <t>['50', '53', '90+3']</t>
+  </si>
+  <si>
+    <t>['14', '37']</t>
+  </si>
+  <si>
+    <t>['61', '72']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -650,6 +665,21 @@
   </si>
   <si>
     <t>['19', '86']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['43', '48']</t>
+  </si>
+  <si>
+    <t>['45+4', '48']</t>
+  </si>
+  <si>
+    <t>['27', '68', '78']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1285,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1533,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0.82</v>
@@ -1637,7 +1667,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1727,7 +1757,7 @@
         <v>0.6</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1915,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT5">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2019,7 +2049,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2491,7 +2521,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU8">
         <v>1.45</v>
@@ -2592,7 +2622,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2679,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT9">
         <v>1.7</v>
@@ -2783,7 +2813,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3061,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT11">
         <v>1.6</v>
@@ -3252,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT12">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU12">
         <v>0.87</v>
@@ -3356,7 +3386,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3446,7 +3476,7 @@
         <v>0.6</v>
       </c>
       <c r="AT13">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0.97</v>
@@ -4016,10 +4046,10 @@
         <v>2</v>
       </c>
       <c r="AS16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>1.33</v>
@@ -4120,7 +4150,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4210,7 +4240,7 @@
         <v>1.2</v>
       </c>
       <c r="AT17">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU17">
         <v>1.15</v>
@@ -4401,7 +4431,7 @@
         <v>1.91</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU18">
         <v>1.67</v>
@@ -4502,7 +4532,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4693,7 +4723,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4780,7 +4810,7 @@
         <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT20">
         <v>1.2</v>
@@ -5075,7 +5105,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5162,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT22">
         <v>1.6</v>
@@ -5353,7 +5383,7 @@
         <v>1.33</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT23">
         <v>1.2</v>
@@ -5547,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU24">
         <v>1.11</v>
@@ -5648,7 +5678,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5738,7 +5768,7 @@
         <v>0.6</v>
       </c>
       <c r="AT25">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU25">
         <v>1.35</v>
@@ -5926,10 +5956,10 @@
         <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT26">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>0.99</v>
@@ -6030,7 +6060,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6117,10 +6147,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT27">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU27">
         <v>1.05</v>
@@ -6308,7 +6338,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>1.1</v>
@@ -6412,7 +6442,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6499,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT29">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU29">
         <v>0.92</v>
@@ -6603,7 +6633,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6794,7 +6824,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6884,7 +6914,7 @@
         <v>1.91</v>
       </c>
       <c r="AT31">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU31">
         <v>1.67</v>
@@ -6985,7 +7015,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7072,10 +7102,10 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT32">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU32">
         <v>0.5600000000000001</v>
@@ -7176,7 +7206,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7263,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT33">
         <v>0.82</v>
@@ -7367,7 +7397,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7457,7 +7487,7 @@
         <v>1.2</v>
       </c>
       <c r="AT34">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7648,7 +7678,7 @@
         <v>0.89</v>
       </c>
       <c r="AT35">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7836,10 +7866,10 @@
         <v>2.33</v>
       </c>
       <c r="AS36">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT36">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -7940,7 +7970,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8131,7 +8161,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8218,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT38">
         <v>1.3</v>
@@ -8409,10 +8439,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU39">
         <v>1.71</v>
@@ -8794,7 +8824,7 @@
         <v>1.91</v>
       </c>
       <c r="AT41">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -8895,7 +8925,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8985,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="AT42">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -9086,7 +9116,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9173,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT43">
         <v>1.3</v>
@@ -9277,7 +9307,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9364,7 +9394,7 @@
         <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT44">
         <v>1.2</v>
@@ -9555,10 +9585,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT45">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9659,7 +9689,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9850,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9937,10 +9967,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU47">
         <v>1.12</v>
@@ -10128,10 +10158,10 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10319,7 +10349,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT49">
         <v>0.82</v>
@@ -10423,7 +10453,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10614,7 +10644,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10701,10 +10731,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT51">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -10895,7 +10925,7 @@
         <v>0.6</v>
       </c>
       <c r="AT52">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU52">
         <v>1.31</v>
@@ -11083,7 +11113,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT53">
         <v>1.2</v>
@@ -11760,7 +11790,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11847,10 +11877,10 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT57">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11951,7 +11981,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12041,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.25</v>
@@ -12229,10 +12259,10 @@
         <v>0.25</v>
       </c>
       <c r="AS59">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT59">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU59">
         <v>1.4</v>
@@ -12333,7 +12363,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12420,10 +12450,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT60">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU60">
         <v>1.9</v>
@@ -12802,10 +12832,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU62">
         <v>1.23</v>
@@ -12906,7 +12936,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12996,7 +13026,7 @@
         <v>0.89</v>
       </c>
       <c r="AT63">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU63">
         <v>1.7</v>
@@ -13184,7 +13214,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>1.3</v>
@@ -13288,7 +13318,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13479,7 +13509,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13566,7 +13596,7 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
         <v>1.1</v>
@@ -13670,7 +13700,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13757,10 +13787,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT67">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU67">
         <v>1.17</v>
@@ -13861,7 +13891,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14142,7 +14172,7 @@
         <v>2.3</v>
       </c>
       <c r="AT69">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU69">
         <v>1.49</v>
@@ -14521,10 +14551,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU71">
         <v>1.76</v>
@@ -14715,7 +14745,7 @@
         <v>1.91</v>
       </c>
       <c r="AT72">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU72">
         <v>1.58</v>
@@ -14816,7 +14846,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14903,7 +14933,7 @@
         <v>1.83</v>
       </c>
       <c r="AS73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT73">
         <v>1.7</v>
@@ -15097,7 +15127,7 @@
         <v>1.2</v>
       </c>
       <c r="AT74">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>1.27</v>
@@ -15198,7 +15228,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15285,10 +15315,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT75">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU75">
         <v>1.26</v>
@@ -15476,7 +15506,7 @@
         <v>0.2</v>
       </c>
       <c r="AS76">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT76">
         <v>1.3</v>
@@ -15667,10 +15697,10 @@
         <v>1.43</v>
       </c>
       <c r="AS77">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT77">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -15858,7 +15888,7 @@
         <v>0.43</v>
       </c>
       <c r="AS78">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
         <v>0.82</v>
@@ -15962,7 +15992,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16240,7 +16270,7 @@
         <v>0.8</v>
       </c>
       <c r="AS80">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT80">
         <v>1.1</v>
@@ -16434,7 +16464,7 @@
         <v>0.6</v>
       </c>
       <c r="AT81">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU81">
         <v>1.18</v>
@@ -16535,7 +16565,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16625,7 +16655,7 @@
         <v>0.89</v>
       </c>
       <c r="AT82">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU82">
         <v>1.42</v>
@@ -16726,7 +16756,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -16816,7 +16846,7 @@
         <v>2.3</v>
       </c>
       <c r="AT83">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>1.51</v>
@@ -17198,7 +17228,7 @@
         <v>1.2</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17386,7 +17416,7 @@
         <v>1.29</v>
       </c>
       <c r="AS86">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT86">
         <v>1.2</v>
@@ -17490,7 +17520,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17577,7 +17607,7 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT87">
         <v>1.1</v>
@@ -17681,7 +17711,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17872,7 +17902,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -17959,7 +17989,7 @@
         <v>0.57</v>
       </c>
       <c r="AS89">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT89">
         <v>1.3</v>
@@ -18153,7 +18183,7 @@
         <v>1</v>
       </c>
       <c r="AT90">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU90">
         <v>1.22</v>
@@ -18341,7 +18371,7 @@
         <v>2.13</v>
       </c>
       <c r="AS91">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT91">
         <v>1.7</v>
@@ -18723,10 +18753,10 @@
         <v>2.29</v>
       </c>
       <c r="AS93">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT93">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU93">
         <v>1.73</v>
@@ -18827,7 +18857,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18914,7 +18944,7 @@
         <v>1.86</v>
       </c>
       <c r="AS94">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT94">
         <v>1.6</v>
@@ -19018,7 +19048,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19105,10 +19135,10 @@
         <v>0.71</v>
       </c>
       <c r="AS95">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT95">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU95">
         <v>1.15</v>
@@ -19299,7 +19329,7 @@
         <v>2.3</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU96">
         <v>1.52</v>
@@ -19400,7 +19430,7 @@
         <v>80</v>
       </c>
       <c r="P97" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19490,7 +19520,7 @@
         <v>0.89</v>
       </c>
       <c r="AT97">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU97">
         <v>1.3</v>
@@ -19591,7 +19621,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19678,7 +19708,7 @@
         <v>0.38</v>
       </c>
       <c r="AS98">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT98">
         <v>0.82</v>
@@ -19782,7 +19812,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19973,7 +20003,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20060,10 +20090,10 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT100">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU100">
         <v>1.55</v>
@@ -20164,7 +20194,7 @@
         <v>91</v>
       </c>
       <c r="P101" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20251,10 +20281,10 @@
         <v>1.13</v>
       </c>
       <c r="AS101">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT101">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>1.4</v>
@@ -20355,7 +20385,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20442,7 +20472,7 @@
         <v>1.89</v>
       </c>
       <c r="AS102">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT102">
         <v>1.7</v>
@@ -20636,7 +20666,7 @@
         <v>1.91</v>
       </c>
       <c r="AT103">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU103">
         <v>1.53</v>
@@ -20737,7 +20767,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20928,7 +20958,7 @@
         <v>113</v>
       </c>
       <c r="P105" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21119,7 +21149,7 @@
         <v>145</v>
       </c>
       <c r="P106" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21209,7 +21239,7 @@
         <v>2.3</v>
       </c>
       <c r="AT106">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU106">
         <v>1.46</v>
@@ -21310,7 +21340,7 @@
         <v>106</v>
       </c>
       <c r="P107" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21692,7 +21722,7 @@
         <v>147</v>
       </c>
       <c r="P109" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21779,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT109">
         <v>1.6</v>
@@ -21883,7 +21913,7 @@
         <v>129</v>
       </c>
       <c r="P110" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -21970,10 +22000,10 @@
         <v>0.89</v>
       </c>
       <c r="AS110">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT110">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU110">
         <v>1.43</v>
@@ -22074,7 +22104,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -22161,10 +22191,10 @@
         <v>1.11</v>
       </c>
       <c r="AS111">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT111">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.17</v>
@@ -22265,7 +22295,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22355,7 +22385,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU112">
         <v>1.29</v>
@@ -22543,7 +22573,7 @@
         <v>1.22</v>
       </c>
       <c r="AS113">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT113">
         <v>1.1</v>
@@ -22647,7 +22677,7 @@
         <v>149</v>
       </c>
       <c r="P114" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22734,10 +22764,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS114">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT114">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU114">
         <v>1.54</v>
@@ -22838,7 +22868,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23220,7 +23250,7 @@
         <v>80</v>
       </c>
       <c r="P117" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -23307,10 +23337,10 @@
         <v>0.75</v>
       </c>
       <c r="AS117">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU117">
         <v>1.17</v>
@@ -23411,7 +23441,7 @@
         <v>150</v>
       </c>
       <c r="P118" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23498,10 +23528,10 @@
         <v>1.56</v>
       </c>
       <c r="AS118">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT118">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU118">
         <v>1.64</v>
@@ -23793,7 +23823,7 @@
         <v>152</v>
       </c>
       <c r="P120" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -23935,6 +23965,1152 @@
       </c>
       <c r="BK120">
         <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5239173</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45163.5</v>
+      </c>
+      <c r="F121">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" t="s">
+        <v>69</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>153</v>
+      </c>
+      <c r="P121" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>7</v>
+      </c>
+      <c r="S121">
+        <v>11</v>
+      </c>
+      <c r="T121">
+        <v>2.15</v>
+      </c>
+      <c r="U121">
+        <v>2.32</v>
+      </c>
+      <c r="V121">
+        <v>4.9</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>3.16</v>
+      </c>
+      <c r="Y121">
+        <v>2.55</v>
+      </c>
+      <c r="Z121">
+        <v>1.45</v>
+      </c>
+      <c r="AA121">
+        <v>6</v>
+      </c>
+      <c r="AB121">
+        <v>1.11</v>
+      </c>
+      <c r="AC121">
+        <v>1.66</v>
+      </c>
+      <c r="AD121">
+        <v>3.7</v>
+      </c>
+      <c r="AE121">
+        <v>4.85</v>
+      </c>
+      <c r="AF121">
+        <v>1.04</v>
+      </c>
+      <c r="AG121">
+        <v>13.75</v>
+      </c>
+      <c r="AH121">
+        <v>1.25</v>
+      </c>
+      <c r="AI121">
+        <v>4.02</v>
+      </c>
+      <c r="AJ121">
+        <v>1.73</v>
+      </c>
+      <c r="AK121">
+        <v>1.97</v>
+      </c>
+      <c r="AL121">
+        <v>1.73</v>
+      </c>
+      <c r="AM121">
+        <v>2.03</v>
+      </c>
+      <c r="AN121">
+        <v>1.19</v>
+      </c>
+      <c r="AO121">
+        <v>1.27</v>
+      </c>
+      <c r="AP121">
+        <v>2.15</v>
+      </c>
+      <c r="AQ121">
+        <v>1.7</v>
+      </c>
+      <c r="AR121">
+        <v>0.8</v>
+      </c>
+      <c r="AS121">
+        <v>1.82</v>
+      </c>
+      <c r="AT121">
+        <v>0.73</v>
+      </c>
+      <c r="AU121">
+        <v>1.44</v>
+      </c>
+      <c r="AV121">
+        <v>1.27</v>
+      </c>
+      <c r="AW121">
+        <v>2.71</v>
+      </c>
+      <c r="AX121">
+        <v>1.64</v>
+      </c>
+      <c r="AY121">
+        <v>8.5</v>
+      </c>
+      <c r="AZ121">
+        <v>2.66</v>
+      </c>
+      <c r="BA121">
+        <v>1.18</v>
+      </c>
+      <c r="BB121">
+        <v>1.34</v>
+      </c>
+      <c r="BC121">
+        <v>1.5</v>
+      </c>
+      <c r="BD121">
+        <v>2</v>
+      </c>
+      <c r="BE121">
+        <v>2.2</v>
+      </c>
+      <c r="BF121">
+        <v>7</v>
+      </c>
+      <c r="BG121">
+        <v>4</v>
+      </c>
+      <c r="BH121">
+        <v>4</v>
+      </c>
+      <c r="BI121">
+        <v>4</v>
+      </c>
+      <c r="BJ121">
+        <v>11</v>
+      </c>
+      <c r="BK121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5239174</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45164.375</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>76</v>
+      </c>
+      <c r="H122" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>154</v>
+      </c>
+      <c r="P122" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+      <c r="S122">
+        <v>7</v>
+      </c>
+      <c r="T122">
+        <v>2.15</v>
+      </c>
+      <c r="U122">
+        <v>2.3</v>
+      </c>
+      <c r="V122">
+        <v>5</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122">
+        <v>2.5</v>
+      </c>
+      <c r="Z122">
+        <v>1.48</v>
+      </c>
+      <c r="AA122">
+        <v>5.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.11</v>
+      </c>
+      <c r="AC122">
+        <v>1.67</v>
+      </c>
+      <c r="AD122">
+        <v>3.75</v>
+      </c>
+      <c r="AE122">
+        <v>4.2</v>
+      </c>
+      <c r="AF122">
+        <v>1.01</v>
+      </c>
+      <c r="AG122">
+        <v>10</v>
+      </c>
+      <c r="AH122">
+        <v>1.25</v>
+      </c>
+      <c r="AI122">
+        <v>3.6</v>
+      </c>
+      <c r="AJ122">
+        <v>1.78</v>
+      </c>
+      <c r="AK122">
+        <v>1.98</v>
+      </c>
+      <c r="AL122">
+        <v>1.78</v>
+      </c>
+      <c r="AM122">
+        <v>1.99</v>
+      </c>
+      <c r="AN122">
+        <v>1.18</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>2.2</v>
+      </c>
+      <c r="AQ122">
+        <v>1.56</v>
+      </c>
+      <c r="AR122">
+        <v>1.1</v>
+      </c>
+      <c r="AS122">
+        <v>1.7</v>
+      </c>
+      <c r="AT122">
+        <v>1</v>
+      </c>
+      <c r="AU122">
+        <v>1.66</v>
+      </c>
+      <c r="AV122">
+        <v>0.98</v>
+      </c>
+      <c r="AW122">
+        <v>2.64</v>
+      </c>
+      <c r="AX122">
+        <v>1.55</v>
+      </c>
+      <c r="AY122">
+        <v>8.5</v>
+      </c>
+      <c r="AZ122">
+        <v>3.01</v>
+      </c>
+      <c r="BA122">
+        <v>1.2</v>
+      </c>
+      <c r="BB122">
+        <v>1.38</v>
+      </c>
+      <c r="BC122">
+        <v>1.67</v>
+      </c>
+      <c r="BD122">
+        <v>2.12</v>
+      </c>
+      <c r="BE122">
+        <v>2.85</v>
+      </c>
+      <c r="BF122">
+        <v>7</v>
+      </c>
+      <c r="BG122">
+        <v>3</v>
+      </c>
+      <c r="BH122">
+        <v>4</v>
+      </c>
+      <c r="BI122">
+        <v>4</v>
+      </c>
+      <c r="BJ122">
+        <v>11</v>
+      </c>
+      <c r="BK122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5239175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45164.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>66</v>
+      </c>
+      <c r="H123" t="s">
+        <v>67</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123" t="s">
+        <v>155</v>
+      </c>
+      <c r="P123" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>4</v>
+      </c>
+      <c r="S123">
+        <v>7</v>
+      </c>
+      <c r="T123">
+        <v>2.05</v>
+      </c>
+      <c r="U123">
+        <v>2.31</v>
+      </c>
+      <c r="V123">
+        <v>6.06</v>
+      </c>
+      <c r="W123">
+        <v>1.36</v>
+      </c>
+      <c r="X123">
+        <v>3</v>
+      </c>
+      <c r="Y123">
+        <v>2.68</v>
+      </c>
+      <c r="Z123">
+        <v>1.44</v>
+      </c>
+      <c r="AA123">
+        <v>6.55</v>
+      </c>
+      <c r="AB123">
+        <v>1.09</v>
+      </c>
+      <c r="AC123">
+        <v>1.52</v>
+      </c>
+      <c r="AD123">
+        <v>3.9</v>
+      </c>
+      <c r="AE123">
+        <v>5.4</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>12.75</v>
+      </c>
+      <c r="AH123">
+        <v>1.28</v>
+      </c>
+      <c r="AI123">
+        <v>3.7</v>
+      </c>
+      <c r="AJ123">
+        <v>1.88</v>
+      </c>
+      <c r="AK123">
+        <v>2</v>
+      </c>
+      <c r="AL123">
+        <v>1.92</v>
+      </c>
+      <c r="AM123">
+        <v>1.84</v>
+      </c>
+      <c r="AN123">
+        <v>1.12</v>
+      </c>
+      <c r="AO123">
+        <v>1.22</v>
+      </c>
+      <c r="AP123">
+        <v>2.54</v>
+      </c>
+      <c r="AQ123">
+        <v>1.9</v>
+      </c>
+      <c r="AR123">
+        <v>0.9</v>
+      </c>
+      <c r="AS123">
+        <v>2</v>
+      </c>
+      <c r="AT123">
+        <v>0.82</v>
+      </c>
+      <c r="AU123">
+        <v>1.57</v>
+      </c>
+      <c r="AV123">
+        <v>1.05</v>
+      </c>
+      <c r="AW123">
+        <v>2.62</v>
+      </c>
+      <c r="AX123">
+        <v>1.95</v>
+      </c>
+      <c r="AY123">
+        <v>8</v>
+      </c>
+      <c r="AZ123">
+        <v>2.05</v>
+      </c>
+      <c r="BA123">
+        <v>1.2</v>
+      </c>
+      <c r="BB123">
+        <v>1.38</v>
+      </c>
+      <c r="BC123">
+        <v>1.67</v>
+      </c>
+      <c r="BD123">
+        <v>2.12</v>
+      </c>
+      <c r="BE123">
+        <v>2.85</v>
+      </c>
+      <c r="BF123">
+        <v>6</v>
+      </c>
+      <c r="BG123">
+        <v>5</v>
+      </c>
+      <c r="BH123">
+        <v>2</v>
+      </c>
+      <c r="BI123">
+        <v>4</v>
+      </c>
+      <c r="BJ123">
+        <v>8</v>
+      </c>
+      <c r="BK123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5239178</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" t="s">
+        <v>65</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>156</v>
+      </c>
+      <c r="P124" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="R124">
+        <v>9</v>
+      </c>
+      <c r="S124">
+        <v>12</v>
+      </c>
+      <c r="T124">
+        <v>4.33</v>
+      </c>
+      <c r="U124">
+        <v>2.1</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>2.63</v>
+      </c>
+      <c r="Y124">
+        <v>3</v>
+      </c>
+      <c r="Z124">
+        <v>1.36</v>
+      </c>
+      <c r="AA124">
+        <v>9</v>
+      </c>
+      <c r="AB124">
+        <v>1.07</v>
+      </c>
+      <c r="AC124">
+        <v>3.7</v>
+      </c>
+      <c r="AD124">
+        <v>3.1</v>
+      </c>
+      <c r="AE124">
+        <v>1.87</v>
+      </c>
+      <c r="AF124">
+        <v>1.05</v>
+      </c>
+      <c r="AG124">
+        <v>7.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.32</v>
+      </c>
+      <c r="AI124">
+        <v>3.1</v>
+      </c>
+      <c r="AJ124">
+        <v>2.05</v>
+      </c>
+      <c r="AK124">
+        <v>1.7</v>
+      </c>
+      <c r="AL124">
+        <v>1.91</v>
+      </c>
+      <c r="AM124">
+        <v>1.91</v>
+      </c>
+      <c r="AN124">
+        <v>1.85</v>
+      </c>
+      <c r="AO124">
+        <v>1.28</v>
+      </c>
+      <c r="AP124">
+        <v>1.18</v>
+      </c>
+      <c r="AQ124">
+        <v>1.22</v>
+      </c>
+      <c r="AR124">
+        <v>2.22</v>
+      </c>
+      <c r="AS124">
+        <v>1.2</v>
+      </c>
+      <c r="AT124">
+        <v>2.1</v>
+      </c>
+      <c r="AU124">
+        <v>1.49</v>
+      </c>
+      <c r="AV124">
+        <v>1.53</v>
+      </c>
+      <c r="AW124">
+        <v>3.02</v>
+      </c>
+      <c r="AX124">
+        <v>2.2</v>
+      </c>
+      <c r="AY124">
+        <v>8</v>
+      </c>
+      <c r="AZ124">
+        <v>1.91</v>
+      </c>
+      <c r="BA124">
+        <v>1.23</v>
+      </c>
+      <c r="BB124">
+        <v>1.42</v>
+      </c>
+      <c r="BC124">
+        <v>1.74</v>
+      </c>
+      <c r="BD124">
+        <v>2.23</v>
+      </c>
+      <c r="BE124">
+        <v>3.05</v>
+      </c>
+      <c r="BF124">
+        <v>3</v>
+      </c>
+      <c r="BG124">
+        <v>4</v>
+      </c>
+      <c r="BH124">
+        <v>2</v>
+      </c>
+      <c r="BI124">
+        <v>4</v>
+      </c>
+      <c r="BJ124">
+        <v>5</v>
+      </c>
+      <c r="BK124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5239177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>157</v>
+      </c>
+      <c r="P125" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>2.6</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
+        <v>5</v>
+      </c>
+      <c r="W125">
+        <v>1.5</v>
+      </c>
+      <c r="X125">
+        <v>2.5</v>
+      </c>
+      <c r="Y125">
+        <v>3.4</v>
+      </c>
+      <c r="Z125">
+        <v>1.3</v>
+      </c>
+      <c r="AA125">
+        <v>10</v>
+      </c>
+      <c r="AB125">
+        <v>1.06</v>
+      </c>
+      <c r="AC125">
+        <v>1.85</v>
+      </c>
+      <c r="AD125">
+        <v>3.1</v>
+      </c>
+      <c r="AE125">
+        <v>4</v>
+      </c>
+      <c r="AF125">
+        <v>1.07</v>
+      </c>
+      <c r="AG125">
+        <v>6.8</v>
+      </c>
+      <c r="AH125">
+        <v>1.35</v>
+      </c>
+      <c r="AI125">
+        <v>2.9</v>
+      </c>
+      <c r="AJ125">
+        <v>2.3</v>
+      </c>
+      <c r="AK125">
+        <v>1.55</v>
+      </c>
+      <c r="AL125">
+        <v>2.05</v>
+      </c>
+      <c r="AM125">
+        <v>1.7</v>
+      </c>
+      <c r="AN125">
+        <v>1.13</v>
+      </c>
+      <c r="AO125">
+        <v>1.3</v>
+      </c>
+      <c r="AP125">
+        <v>1.95</v>
+      </c>
+      <c r="AQ125">
+        <v>1.7</v>
+      </c>
+      <c r="AR125">
+        <v>1</v>
+      </c>
+      <c r="AS125">
+        <v>1.82</v>
+      </c>
+      <c r="AT125">
+        <v>0.9</v>
+      </c>
+      <c r="AU125">
+        <v>1.52</v>
+      </c>
+      <c r="AV125">
+        <v>1.28</v>
+      </c>
+      <c r="AW125">
+        <v>2.8</v>
+      </c>
+      <c r="AX125">
+        <v>1.55</v>
+      </c>
+      <c r="AY125">
+        <v>7</v>
+      </c>
+      <c r="AZ125">
+        <v>3.2</v>
+      </c>
+      <c r="BA125">
+        <v>1.18</v>
+      </c>
+      <c r="BB125">
+        <v>1.34</v>
+      </c>
+      <c r="BC125">
+        <v>1.61</v>
+      </c>
+      <c r="BD125">
+        <v>2.02</v>
+      </c>
+      <c r="BE125">
+        <v>2.65</v>
+      </c>
+      <c r="BF125">
+        <v>8</v>
+      </c>
+      <c r="BG125">
+        <v>4</v>
+      </c>
+      <c r="BH125">
+        <v>7</v>
+      </c>
+      <c r="BI125">
+        <v>2</v>
+      </c>
+      <c r="BJ125">
+        <v>15</v>
+      </c>
+      <c r="BK125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5239176</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>70</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>87</v>
+      </c>
+      <c r="P126" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>6</v>
+      </c>
+      <c r="T126">
+        <v>4.3</v>
+      </c>
+      <c r="U126">
+        <v>2.05</v>
+      </c>
+      <c r="V126">
+        <v>2.55</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>2.75</v>
+      </c>
+      <c r="Y126">
+        <v>2.75</v>
+      </c>
+      <c r="Z126">
+        <v>1.4</v>
+      </c>
+      <c r="AA126">
+        <v>7.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.07</v>
+      </c>
+      <c r="AC126">
+        <v>3.52</v>
+      </c>
+      <c r="AD126">
+        <v>3.3</v>
+      </c>
+      <c r="AE126">
+        <v>2.14</v>
+      </c>
+      <c r="AF126">
+        <v>1.06</v>
+      </c>
+      <c r="AG126">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH126">
+        <v>1.34</v>
+      </c>
+      <c r="AI126">
+        <v>3</v>
+      </c>
+      <c r="AJ126">
+        <v>1.96</v>
+      </c>
+      <c r="AK126">
+        <v>1.77</v>
+      </c>
+      <c r="AL126">
+        <v>1.95</v>
+      </c>
+      <c r="AM126">
+        <v>1.85</v>
+      </c>
+      <c r="AN126">
+        <v>1.8</v>
+      </c>
+      <c r="AO126">
+        <v>1.32</v>
+      </c>
+      <c r="AP126">
+        <v>1.27</v>
+      </c>
+      <c r="AQ126">
+        <v>1.4</v>
+      </c>
+      <c r="AR126">
+        <v>1.7</v>
+      </c>
+      <c r="AS126">
+        <v>1.27</v>
+      </c>
+      <c r="AT126">
+        <v>1.82</v>
+      </c>
+      <c r="AU126">
+        <v>1.13</v>
+      </c>
+      <c r="AV126">
+        <v>1.53</v>
+      </c>
+      <c r="AW126">
+        <v>2.66</v>
+      </c>
+      <c r="AX126">
+        <v>2.7</v>
+      </c>
+      <c r="AY126">
+        <v>7</v>
+      </c>
+      <c r="AZ126">
+        <v>1.7</v>
+      </c>
+      <c r="BA126">
+        <v>1.25</v>
+      </c>
+      <c r="BB126">
+        <v>1.57</v>
+      </c>
+      <c r="BC126">
+        <v>1.92</v>
+      </c>
+      <c r="BD126">
+        <v>2.41</v>
+      </c>
+      <c r="BE126">
+        <v>3.05</v>
+      </c>
+      <c r="BF126">
+        <v>6</v>
+      </c>
+      <c r="BG126">
+        <v>3</v>
+      </c>
+      <c r="BH126">
+        <v>2</v>
+      </c>
+      <c r="BI126">
+        <v>3</v>
+      </c>
+      <c r="BJ126">
+        <v>8</v>
+      </c>
+      <c r="BK126">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -24972,13 +24972,13 @@
         <v>221</v>
       </c>
       <c r="Q126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R126">
         <v>2</v>
       </c>
       <c r="S126">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T126">
         <v>4.3</v>
@@ -25098,19 +25098,19 @@
         <v>6</v>
       </c>
       <c r="BG126">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI126">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ126">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BK126">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -681,6 +681,9 @@
   <si>
     <t>['27', '68', '78']</t>
   </si>
+  <si>
+    <t>['27', '65']</t>
+  </si>
 </sst>
 </file>
 
@@ -1041,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1378,7 @@
         <v>1.91</v>
       </c>
       <c r="AT2">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2903,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -6341,7 +6344,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU28">
         <v>1.57</v>
@@ -7675,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT35">
         <v>0.73</v>
@@ -8060,7 +8063,7 @@
         <v>2.3</v>
       </c>
       <c r="AT37">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU37">
         <v>1.44</v>
@@ -10540,7 +10543,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT50">
         <v>1.7</v>
@@ -13023,7 +13026,7 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT63">
         <v>1.82</v>
@@ -13599,7 +13602,7 @@
         <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU66">
         <v>1.18</v>
@@ -14360,7 +14363,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT70">
         <v>0.82</v>
@@ -16273,7 +16276,7 @@
         <v>1.82</v>
       </c>
       <c r="AT80">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU80">
         <v>1.2</v>
@@ -16652,7 +16655,7 @@
         <v>2.17</v>
       </c>
       <c r="AS82">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT82">
         <v>2.1</v>
@@ -17610,7 +17613,7 @@
         <v>1.2</v>
       </c>
       <c r="AT87">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -18562,7 +18565,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT92">
         <v>1.6</v>
@@ -19517,7 +19520,7 @@
         <v>0.71</v>
       </c>
       <c r="AS97">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT97">
         <v>0.82</v>
@@ -20857,7 +20860,7 @@
         <v>0.6</v>
       </c>
       <c r="AT104">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU104">
         <v>1.22</v>
@@ -21430,7 +21433,7 @@
         <v>1.2</v>
       </c>
       <c r="AT107">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU107">
         <v>1.44</v>
@@ -21618,7 +21621,7 @@
         <v>1.13</v>
       </c>
       <c r="AS108">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT108">
         <v>1.2</v>
@@ -22576,7 +22579,7 @@
         <v>1.82</v>
       </c>
       <c r="AT113">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU113">
         <v>1.5</v>
@@ -22955,7 +22958,7 @@
         <v>1.11</v>
       </c>
       <c r="AS115">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT115">
         <v>1.3</v>
@@ -25111,6 +25114,197 @@
       </c>
       <c r="BK126">
         <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5239072</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45168.5</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127" t="s">
+        <v>75</v>
+      </c>
+      <c r="H127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>140</v>
+      </c>
+      <c r="P127" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>7</v>
+      </c>
+      <c r="T127">
+        <v>3.5</v>
+      </c>
+      <c r="U127">
+        <v>2.15</v>
+      </c>
+      <c r="V127">
+        <v>2.65</v>
+      </c>
+      <c r="W127">
+        <v>1.35</v>
+      </c>
+      <c r="X127">
+        <v>2.95</v>
+      </c>
+      <c r="Y127">
+        <v>2.6</v>
+      </c>
+      <c r="Z127">
+        <v>1.43</v>
+      </c>
+      <c r="AA127">
+        <v>6.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.1</v>
+      </c>
+      <c r="AC127">
+        <v>3.12</v>
+      </c>
+      <c r="AD127">
+        <v>3.4</v>
+      </c>
+      <c r="AE127">
+        <v>2.01</v>
+      </c>
+      <c r="AF127">
+        <v>1.06</v>
+      </c>
+      <c r="AG127">
+        <v>8</v>
+      </c>
+      <c r="AH127">
+        <v>1.33</v>
+      </c>
+      <c r="AI127">
+        <v>3.25</v>
+      </c>
+      <c r="AJ127">
+        <v>1.88</v>
+      </c>
+      <c r="AK127">
+        <v>1.82</v>
+      </c>
+      <c r="AL127">
+        <v>1.7</v>
+      </c>
+      <c r="AM127">
+        <v>2</v>
+      </c>
+      <c r="AN127">
+        <v>1.68</v>
+      </c>
+      <c r="AO127">
+        <v>1.28</v>
+      </c>
+      <c r="AP127">
+        <v>1.34</v>
+      </c>
+      <c r="AQ127">
+        <v>0.89</v>
+      </c>
+      <c r="AR127">
+        <v>1.1</v>
+      </c>
+      <c r="AS127">
+        <v>0.8</v>
+      </c>
+      <c r="AT127">
+        <v>1.27</v>
+      </c>
+      <c r="AU127">
+        <v>1.33</v>
+      </c>
+      <c r="AV127">
+        <v>1.51</v>
+      </c>
+      <c r="AW127">
+        <v>2.84</v>
+      </c>
+      <c r="AX127">
+        <v>2.45</v>
+      </c>
+      <c r="AY127">
+        <v>9.5</v>
+      </c>
+      <c r="AZ127">
+        <v>1.77</v>
+      </c>
+      <c r="BA127">
+        <v>1.2</v>
+      </c>
+      <c r="BB127">
+        <v>1.38</v>
+      </c>
+      <c r="BC127">
+        <v>1.67</v>
+      </c>
+      <c r="BD127">
+        <v>2.12</v>
+      </c>
+      <c r="BE127">
+        <v>2.85</v>
+      </c>
+      <c r="BF127">
+        <v>3</v>
+      </c>
+      <c r="BG127">
+        <v>5</v>
+      </c>
+      <c r="BH127">
+        <v>2</v>
+      </c>
+      <c r="BI127">
+        <v>5</v>
+      </c>
+      <c r="BJ127">
+        <v>5</v>
+      </c>
+      <c r="BK127">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,18 @@
     <t>['61', '72']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['44', '50']</t>
+  </si>
+  <si>
+    <t>['5', '60']</t>
+  </si>
+  <si>
+    <t>['58', '63', '67']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -683,6 +695,18 @@
   </si>
   <si>
     <t>['27', '65']</t>
+  </si>
+  <si>
+    <t>['55', '71']</t>
+  </si>
+  <si>
+    <t>['14', '58']</t>
+  </si>
+  <si>
+    <t>['7', '30']</t>
+  </si>
+  <si>
+    <t>['14', '84']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1312,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1670,7 +1694,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1757,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT4">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2052,7 +2076,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2139,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT6">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2330,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT7">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2521,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU8">
         <v>1.45</v>
@@ -2625,7 +2649,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2712,10 +2736,10 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT9">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2816,7 +2840,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3097,7 +3121,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3389,7 +3413,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3476,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3670,7 +3694,7 @@
         <v>1.91</v>
       </c>
       <c r="AT14">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU14">
         <v>2.23</v>
@@ -3858,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT15">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU15">
         <v>1.36</v>
@@ -4153,7 +4177,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4240,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT17">
         <v>0.82</v>
@@ -4434,7 +4458,7 @@
         <v>1.91</v>
       </c>
       <c r="AT18">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU18">
         <v>1.67</v>
@@ -4535,7 +4559,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4622,10 +4646,10 @@
         <v>2</v>
       </c>
       <c r="AS19">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT19">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU19">
         <v>1.59</v>
@@ -4726,7 +4750,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4813,10 +4837,10 @@
         <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT20">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU20">
         <v>1.1</v>
@@ -5004,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT21">
         <v>0.82</v>
@@ -5108,7 +5132,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5198,7 +5222,7 @@
         <v>1.27</v>
       </c>
       <c r="AT22">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5389,7 +5413,7 @@
         <v>1.82</v>
       </c>
       <c r="AT23">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5681,7 +5705,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5768,10 +5792,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT25">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>1.35</v>
@@ -6063,7 +6087,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6150,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT27">
         <v>0.73</v>
@@ -6445,7 +6469,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6636,7 +6660,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6726,7 +6750,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU30">
         <v>1.11</v>
@@ -6827,7 +6851,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7018,7 +7042,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7108,7 +7132,7 @@
         <v>1.27</v>
       </c>
       <c r="AT32">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>0.5600000000000001</v>
@@ -7209,7 +7233,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7400,7 +7424,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7487,7 +7511,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT34">
         <v>1.82</v>
@@ -7678,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT35">
         <v>0.73</v>
@@ -7872,7 +7896,7 @@
         <v>1.82</v>
       </c>
       <c r="AT36">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -7973,7 +7997,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8060,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT37">
         <v>1.27</v>
@@ -8164,7 +8188,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8254,7 +8278,7 @@
         <v>1.27</v>
       </c>
       <c r="AT38">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU38">
         <v>0.87</v>
@@ -8445,7 +8469,7 @@
         <v>2</v>
       </c>
       <c r="AT39">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU39">
         <v>1.71</v>
@@ -8633,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT40">
         <v>0.82</v>
@@ -8928,7 +8952,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9119,7 +9143,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9206,10 +9230,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT43">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU43">
         <v>1.23</v>
@@ -9310,7 +9334,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9400,7 +9424,7 @@
         <v>1.27</v>
       </c>
       <c r="AT44">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU44">
         <v>1.19</v>
@@ -9588,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT45">
         <v>0.82</v>
@@ -9692,7 +9716,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9779,10 +9803,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT46">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU46">
         <v>1.19</v>
@@ -9883,7 +9907,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9973,7 +9997,7 @@
         <v>1.82</v>
       </c>
       <c r="AT47">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU47">
         <v>1.12</v>
@@ -10164,7 +10188,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10352,7 +10376,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT49">
         <v>0.82</v>
@@ -10456,7 +10480,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10543,10 +10567,10 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU50">
         <v>1.53</v>
@@ -10647,7 +10671,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10925,7 +10949,7 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT52">
         <v>1.82</v>
@@ -11116,10 +11140,10 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT53">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU53">
         <v>1.94</v>
@@ -11498,10 +11522,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT55">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU55">
         <v>1.17</v>
@@ -11689,10 +11713,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT56">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU56">
         <v>1.53</v>
@@ -11793,7 +11817,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11984,7 +12008,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12366,7 +12390,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12453,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT60">
         <v>0.73</v>
@@ -12647,7 +12671,7 @@
         <v>1.91</v>
       </c>
       <c r="AT61">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU61">
         <v>1.58</v>
@@ -12835,10 +12859,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT62">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU62">
         <v>1.23</v>
@@ -12939,7 +12963,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -13026,7 +13050,7 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT63">
         <v>1.82</v>
@@ -13220,7 +13244,7 @@
         <v>2</v>
       </c>
       <c r="AT64">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13321,7 +13345,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13411,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="AT65">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU65">
         <v>1.27</v>
@@ -13512,7 +13536,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13703,7 +13727,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13793,7 +13817,7 @@
         <v>1.82</v>
       </c>
       <c r="AT67">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU67">
         <v>1.17</v>
@@ -13894,7 +13918,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13981,10 +14005,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT68">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU68">
         <v>1.17</v>
@@ -14172,7 +14196,7 @@
         <v>0.8</v>
       </c>
       <c r="AS69">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT69">
         <v>0.73</v>
@@ -14363,7 +14387,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT70">
         <v>0.82</v>
@@ -14554,10 +14578,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT71">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU71">
         <v>1.76</v>
@@ -14849,7 +14873,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14939,7 +14963,7 @@
         <v>2</v>
       </c>
       <c r="AT73">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU73">
         <v>1.6</v>
@@ -15127,7 +15151,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT74">
         <v>1</v>
@@ -15231,7 +15255,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15318,7 +15342,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT75">
         <v>1.82</v>
@@ -15512,7 +15536,7 @@
         <v>1.82</v>
       </c>
       <c r="AT76">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU76">
         <v>1.53</v>
@@ -15995,7 +16019,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16085,7 +16109,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16464,7 +16488,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT81">
         <v>0.73</v>
@@ -16568,7 +16592,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16655,10 +16679,10 @@
         <v>2.17</v>
       </c>
       <c r="AS82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT82">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU82">
         <v>1.42</v>
@@ -16759,7 +16783,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -16846,7 +16870,7 @@
         <v>0.86</v>
       </c>
       <c r="AS83">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17040,7 +17064,7 @@
         <v>1.91</v>
       </c>
       <c r="AT84">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU84">
         <v>1.61</v>
@@ -17228,10 +17252,10 @@
         <v>0.83</v>
       </c>
       <c r="AS85">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT85">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17422,7 +17446,7 @@
         <v>2</v>
       </c>
       <c r="AT86">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU86">
         <v>1.61</v>
@@ -17523,7 +17547,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17610,7 +17634,7 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
         <v>1.27</v>
@@ -17714,7 +17738,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17801,10 +17825,10 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT88">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU88">
         <v>1.26</v>
@@ -17905,7 +17929,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -17992,10 +18016,10 @@
         <v>0.57</v>
       </c>
       <c r="AS89">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT89">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU89">
         <v>1.77</v>
@@ -18377,7 +18401,7 @@
         <v>1.82</v>
       </c>
       <c r="AT91">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU91">
         <v>1.3</v>
@@ -18565,10 +18589,10 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT92">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU92">
         <v>1.38</v>
@@ -18756,10 +18780,10 @@
         <v>2.29</v>
       </c>
       <c r="AS93">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT93">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU93">
         <v>1.73</v>
@@ -18860,7 +18884,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18947,10 +18971,10 @@
         <v>1.86</v>
       </c>
       <c r="AS94">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT94">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU94">
         <v>1.68</v>
@@ -19051,7 +19075,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19329,10 +19353,10 @@
         <v>0.86</v>
       </c>
       <c r="AS96">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT96">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU96">
         <v>1.52</v>
@@ -19433,7 +19457,7 @@
         <v>80</v>
       </c>
       <c r="P97" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19520,7 +19544,7 @@
         <v>0.71</v>
       </c>
       <c r="AS97">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>0.82</v>
@@ -19624,7 +19648,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19815,7 +19839,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19905,7 +19929,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU99">
         <v>1.23</v>
@@ -20006,7 +20030,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20197,7 +20221,7 @@
         <v>91</v>
       </c>
       <c r="P101" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20284,7 +20308,7 @@
         <v>1.13</v>
       </c>
       <c r="AS101">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT101">
         <v>1</v>
@@ -20388,7 +20412,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20478,7 +20502,7 @@
         <v>1.82</v>
       </c>
       <c r="AT102">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU102">
         <v>1.52</v>
@@ -20770,7 +20794,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20857,7 +20881,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT104">
         <v>1.27</v>
@@ -20961,7 +20985,7 @@
         <v>113</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21152,7 +21176,7 @@
         <v>145</v>
       </c>
       <c r="P106" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21239,7 +21263,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT106">
         <v>0.82</v>
@@ -21343,7 +21367,7 @@
         <v>106</v>
       </c>
       <c r="P107" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21430,7 +21454,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT107">
         <v>1.27</v>
@@ -21621,10 +21645,10 @@
         <v>1.13</v>
       </c>
       <c r="AS108">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT108">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU108">
         <v>1.34</v>
@@ -21725,7 +21749,7 @@
         <v>147</v>
       </c>
       <c r="P109" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21815,7 +21839,7 @@
         <v>1.82</v>
       </c>
       <c r="AT109">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU109">
         <v>1.45</v>
@@ -21916,7 +21940,7 @@
         <v>129</v>
       </c>
       <c r="P110" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q110">
         <v>13</v>
@@ -22003,7 +22027,7 @@
         <v>0.89</v>
       </c>
       <c r="AS110">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT110">
         <v>0.82</v>
@@ -22107,7 +22131,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -22298,7 +22322,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22388,7 +22412,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU112">
         <v>1.29</v>
@@ -22680,7 +22704,7 @@
         <v>149</v>
       </c>
       <c r="P114" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22871,7 +22895,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -22958,10 +22982,10 @@
         <v>1.11</v>
       </c>
       <c r="AS115">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT115">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU115">
         <v>1.33</v>
@@ -23149,10 +23173,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT116">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU116">
         <v>1.25</v>
@@ -23253,7 +23277,7 @@
         <v>80</v>
       </c>
       <c r="P117" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -23343,7 +23367,7 @@
         <v>1.27</v>
       </c>
       <c r="AT117">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU117">
         <v>1.17</v>
@@ -23444,7 +23468,7 @@
         <v>150</v>
       </c>
       <c r="P118" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23531,7 +23555,7 @@
         <v>1.56</v>
       </c>
       <c r="AS118">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT118">
         <v>1.82</v>
@@ -23725,7 +23749,7 @@
         <v>1.91</v>
       </c>
       <c r="AT119">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU119">
         <v>1.57</v>
@@ -23826,7 +23850,7 @@
         <v>152</v>
       </c>
       <c r="P120" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -23913,7 +23937,7 @@
         <v>0.6</v>
       </c>
       <c r="AS120">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT120">
         <v>0.82</v>
@@ -24017,7 +24041,7 @@
         <v>153</v>
       </c>
       <c r="P121" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24208,7 +24232,7 @@
         <v>154</v>
       </c>
       <c r="P122" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24295,7 +24319,7 @@
         <v>1.1</v>
       </c>
       <c r="AS122">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT122">
         <v>1</v>
@@ -24399,7 +24423,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24590,7 +24614,7 @@
         <v>156</v>
       </c>
       <c r="P124" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -24677,10 +24701,10 @@
         <v>2.22</v>
       </c>
       <c r="AS124">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT124">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU124">
         <v>1.49</v>
@@ -24871,7 +24895,7 @@
         <v>1.82</v>
       </c>
       <c r="AT125">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU125">
         <v>1.52</v>
@@ -24972,7 +24996,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25163,7 +25187,7 @@
         <v>140</v>
       </c>
       <c r="P127" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25250,7 +25274,7 @@
         <v>1.1</v>
       </c>
       <c r="AS127">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT127">
         <v>1.27</v>
@@ -25305,6 +25329,1152 @@
       </c>
       <c r="BK127">
         <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5239182</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>69</v>
+      </c>
+      <c r="H128" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>158</v>
+      </c>
+      <c r="P128" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q128">
+        <v>6</v>
+      </c>
+      <c r="R128">
+        <v>3</v>
+      </c>
+      <c r="S128">
+        <v>9</v>
+      </c>
+      <c r="T128">
+        <v>4.5</v>
+      </c>
+      <c r="U128">
+        <v>2.2</v>
+      </c>
+      <c r="V128">
+        <v>2.5</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>2.75</v>
+      </c>
+      <c r="Y128">
+        <v>2.75</v>
+      </c>
+      <c r="Z128">
+        <v>1.4</v>
+      </c>
+      <c r="AA128">
+        <v>8</v>
+      </c>
+      <c r="AB128">
+        <v>1.08</v>
+      </c>
+      <c r="AC128">
+        <v>3.5</v>
+      </c>
+      <c r="AD128">
+        <v>3.4</v>
+      </c>
+      <c r="AE128">
+        <v>1.92</v>
+      </c>
+      <c r="AF128">
+        <v>1.05</v>
+      </c>
+      <c r="AG128">
+        <v>11</v>
+      </c>
+      <c r="AH128">
+        <v>1.3</v>
+      </c>
+      <c r="AI128">
+        <v>3.5</v>
+      </c>
+      <c r="AJ128">
+        <v>1.97</v>
+      </c>
+      <c r="AK128">
+        <v>1.91</v>
+      </c>
+      <c r="AL128">
+        <v>1.8</v>
+      </c>
+      <c r="AM128">
+        <v>1.95</v>
+      </c>
+      <c r="AN128">
+        <v>1.95</v>
+      </c>
+      <c r="AO128">
+        <v>1.22</v>
+      </c>
+      <c r="AP128">
+        <v>1.2</v>
+      </c>
+      <c r="AQ128">
+        <v>1.2</v>
+      </c>
+      <c r="AR128">
+        <v>1.2</v>
+      </c>
+      <c r="AS128">
+        <v>1.09</v>
+      </c>
+      <c r="AT128">
+        <v>1.36</v>
+      </c>
+      <c r="AU128">
+        <v>1.41</v>
+      </c>
+      <c r="AV128">
+        <v>1.29</v>
+      </c>
+      <c r="AW128">
+        <v>2.7</v>
+      </c>
+      <c r="AX128">
+        <v>2.28</v>
+      </c>
+      <c r="AY128">
+        <v>8</v>
+      </c>
+      <c r="AZ128">
+        <v>1.85</v>
+      </c>
+      <c r="BA128">
+        <v>1.18</v>
+      </c>
+      <c r="BB128">
+        <v>1.34</v>
+      </c>
+      <c r="BC128">
+        <v>1.72</v>
+      </c>
+      <c r="BD128">
+        <v>2.13</v>
+      </c>
+      <c r="BE128">
+        <v>2.65</v>
+      </c>
+      <c r="BF128">
+        <v>4</v>
+      </c>
+      <c r="BG128">
+        <v>5</v>
+      </c>
+      <c r="BH128">
+        <v>3</v>
+      </c>
+      <c r="BI128">
+        <v>3</v>
+      </c>
+      <c r="BJ128">
+        <v>7</v>
+      </c>
+      <c r="BK128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5239181</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>70</v>
+      </c>
+      <c r="H129" t="s">
+        <v>65</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>159</v>
+      </c>
+      <c r="P129" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q129">
+        <v>5</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>8</v>
+      </c>
+      <c r="T129">
+        <v>2.88</v>
+      </c>
+      <c r="U129">
+        <v>2.05</v>
+      </c>
+      <c r="V129">
+        <v>4</v>
+      </c>
+      <c r="W129">
+        <v>1.44</v>
+      </c>
+      <c r="X129">
+        <v>2.63</v>
+      </c>
+      <c r="Y129">
+        <v>3.25</v>
+      </c>
+      <c r="Z129">
+        <v>1.33</v>
+      </c>
+      <c r="AA129">
+        <v>9</v>
+      </c>
+      <c r="AB129">
+        <v>1.07</v>
+      </c>
+      <c r="AC129">
+        <v>2.05</v>
+      </c>
+      <c r="AD129">
+        <v>3</v>
+      </c>
+      <c r="AE129">
+        <v>3.3</v>
+      </c>
+      <c r="AF129">
+        <v>1.04</v>
+      </c>
+      <c r="AG129">
+        <v>7.8</v>
+      </c>
+      <c r="AH129">
+        <v>1.33</v>
+      </c>
+      <c r="AI129">
+        <v>3</v>
+      </c>
+      <c r="AJ129">
+        <v>2.1</v>
+      </c>
+      <c r="AK129">
+        <v>1.67</v>
+      </c>
+      <c r="AL129">
+        <v>1.95</v>
+      </c>
+      <c r="AM129">
+        <v>1.8</v>
+      </c>
+      <c r="AN129">
+        <v>1.22</v>
+      </c>
+      <c r="AO129">
+        <v>1.32</v>
+      </c>
+      <c r="AP129">
+        <v>1.7</v>
+      </c>
+      <c r="AQ129">
+        <v>2.3</v>
+      </c>
+      <c r="AR129">
+        <v>2.1</v>
+      </c>
+      <c r="AS129">
+        <v>2.18</v>
+      </c>
+      <c r="AT129">
+        <v>2</v>
+      </c>
+      <c r="AU129">
+        <v>1.45</v>
+      </c>
+      <c r="AV129">
+        <v>1.51</v>
+      </c>
+      <c r="AW129">
+        <v>2.96</v>
+      </c>
+      <c r="AX129">
+        <v>1.75</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>2.42</v>
+      </c>
+      <c r="BA129">
+        <v>1.35</v>
+      </c>
+      <c r="BB129">
+        <v>1.76</v>
+      </c>
+      <c r="BC129">
+        <v>1.98</v>
+      </c>
+      <c r="BD129">
+        <v>2.47</v>
+      </c>
+      <c r="BE129">
+        <v>3.84</v>
+      </c>
+      <c r="BF129">
+        <v>6</v>
+      </c>
+      <c r="BG129">
+        <v>4</v>
+      </c>
+      <c r="BH129">
+        <v>1</v>
+      </c>
+      <c r="BI129">
+        <v>4</v>
+      </c>
+      <c r="BJ129">
+        <v>7</v>
+      </c>
+      <c r="BK129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5239183</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>67</v>
+      </c>
+      <c r="H130" t="s">
+        <v>68</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>150</v>
+      </c>
+      <c r="P130" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q130">
+        <v>8</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>10</v>
+      </c>
+      <c r="T130">
+        <v>4.33</v>
+      </c>
+      <c r="U130">
+        <v>2.2</v>
+      </c>
+      <c r="V130">
+        <v>2.6</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>3</v>
+      </c>
+      <c r="Y130">
+        <v>2.75</v>
+      </c>
+      <c r="Z130">
+        <v>1.4</v>
+      </c>
+      <c r="AA130">
+        <v>7</v>
+      </c>
+      <c r="AB130">
+        <v>1.1</v>
+      </c>
+      <c r="AC130">
+        <v>3.11</v>
+      </c>
+      <c r="AD130">
+        <v>3.35</v>
+      </c>
+      <c r="AE130">
+        <v>1.97</v>
+      </c>
+      <c r="AF130">
+        <v>1.05</v>
+      </c>
+      <c r="AG130">
+        <v>11</v>
+      </c>
+      <c r="AH130">
+        <v>1.28</v>
+      </c>
+      <c r="AI130">
+        <v>3.6</v>
+      </c>
+      <c r="AJ130">
+        <v>1.96</v>
+      </c>
+      <c r="AK130">
+        <v>1.92</v>
+      </c>
+      <c r="AL130">
+        <v>1.75</v>
+      </c>
+      <c r="AM130">
+        <v>2</v>
+      </c>
+      <c r="AN130">
+        <v>1.8</v>
+      </c>
+      <c r="AO130">
+        <v>1.3</v>
+      </c>
+      <c r="AP130">
+        <v>1.27</v>
+      </c>
+      <c r="AQ130">
+        <v>0.6</v>
+      </c>
+      <c r="AR130">
+        <v>1.3</v>
+      </c>
+      <c r="AS130">
+        <v>0.55</v>
+      </c>
+      <c r="AT130">
+        <v>1.45</v>
+      </c>
+      <c r="AU130">
+        <v>1.25</v>
+      </c>
+      <c r="AV130">
+        <v>1.34</v>
+      </c>
+      <c r="AW130">
+        <v>2.59</v>
+      </c>
+      <c r="AX130">
+        <v>2.39</v>
+      </c>
+      <c r="AY130">
+        <v>8</v>
+      </c>
+      <c r="AZ130">
+        <v>1.82</v>
+      </c>
+      <c r="BA130">
+        <v>1.18</v>
+      </c>
+      <c r="BB130">
+        <v>1.34</v>
+      </c>
+      <c r="BC130">
+        <v>1.61</v>
+      </c>
+      <c r="BD130">
+        <v>1.98</v>
+      </c>
+      <c r="BE130">
+        <v>2.46</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>5</v>
+      </c>
+      <c r="BH130">
+        <v>4</v>
+      </c>
+      <c r="BI130">
+        <v>2</v>
+      </c>
+      <c r="BJ130">
+        <v>7</v>
+      </c>
+      <c r="BK130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5239179</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>74</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>160</v>
+      </c>
+      <c r="P131" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q131">
+        <v>7</v>
+      </c>
+      <c r="R131">
+        <v>3</v>
+      </c>
+      <c r="S131">
+        <v>10</v>
+      </c>
+      <c r="T131">
+        <v>2.63</v>
+      </c>
+      <c r="U131">
+        <v>2.3</v>
+      </c>
+      <c r="V131">
+        <v>3.75</v>
+      </c>
+      <c r="W131">
+        <v>1.35</v>
+      </c>
+      <c r="X131">
+        <v>3</v>
+      </c>
+      <c r="Y131">
+        <v>2.55</v>
+      </c>
+      <c r="Z131">
+        <v>1.45</v>
+      </c>
+      <c r="AA131">
+        <v>6.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.1</v>
+      </c>
+      <c r="AC131">
+        <v>2.06</v>
+      </c>
+      <c r="AD131">
+        <v>3.45</v>
+      </c>
+      <c r="AE131">
+        <v>3.1</v>
+      </c>
+      <c r="AF131">
+        <v>1.04</v>
+      </c>
+      <c r="AG131">
+        <v>13.75</v>
+      </c>
+      <c r="AH131">
+        <v>1.25</v>
+      </c>
+      <c r="AI131">
+        <v>4.02</v>
+      </c>
+      <c r="AJ131">
+        <v>1.75</v>
+      </c>
+      <c r="AK131">
+        <v>2</v>
+      </c>
+      <c r="AL131">
+        <v>1.65</v>
+      </c>
+      <c r="AM131">
+        <v>2.2</v>
+      </c>
+      <c r="AN131">
+        <v>1.32</v>
+      </c>
+      <c r="AO131">
+        <v>1.28</v>
+      </c>
+      <c r="AP131">
+        <v>1.76</v>
+      </c>
+      <c r="AQ131">
+        <v>1.7</v>
+      </c>
+      <c r="AR131">
+        <v>1.7</v>
+      </c>
+      <c r="AS131">
+        <v>1.82</v>
+      </c>
+      <c r="AT131">
+        <v>1.55</v>
+      </c>
+      <c r="AU131">
+        <v>1.65</v>
+      </c>
+      <c r="AV131">
+        <v>1.32</v>
+      </c>
+      <c r="AW131">
+        <v>2.97</v>
+      </c>
+      <c r="AX131">
+        <v>1.64</v>
+      </c>
+      <c r="AY131">
+        <v>8.5</v>
+      </c>
+      <c r="AZ131">
+        <v>2.66</v>
+      </c>
+      <c r="BA131">
+        <v>1.23</v>
+      </c>
+      <c r="BB131">
+        <v>1.42</v>
+      </c>
+      <c r="BC131">
+        <v>1.75</v>
+      </c>
+      <c r="BD131">
+        <v>2.16</v>
+      </c>
+      <c r="BE131">
+        <v>3.05</v>
+      </c>
+      <c r="BF131">
+        <v>7</v>
+      </c>
+      <c r="BG131">
+        <v>5</v>
+      </c>
+      <c r="BH131">
+        <v>6</v>
+      </c>
+      <c r="BI131">
+        <v>0</v>
+      </c>
+      <c r="BJ131">
+        <v>13</v>
+      </c>
+      <c r="BK131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5239180</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s">
+        <v>72</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>161</v>
+      </c>
+      <c r="P132" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q132">
+        <v>8</v>
+      </c>
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <v>11</v>
+      </c>
+      <c r="T132">
+        <v>3.67</v>
+      </c>
+      <c r="U132">
+        <v>2.09</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>2.75</v>
+      </c>
+      <c r="Y132">
+        <v>2.8</v>
+      </c>
+      <c r="Z132">
+        <v>1.38</v>
+      </c>
+      <c r="AA132">
+        <v>7.75</v>
+      </c>
+      <c r="AB132">
+        <v>1.08</v>
+      </c>
+      <c r="AC132">
+        <v>2.7</v>
+      </c>
+      <c r="AD132">
+        <v>3.15</v>
+      </c>
+      <c r="AE132">
+        <v>2.41</v>
+      </c>
+      <c r="AF132">
+        <v>1.06</v>
+      </c>
+      <c r="AG132">
+        <v>11.5</v>
+      </c>
+      <c r="AH132">
+        <v>1.31</v>
+      </c>
+      <c r="AI132">
+        <v>3.5</v>
+      </c>
+      <c r="AJ132">
+        <v>2.03</v>
+      </c>
+      <c r="AK132">
+        <v>1.85</v>
+      </c>
+      <c r="AL132">
+        <v>1.79</v>
+      </c>
+      <c r="AM132">
+        <v>1.98</v>
+      </c>
+      <c r="AN132">
+        <v>1.57</v>
+      </c>
+      <c r="AO132">
+        <v>1.32</v>
+      </c>
+      <c r="AP132">
+        <v>1.4</v>
+      </c>
+      <c r="AQ132">
+        <v>0.8</v>
+      </c>
+      <c r="AR132">
+        <v>0.9</v>
+      </c>
+      <c r="AS132">
+        <v>1</v>
+      </c>
+      <c r="AT132">
+        <v>0.82</v>
+      </c>
+      <c r="AU132">
+        <v>1.28</v>
+      </c>
+      <c r="AV132">
+        <v>1.26</v>
+      </c>
+      <c r="AW132">
+        <v>2.54</v>
+      </c>
+      <c r="AX132">
+        <v>1.91</v>
+      </c>
+      <c r="AY132">
+        <v>8</v>
+      </c>
+      <c r="AZ132">
+        <v>2.2</v>
+      </c>
+      <c r="BA132">
+        <v>1.24</v>
+      </c>
+      <c r="BB132">
+        <v>1.56</v>
+      </c>
+      <c r="BC132">
+        <v>1.8</v>
+      </c>
+      <c r="BD132">
+        <v>2.41</v>
+      </c>
+      <c r="BE132">
+        <v>3.15</v>
+      </c>
+      <c r="BF132">
+        <v>6</v>
+      </c>
+      <c r="BG132">
+        <v>5</v>
+      </c>
+      <c r="BH132">
+        <v>2</v>
+      </c>
+      <c r="BI132">
+        <v>1</v>
+      </c>
+      <c r="BJ132">
+        <v>8</v>
+      </c>
+      <c r="BK132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5239184</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>66</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>127</v>
+      </c>
+      <c r="P133" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q133">
+        <v>6</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>11</v>
+      </c>
+      <c r="T133">
+        <v>3.25</v>
+      </c>
+      <c r="U133">
+        <v>2.25</v>
+      </c>
+      <c r="V133">
+        <v>3</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>3.25</v>
+      </c>
+      <c r="Y133">
+        <v>2.63</v>
+      </c>
+      <c r="Z133">
+        <v>1.44</v>
+      </c>
+      <c r="AA133">
+        <v>7</v>
+      </c>
+      <c r="AB133">
+        <v>1.1</v>
+      </c>
+      <c r="AC133">
+        <v>2.64</v>
+      </c>
+      <c r="AD133">
+        <v>3.26</v>
+      </c>
+      <c r="AE133">
+        <v>2.26</v>
+      </c>
+      <c r="AF133">
+        <v>1.04</v>
+      </c>
+      <c r="AG133">
+        <v>13</v>
+      </c>
+      <c r="AH133">
+        <v>1.25</v>
+      </c>
+      <c r="AI133">
+        <v>4</v>
+      </c>
+      <c r="AJ133">
+        <v>1.91</v>
+      </c>
+      <c r="AK133">
+        <v>1.93</v>
+      </c>
+      <c r="AL133">
+        <v>1.62</v>
+      </c>
+      <c r="AM133">
+        <v>2.2</v>
+      </c>
+      <c r="AN133">
+        <v>1.62</v>
+      </c>
+      <c r="AO133">
+        <v>1.33</v>
+      </c>
+      <c r="AP133">
+        <v>1.47</v>
+      </c>
+      <c r="AQ133">
+        <v>1.2</v>
+      </c>
+      <c r="AR133">
+        <v>1.6</v>
+      </c>
+      <c r="AS133">
+        <v>1.36</v>
+      </c>
+      <c r="AT133">
+        <v>1.45</v>
+      </c>
+      <c r="AU133">
+        <v>1.42</v>
+      </c>
+      <c r="AV133">
+        <v>1.26</v>
+      </c>
+      <c r="AW133">
+        <v>2.68</v>
+      </c>
+      <c r="AX133">
+        <v>2.39</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>1.82</v>
+      </c>
+      <c r="BA133">
+        <v>1.19</v>
+      </c>
+      <c r="BB133">
+        <v>1.34</v>
+      </c>
+      <c r="BC133">
+        <v>1.72</v>
+      </c>
+      <c r="BD133">
+        <v>2.12</v>
+      </c>
+      <c r="BE133">
+        <v>2.65</v>
+      </c>
+      <c r="BF133">
+        <v>2</v>
+      </c>
+      <c r="BG133">
+        <v>5</v>
+      </c>
+      <c r="BH133">
+        <v>6</v>
+      </c>
+      <c r="BI133">
+        <v>4</v>
+      </c>
+      <c r="BJ133">
+        <v>8</v>
+      </c>
+      <c r="BK133">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT2" t="n">
         <v>1.17</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT14" t="n">
         <v>1.5</v>
@@ -3542,7 +3542,7 @@
         <v>2.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU15" t="n">
         <v>1.36</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
         <v>0.83</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
         <v>1.82</v>
@@ -8414,7 +8414,7 @@
         <v>1.42</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU39" t="n">
         <v>0.87</v>
@@ -8817,7 +8817,7 @@
         <v>1.25</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU43" t="n">
         <v>1.23</v>
@@ -11659,7 +11659,7 @@
         <v>0.6</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT55" t="n">
         <v>0.82</v>
@@ -11865,7 +11865,7 @@
         <v>1.09</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU56" t="n">
         <v>1.17</v>
@@ -13283,7 +13283,7 @@
         <v>2.2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT63" t="n">
         <v>1.55</v>
@@ -13489,7 +13489,7 @@
         <v>1.83</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU64" t="n">
         <v>1.71</v>
@@ -15313,7 +15313,7 @@
         <v>0.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT73" t="n">
         <v>0.75</v>
@@ -15925,7 +15925,7 @@
         <v>1.82</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU76" t="n">
         <v>1.53</v>
@@ -17546,10 +17546,10 @@
         <v>0.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU84" t="n">
         <v>1.61</v>
@@ -18564,7 +18564,7 @@
         <v>1.82</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU89" t="n">
         <v>1.77</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU99" t="n">
         <v>1.23</v>
@@ -21403,7 +21403,7 @@
         <v>0.63</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT103" t="n">
         <v>0.67</v>
@@ -23842,7 +23842,7 @@
         <v>1.17</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU115" t="n">
         <v>1.33</v>
@@ -24651,7 +24651,7 @@
         <v>1.78</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT119" t="n">
         <v>1.45</v>
@@ -26684,7 +26684,7 @@
         <v>0.55</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU129" t="n">
         <v>1.25</v>
@@ -28141,22 +28141,22 @@
         <v>2.98</v>
       </c>
       <c r="BF136" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG136" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BH136" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BI136" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BJ136" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BK136" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
@@ -28221,13 +28221,13 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R137" t="n">
         <v>1</v>
       </c>
       <c r="S137" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T137" t="n">
         <v>2.22</v>
@@ -28344,22 +28344,22 @@
         <v>3</v>
       </c>
       <c r="BF137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ137" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BK137" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -28547,22 +28547,225 @@
         <v>3</v>
       </c>
       <c r="BF138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>7200040</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['27', '89']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
         <v>5</v>
       </c>
-      <c r="BG138" t="n">
+      <c r="R139" t="n">
+        <v>6</v>
+      </c>
+      <c r="S139" t="n">
+        <v>11</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF139" t="n">
         <v>4</v>
       </c>
-      <c r="BH138" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI138" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ138" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK138" t="n">
+      <c r="BG139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ139" t="n">
         <v>7</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.83</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU8" t="n">
         <v>1.45</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
         <v>1.45</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>2.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU15" t="n">
         <v>1.36</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>0.75</v>
@@ -4151,7 +4151,7 @@
         <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.67</v>
@@ -4354,7 +4354,7 @@
         <v>2.25</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU19" t="n">
         <v>1.59</v>
@@ -4760,7 +4760,7 @@
         <v>2.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU27" t="n">
         <v>1.11</v>
@@ -6381,7 +6381,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>1.82</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.65</v>
@@ -7399,7 +7399,7 @@
         <v>1.42</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU34" t="n">
         <v>0.5600000000000001</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT35" t="n">
         <v>0.67</v>
@@ -7802,10 +7802,10 @@
         <v>2.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU36" t="n">
         <v>1.49</v>
@@ -8008,7 +8008,7 @@
         <v>1.83</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.71</v>
@@ -8414,7 +8414,7 @@
         <v>1.42</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU39" t="n">
         <v>0.87</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU40" t="n">
         <v>1.18</v>
@@ -9226,7 +9226,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU43" t="n">
         <v>1.23</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT45" t="n">
         <v>0.75</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.45</v>
@@ -10035,10 +10035,10 @@
         <v>0.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU47" t="n">
         <v>1.69</v>
@@ -10241,7 +10241,7 @@
         <v>1.83</v>
       </c>
       <c r="AT48" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU48" t="n">
         <v>1.85</v>
@@ -10444,7 +10444,7 @@
         <v>1.82</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.12</v>
@@ -10644,10 +10644,10 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU50" t="n">
         <v>1.53</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
         <v>0.67</v>
@@ -11050,7 +11050,7 @@
         <v>1.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT52" t="n">
         <v>1.82</v>
@@ -11253,7 +11253,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -11662,7 +11662,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU55" t="n">
         <v>1.65</v>
@@ -11862,10 +11862,10 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU56" t="n">
         <v>1.17</v>
@@ -12474,7 +12474,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.23</v>
@@ -12674,7 +12674,7 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT60" t="n">
         <v>1.82</v>
@@ -12877,7 +12877,7 @@
         <v>0.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>0.75</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT62" t="n">
         <v>0.67</v>
@@ -13286,7 +13286,7 @@
         <v>1.75</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13489,7 +13489,7 @@
         <v>1.83</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU64" t="n">
         <v>1.71</v>
@@ -14098,7 +14098,7 @@
         <v>1.82</v>
       </c>
       <c r="AT67" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU67" t="n">
         <v>1.17</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT68" t="n">
         <v>1.45</v>
@@ -14704,10 +14704,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU70" t="n">
         <v>1.54</v>
@@ -15110,10 +15110,10 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.76</v>
@@ -15519,7 +15519,7 @@
         <v>1.83</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU74" t="n">
         <v>1.6</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -15922,10 +15922,10 @@
         <v>0.2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU76" t="n">
         <v>1.53</v>
@@ -16125,7 +16125,7 @@
         <v>1.43</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
         <v>1.82</v>
@@ -16534,7 +16534,7 @@
         <v>1.42</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU79" t="n">
         <v>1.13</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT81" t="n">
         <v>0.67</v>
@@ -17140,10 +17140,10 @@
         <v>2.17</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT82" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU82" t="n">
         <v>1.42</v>
@@ -17549,7 +17549,7 @@
         <v>1.75</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU84" t="n">
         <v>1.61</v>
@@ -17749,10 +17749,10 @@
         <v>0.83</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU85" t="n">
         <v>1.45</v>
@@ -18358,10 +18358,10 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU88" t="n">
         <v>1.26</v>
@@ -18561,10 +18561,10 @@
         <v>0.57</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU89" t="n">
         <v>1.77</v>
@@ -18970,7 +18970,7 @@
         <v>1.82</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU91" t="n">
         <v>1.3</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT92" t="n">
         <v>1.45</v>
@@ -19373,10 +19373,10 @@
         <v>2.29</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT93" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU93" t="n">
         <v>1.73</v>
@@ -19576,7 +19576,7 @@
         <v>1.86</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
         <v>1.45</v>
@@ -19985,7 +19985,7 @@
         <v>2.25</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.52</v>
@@ -20185,7 +20185,7 @@
         <v>0.71</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT97" t="n">
         <v>0.75</v>
@@ -20391,7 +20391,7 @@
         <v>1.82</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU98" t="n">
         <v>1.37</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU99" t="n">
         <v>1.23</v>
@@ -21200,10 +21200,10 @@
         <v>1.89</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU102" t="n">
         <v>1.52</v>
@@ -21606,7 +21606,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT104" t="n">
         <v>1.17</v>
@@ -21812,7 +21812,7 @@
         <v>1</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU105" t="n">
         <v>1.27</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT107" t="n">
         <v>1.17</v>
@@ -22418,7 +22418,7 @@
         <v>1.13</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT108" t="n">
         <v>1.5</v>
@@ -23230,7 +23230,7 @@
         <v>1.22</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
         <v>1.17</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU113" t="n">
         <v>1.29</v>
@@ -23839,10 +23839,10 @@
         <v>1.11</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU115" t="n">
         <v>1.33</v>
@@ -24042,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT116" t="n">
         <v>1.5</v>
@@ -24248,7 +24248,7 @@
         <v>1.42</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.17</v>
@@ -24448,7 +24448,7 @@
         <v>1.56</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT118" t="n">
         <v>1.82</v>
@@ -24854,10 +24854,10 @@
         <v>0.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU120" t="n">
         <v>1.4</v>
@@ -25260,7 +25260,7 @@
         <v>1.1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -25872,7 +25872,7 @@
         <v>1.33</v>
       </c>
       <c r="AT125" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU125" t="n">
         <v>1.49</v>
@@ -26275,7 +26275,7 @@
         <v>1.1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT127" t="n">
         <v>1.17</v>
@@ -26681,10 +26681,10 @@
         <v>1.3</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU129" t="n">
         <v>1.25</v>
@@ -26884,7 +26884,7 @@
         <v>1.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT130" t="n">
         <v>1.5</v>
@@ -27087,10 +27087,10 @@
         <v>0.9</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.28</v>
@@ -27290,10 +27290,10 @@
         <v>1.7</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU132" t="n">
         <v>1.65</v>
@@ -27496,7 +27496,7 @@
         <v>2.25</v>
       </c>
       <c r="AT133" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU133" t="n">
         <v>1.45</v>
@@ -27699,7 +27699,7 @@
         <v>1.33</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU134" t="n">
         <v>1.42</v>
@@ -27899,7 +27899,7 @@
         <v>0.73</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT135" t="n">
         <v>0.67</v>
@@ -28714,7 +28714,7 @@
         <v>1.75</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU139" t="n">
         <v>1.59</v>
@@ -28766,6 +28766,1021 @@
       </c>
       <c r="BK139" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7200043</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45191.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['37', '45+3', '64']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>6</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2</v>
+      </c>
+      <c r="S140" t="n">
+        <v>8</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>7200042</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45191.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>2</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['29', '48']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>9</v>
+      </c>
+      <c r="R141" t="n">
+        <v>6</v>
+      </c>
+      <c r="S141" t="n">
+        <v>15</v>
+      </c>
+      <c r="T141" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>7200041</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45191.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>3</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['22', '49', '66']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>2</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2</v>
+      </c>
+      <c r="S142" t="n">
+        <v>4</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>7200044</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45191.52083333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['5', '50']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>1</v>
+      </c>
+      <c r="R143" t="n">
+        <v>7</v>
+      </c>
+      <c r="S143" t="n">
+        <v>8</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>7200045</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45192.33333333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>4</v>
+      </c>
+      <c r="S144" t="n">
+        <v>8</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT3" t="n">
         <v>0.75</v>
@@ -2933,7 +2933,7 @@
         <v>1.82</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU12" t="n">
         <v>0.87</v>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT28" t="n">
         <v>1.17</v>
@@ -6790,7 +6790,7 @@
         <v>1.75</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU31" t="n">
         <v>1.67</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU32" t="n">
         <v>1.16</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -10238,7 +10238,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT48" t="n">
         <v>2.08</v>
@@ -11053,7 +11053,7 @@
         <v>0.75</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU52" t="n">
         <v>1.31</v>
@@ -12677,7 +12677,7 @@
         <v>1.31</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU60" t="n">
         <v>1.7</v>
@@ -13486,7 +13486,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT64" t="n">
         <v>1.69</v>
@@ -14910,7 +14910,7 @@
         <v>1.33</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU71" t="n">
         <v>1.26</v>
@@ -15516,7 +15516,7 @@
         <v>1.83</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT74" t="n">
         <v>1.42</v>
@@ -16128,7 +16128,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -17952,7 +17952,7 @@
         <v>1.29</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT86" t="n">
         <v>1.5</v>
@@ -20794,10 +20794,10 @@
         <v>1.38</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU100" t="n">
         <v>1.55</v>
@@ -23636,7 +23636,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT114" t="n">
         <v>0.67</v>
@@ -24451,7 +24451,7 @@
         <v>1.67</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU118" t="n">
         <v>1.64</v>
@@ -25463,7 +25463,7 @@
         <v>0.9</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT123" t="n">
         <v>0.75</v>
@@ -26075,7 +26075,7 @@
         <v>1.42</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU126" t="n">
         <v>1.13</v>
@@ -28508,7 +28508,7 @@
         <v>1.36</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT138" t="n">
         <v>1.5</v>
@@ -29781,6 +29781,209 @@
       </c>
       <c r="BK144" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7200046</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45193.47916666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3</v>
+      </c>
+      <c r="N145" t="n">
+        <v>5</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['83', '85']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['30', '48', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>7</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2</v>
+      </c>
+      <c r="S145" t="n">
+        <v>9</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ145"/>
+  <dimension ref="A1:AZ147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.17</v>
@@ -2879,7 +2879,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR14" t="n">
         <v>2.23</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.69</v>
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR16" t="n">
         <v>1.15</v>
@@ -3726,7 +3726,7 @@
         <v>2</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.42</v>
@@ -3899,7 +3899,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR20" t="n">
         <v>1.1</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.75</v>
@@ -4239,7 +4239,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR22" t="n">
         <v>0.8</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.67</v>
@@ -5086,7 +5086,7 @@
         <v>1.67</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.42</v>
@@ -5599,7 +5599,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR30" t="n">
         <v>0.92</v>
@@ -6956,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.17</v>
@@ -7636,7 +7636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.92</v>
@@ -7979,7 +7979,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR44" t="n">
         <v>1.19</v>
@@ -8149,7 +8149,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR53" t="n">
         <v>1.94</v>
@@ -9679,7 +9679,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -10186,7 +10186,7 @@
         <v>2.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.45</v>
@@ -10356,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR61" t="n">
         <v>1.4</v>
@@ -11546,10 +11546,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR65" t="n">
         <v>1.27</v>
@@ -12226,7 +12226,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.67</v>
@@ -12909,7 +12909,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR73" t="n">
         <v>1.58</v>
@@ -13756,7 +13756,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.45</v>
@@ -14606,7 +14606,7 @@
         <v>0.86</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ83" t="n">
         <v>1</v>
@@ -15119,7 +15119,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR86" t="n">
         <v>1.61</v>
@@ -15796,10 +15796,10 @@
         <v>0.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90" t="n">
         <v>1.22</v>
@@ -16816,7 +16816,7 @@
         <v>0.86</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ96" t="n">
         <v>1</v>
@@ -16989,7 +16989,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR97" t="n">
         <v>1.3</v>
@@ -17326,7 +17326,7 @@
         <v>0.88</v>
       </c>
       <c r="AP99" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.69</v>
@@ -18346,7 +18346,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.75</v>
@@ -18516,10 +18516,10 @@
         <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR106" t="n">
         <v>1.46</v>
@@ -18859,7 +18859,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR108" t="n">
         <v>1.34</v>
@@ -19199,7 +19199,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110" t="n">
         <v>1.43</v>
@@ -19706,7 +19706,7 @@
         <v>2.13</v>
       </c>
       <c r="AP113" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ113" t="n">
         <v>2.08</v>
@@ -20219,7 +20219,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR116" t="n">
         <v>1.25</v>
@@ -21409,7 +21409,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR123" t="n">
         <v>1.57</v>
@@ -22599,7 +22599,7 @@
         <v>1</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR130" t="n">
         <v>1.41</v>
@@ -23106,7 +23106,7 @@
         <v>2.1</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ133" t="n">
         <v>2.08</v>
@@ -23619,7 +23619,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR136" t="n">
         <v>1.12</v>
@@ -23786,7 +23786,7 @@
         <v>1.27</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.17</v>
@@ -23959,7 +23959,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR138" t="n">
         <v>1.56</v>
@@ -25176,6 +25176,346 @@
         <v>8</v>
       </c>
       <c r="AZ145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7200047</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45196.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['18', '85']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S146" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X146" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7200048</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45196.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['16', '50', '80']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X147" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ147" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ147"/>
+  <dimension ref="A1:AZ149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,7 +839,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.92</v>
@@ -4236,7 +4236,7 @@
         <v>1.33</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.38</v>
@@ -4409,7 +4409,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR23" t="n">
         <v>1.11</v>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.45</v>
@@ -4919,7 +4919,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR26" t="n">
         <v>1.05</v>
@@ -5259,7 +5259,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR28" t="n">
         <v>1.57</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.6899999999999999</v>
@@ -6276,7 +6276,7 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ34" t="n">
         <v>2.08</v>
@@ -6449,7 +6449,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -6959,7 +6959,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR38" t="n">
         <v>1.44</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.69</v>
@@ -7976,7 +7976,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.38</v>
@@ -8826,7 +8826,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -9169,7 +9169,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR51" t="n">
         <v>1.4</v>
@@ -9676,7 +9676,7 @@
         <v>0.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.6899999999999999</v>
@@ -11039,7 +11039,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR62" t="n">
         <v>1.9</v>
@@ -11716,10 +11716,10 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR66" t="n">
         <v>1.18</v>
@@ -11886,7 +11886,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67" t="n">
         <v>2.08</v>
@@ -12229,7 +12229,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR69" t="n">
         <v>1.49</v>
@@ -13926,7 +13926,7 @@
         <v>0.43</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.75</v>
@@ -14096,10 +14096,10 @@
         <v>0.8</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR80" t="n">
         <v>1.2</v>
@@ -14269,7 +14269,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR81" t="n">
         <v>1.18</v>
@@ -15289,7 +15289,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -15966,7 +15966,7 @@
         <v>2.13</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.42</v>
@@ -16646,10 +16646,10 @@
         <v>0.71</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR95" t="n">
         <v>1.15</v>
@@ -17156,7 +17156,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.75</v>
@@ -18009,7 +18009,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR103" t="n">
         <v>1.53</v>
@@ -18179,7 +18179,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR104" t="n">
         <v>1.22</v>
@@ -18689,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR107" t="n">
         <v>1.44</v>
@@ -19026,7 +19026,7 @@
         <v>2</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.45</v>
@@ -19366,7 +19366,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -19539,7 +19539,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR112" t="n">
         <v>1.5</v>
@@ -19879,7 +19879,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR114" t="n">
         <v>1.54</v>
@@ -20386,7 +20386,7 @@
         <v>0.75</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ117" t="n">
         <v>1</v>
@@ -21066,10 +21066,10 @@
         <v>0.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR121" t="n">
         <v>1.44</v>
@@ -21916,7 +21916,7 @@
         <v>1.7</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.92</v>
@@ -22089,7 +22089,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR127" t="n">
         <v>1.33</v>
@@ -23449,7 +23449,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR135" t="n">
         <v>1.29</v>
@@ -23616,7 +23616,7 @@
         <v>0.82</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.6899999999999999</v>
@@ -23789,7 +23789,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR137" t="n">
         <v>1.44</v>
@@ -25516,6 +25516,346 @@
         <v>9</v>
       </c>
       <c r="AZ147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>7200049</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45198.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['3', '14']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S148" t="n">
+        <v>4</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X148" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7200050</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45198.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>4</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X149" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ149" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -25671,22 +25671,22 @@
         <v>2.39</v>
       </c>
       <c r="AU148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV148" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX148" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY148" t="n">
         <v>6</v>
       </c>
       <c r="AZ148" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149">
@@ -25841,22 +25841,22 @@
         <v>2.9</v>
       </c>
       <c r="AU149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV149" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY149" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ149" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ149"/>
+  <dimension ref="A1:AZ151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.15</v>
@@ -1349,7 +1349,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.42</v>
@@ -2369,7 +2369,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR13" t="n">
         <v>0.97</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.38</v>
@@ -3389,7 +3389,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR17" t="n">
         <v>1.33</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -3896,7 +3896,7 @@
         <v>1.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.38</v>
@@ -4579,7 +4579,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.62</v>
@@ -5429,7 +5429,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR29" t="n">
         <v>0.99</v>
@@ -5766,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.92</v>
@@ -7466,10 +7466,10 @@
         <v>1.25</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR41" t="n">
         <v>1.64</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.69</v>
@@ -8319,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR46" t="n">
         <v>1.19</v>
@@ -9846,7 +9846,7 @@
         <v>0.6</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.75</v>
@@ -10189,7 +10189,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR57" t="n">
         <v>1.53</v>
@@ -10359,7 +10359,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR58" t="n">
         <v>1.25</v>
@@ -10526,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -11206,7 +11206,7 @@
         <v>2.2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.42</v>
@@ -12059,7 +12059,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR68" t="n">
         <v>1.17</v>
@@ -12566,7 +12566,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.92</v>
@@ -12906,7 +12906,7 @@
         <v>0.2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.6899999999999999</v>
@@ -13249,7 +13249,7 @@
         <v>1</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR75" t="n">
         <v>1.27</v>
@@ -13759,7 +13759,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR78" t="n">
         <v>1.28</v>
@@ -14609,7 +14609,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR83" t="n">
         <v>1.51</v>
@@ -14776,7 +14776,7 @@
         <v>0.17</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.69</v>
@@ -15286,7 +15286,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.15</v>
@@ -16139,7 +16139,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR92" t="n">
         <v>1.38</v>
@@ -16479,7 +16479,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR94" t="n">
         <v>1.68</v>
@@ -17666,10 +17666,10 @@
         <v>1.13</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -18006,7 +18006,7 @@
         <v>0.63</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.62</v>
@@ -19029,7 +19029,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR109" t="n">
         <v>1.45</v>
@@ -19196,7 +19196,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.6899999999999999</v>
@@ -19369,7 +19369,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR111" t="n">
         <v>1.17</v>
@@ -20726,10 +20726,10 @@
         <v>1.78</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR119" t="n">
         <v>1.57</v>
@@ -21239,7 +21239,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR122" t="n">
         <v>1.66</v>
@@ -21746,7 +21746,7 @@
         <v>2.22</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ125" t="n">
         <v>2.08</v>
@@ -22256,10 +22256,10 @@
         <v>1.6</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR128" t="n">
         <v>1.42</v>
@@ -23276,7 +23276,7 @@
         <v>0.82</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ134" t="n">
         <v>1</v>
@@ -24126,7 +24126,7 @@
         <v>1.45</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.69</v>
@@ -25857,6 +25857,346 @@
       </c>
       <c r="AZ149" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>7200051</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45200.41666666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['3', '75']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S150" t="n">
+        <v>4</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>7200052</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45200.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S151" t="n">
+        <v>5</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -26184,16 +26184,16 @@
         <v>4</v>
       </c>
       <c r="AV151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW151" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY151" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ151" t="n">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ151"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>10</v>
       </c>
+      <c r="BA2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1037,6 +1165,54 @@
       </c>
       <c r="AZ3" t="n">
         <v>8</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>8</v>
       </c>
+      <c r="BA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>6</v>
       </c>
+      <c r="BA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>5</v>
       </c>
+      <c r="BA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>4</v>
       </c>
+      <c r="BA7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>15</v>
       </c>
+      <c r="BA8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>10</v>
       </c>
+      <c r="BA9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>13</v>
       </c>
+      <c r="BA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
+      <c r="BA11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>9</v>
       </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>7</v>
       </c>
+      <c r="BA13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>12</v>
       </c>
+      <c r="BA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>5</v>
       </c>
+      <c r="BA15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>11</v>
       </c>
+      <c r="BA16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>4</v>
       </c>
+      <c r="BA17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>2</v>
       </c>
+      <c r="BA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>10</v>
       </c>
+      <c r="BA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>7</v>
       </c>
+      <c r="BA20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>5</v>
       </c>
+      <c r="BA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>10</v>
       </c>
+      <c r="BA22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>5</v>
       </c>
+      <c r="BA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>9</v>
       </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
+      <c r="BA25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>9</v>
       </c>
+      <c r="BA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>9</v>
       </c>
+      <c r="BA27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>12</v>
       </c>
+      <c r="BA28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>6</v>
       </c>
+      <c r="BA29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>15</v>
       </c>
+      <c r="BA30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>9</v>
       </c>
+      <c r="BA31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>14</v>
       </c>
+      <c r="BA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>7</v>
       </c>
+      <c r="BA33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>20</v>
       </c>
+      <c r="BA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>4</v>
       </c>
+      <c r="BA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>5</v>
       </c>
+      <c r="BA36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>7</v>
       </c>
+      <c r="BA37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>5</v>
       </c>
+      <c r="BA38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>5</v>
       </c>
+      <c r="BA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>12</v>
       </c>
+      <c r="BA40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>6</v>
       </c>
+      <c r="BA41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>7</v>
       </c>
+      <c r="BA42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>17</v>
       </c>
+      <c r="BA43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>5</v>
       </c>
+      <c r="BA44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>8</v>
       </c>
+      <c r="BA45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>10</v>
       </c>
+      <c r="BA46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>11</v>
       </c>
+      <c r="BA47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>5</v>
       </c>
+      <c r="BA48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>11</v>
       </c>
+      <c r="BA49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>10</v>
       </c>
+      <c r="BA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>15</v>
       </c>
+      <c r="BA51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>16</v>
       </c>
+      <c r="BA52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>12</v>
       </c>
+      <c r="BA53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>6</v>
       </c>
+      <c r="BA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>4</v>
       </c>
+      <c r="BA55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>12</v>
       </c>
+      <c r="BA56" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>8</v>
       </c>
+      <c r="BA57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>5</v>
       </c>
+      <c r="BA58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>8</v>
       </c>
+      <c r="BA59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>14</v>
       </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>4</v>
       </c>
+      <c r="BA61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>11</v>
       </c>
+      <c r="BA62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>6</v>
       </c>
+      <c r="BA63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>9</v>
       </c>
+      <c r="BA64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>7</v>
       </c>
+      <c r="BA65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>7</v>
       </c>
+      <c r="BA66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>8</v>
       </c>
+      <c r="BA67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>9</v>
       </c>
+      <c r="BA68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>8</v>
       </c>
+      <c r="BA69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>6</v>
       </c>
+      <c r="BA70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>5</v>
       </c>
+      <c r="BA71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>10</v>
       </c>
+      <c r="BA72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12938,6 +16426,54 @@
       <c r="AZ73" t="n">
         <v>7</v>
       </c>
+      <c r="BA73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -13108,6 +16644,54 @@
       <c r="AZ74" t="n">
         <v>10</v>
       </c>
+      <c r="BA74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -13278,6 +16862,54 @@
       <c r="AZ75" t="n">
         <v>4</v>
       </c>
+      <c r="BA75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -13448,6 +17080,54 @@
       <c r="AZ76" t="n">
         <v>10</v>
       </c>
+      <c r="BA76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -13618,6 +17298,54 @@
       <c r="AZ77" t="n">
         <v>10</v>
       </c>
+      <c r="BA77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -13788,6 +17516,54 @@
       <c r="AZ78" t="n">
         <v>10</v>
       </c>
+      <c r="BA78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -13958,6 +17734,54 @@
       <c r="AZ79" t="n">
         <v>3</v>
       </c>
+      <c r="BA79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -14128,6 +17952,54 @@
       <c r="AZ80" t="n">
         <v>7</v>
       </c>
+      <c r="BA80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -14298,6 +18170,54 @@
       <c r="AZ81" t="n">
         <v>9</v>
       </c>
+      <c r="BA81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -14468,6 +18388,54 @@
       <c r="AZ82" t="n">
         <v>16</v>
       </c>
+      <c r="BA82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -14638,6 +18606,54 @@
       <c r="AZ83" t="n">
         <v>6</v>
       </c>
+      <c r="BA83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -14808,6 +18824,54 @@
       <c r="AZ84" t="n">
         <v>11</v>
       </c>
+      <c r="BA84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -14978,6 +19042,54 @@
       <c r="AZ85" t="n">
         <v>12</v>
       </c>
+      <c r="BA85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -15148,6 +19260,54 @@
       <c r="AZ86" t="n">
         <v>10</v>
       </c>
+      <c r="BA86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -15318,6 +19478,54 @@
       <c r="AZ87" t="n">
         <v>12</v>
       </c>
+      <c r="BA87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -15488,6 +19696,54 @@
       <c r="AZ88" t="n">
         <v>13</v>
       </c>
+      <c r="BA88" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -15658,6 +19914,54 @@
       <c r="AZ89" t="n">
         <v>7</v>
       </c>
+      <c r="BA89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -15828,6 +20132,54 @@
       <c r="AZ90" t="n">
         <v>2</v>
       </c>
+      <c r="BA90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -15998,6 +20350,54 @@
       <c r="AZ91" t="n">
         <v>7</v>
       </c>
+      <c r="BA91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -16168,6 +20568,54 @@
       <c r="AZ92" t="n">
         <v>8</v>
       </c>
+      <c r="BA92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -16338,6 +20786,54 @@
       <c r="AZ93" t="n">
         <v>15</v>
       </c>
+      <c r="BA93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -16508,6 +21004,54 @@
       <c r="AZ94" t="n">
         <v>7</v>
       </c>
+      <c r="BA94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -16678,6 +21222,54 @@
       <c r="AZ95" t="n">
         <v>7</v>
       </c>
+      <c r="BA95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -16848,6 +21440,54 @@
       <c r="AZ96" t="n">
         <v>9</v>
       </c>
+      <c r="BA96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -17018,6 +21658,54 @@
       <c r="AZ97" t="n">
         <v>6</v>
       </c>
+      <c r="BA97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -17188,6 +21876,54 @@
       <c r="AZ98" t="n">
         <v>9</v>
       </c>
+      <c r="BA98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -17358,6 +22094,54 @@
       <c r="AZ99" t="n">
         <v>6</v>
       </c>
+      <c r="BA99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -17528,6 +22312,54 @@
       <c r="AZ100" t="n">
         <v>5</v>
       </c>
+      <c r="BA100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -17698,6 +22530,54 @@
       <c r="AZ101" t="n">
         <v>10</v>
       </c>
+      <c r="BA101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -17868,6 +22748,54 @@
       <c r="AZ102" t="n">
         <v>4</v>
       </c>
+      <c r="BA102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -18038,6 +22966,54 @@
       <c r="AZ103" t="n">
         <v>8</v>
       </c>
+      <c r="BA103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -18208,6 +23184,54 @@
       <c r="AZ104" t="n">
         <v>12</v>
       </c>
+      <c r="BA104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -18378,6 +23402,54 @@
       <c r="AZ105" t="n">
         <v>9</v>
       </c>
+      <c r="BA105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -18548,6 +23620,54 @@
       <c r="AZ106" t="n">
         <v>8</v>
       </c>
+      <c r="BA106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -18718,6 +23838,54 @@
       <c r="AZ107" t="n">
         <v>17</v>
       </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -18888,6 +24056,54 @@
       <c r="AZ108" t="n">
         <v>8</v>
       </c>
+      <c r="BA108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -19058,6 +24274,54 @@
       <c r="AZ109" t="n">
         <v>10</v>
       </c>
+      <c r="BA109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -19228,6 +24492,54 @@
       <c r="AZ110" t="n">
         <v>3</v>
       </c>
+      <c r="BA110" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -19398,6 +24710,54 @@
       <c r="AZ111" t="n">
         <v>6</v>
       </c>
+      <c r="BA111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -19568,6 +24928,54 @@
       <c r="AZ112" t="n">
         <v>10</v>
       </c>
+      <c r="BA112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -19738,6 +25146,54 @@
       <c r="AZ113" t="n">
         <v>5</v>
       </c>
+      <c r="BA113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -19908,6 +25364,54 @@
       <c r="AZ114" t="n">
         <v>10</v>
       </c>
+      <c r="BA114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -20078,6 +25582,54 @@
       <c r="AZ115" t="n">
         <v>9</v>
       </c>
+      <c r="BA115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -20248,6 +25800,54 @@
       <c r="AZ116" t="n">
         <v>9</v>
       </c>
+      <c r="BA116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -20418,6 +26018,54 @@
       <c r="AZ117" t="n">
         <v>4</v>
       </c>
+      <c r="BA117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -20588,6 +26236,54 @@
       <c r="AZ118" t="n">
         <v>10</v>
       </c>
+      <c r="BA118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -20758,6 +26454,54 @@
       <c r="AZ119" t="n">
         <v>5</v>
       </c>
+      <c r="BA119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -20928,6 +26672,54 @@
       <c r="AZ120" t="n">
         <v>7</v>
       </c>
+      <c r="BA120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -21098,6 +26890,54 @@
       <c r="AZ121" t="n">
         <v>8</v>
       </c>
+      <c r="BA121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -21268,6 +27108,54 @@
       <c r="AZ122" t="n">
         <v>7</v>
       </c>
+      <c r="BA122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -21438,6 +27326,54 @@
       <c r="AZ123" t="n">
         <v>9</v>
       </c>
+      <c r="BA123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -21608,6 +27544,54 @@
       <c r="AZ124" t="n">
         <v>6</v>
       </c>
+      <c r="BA124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -21778,6 +27762,54 @@
       <c r="AZ125" t="n">
         <v>8</v>
       </c>
+      <c r="BA125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -21948,6 +27980,54 @@
       <c r="AZ126" t="n">
         <v>12</v>
       </c>
+      <c r="BA126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -22118,6 +28198,54 @@
       <c r="AZ127" t="n">
         <v>10</v>
       </c>
+      <c r="BA127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -22288,6 +28416,54 @@
       <c r="AZ128" t="n">
         <v>10</v>
       </c>
+      <c r="BA128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -22458,6 +28634,54 @@
       <c r="AZ129" t="n">
         <v>7</v>
       </c>
+      <c r="BA129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -22628,6 +28852,54 @@
       <c r="AZ130" t="n">
         <v>8</v>
       </c>
+      <c r="BA130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -22798,6 +29070,54 @@
       <c r="AZ131" t="n">
         <v>6</v>
       </c>
+      <c r="BA131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -22968,6 +29288,54 @@
       <c r="AZ132" t="n">
         <v>5</v>
       </c>
+      <c r="BA132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -23138,6 +29506,54 @@
       <c r="AZ133" t="n">
         <v>8</v>
       </c>
+      <c r="BA133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -23308,6 +29724,54 @@
       <c r="AZ134" t="n">
         <v>13</v>
       </c>
+      <c r="BA134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -23478,6 +29942,54 @@
       <c r="AZ135" t="n">
         <v>6</v>
       </c>
+      <c r="BA135" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -23648,6 +30160,54 @@
       <c r="AZ136" t="n">
         <v>-1</v>
       </c>
+      <c r="BA136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -23818,6 +30378,54 @@
       <c r="AZ137" t="n">
         <v>2</v>
       </c>
+      <c r="BA137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -23988,6 +30596,54 @@
       <c r="AZ138" t="n">
         <v>6</v>
       </c>
+      <c r="BA138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -24158,6 +30814,54 @@
       <c r="AZ139" t="n">
         <v>13</v>
       </c>
+      <c r="BA139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -24328,6 +31032,54 @@
       <c r="AZ140" t="n">
         <v>9</v>
       </c>
+      <c r="BA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -24498,6 +31250,54 @@
       <c r="AZ141" t="n">
         <v>8</v>
       </c>
+      <c r="BA141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -24668,6 +31468,54 @@
       <c r="AZ142" t="n">
         <v>14</v>
       </c>
+      <c r="BA142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -24838,6 +31686,54 @@
       <c r="AZ143" t="n">
         <v>12</v>
       </c>
+      <c r="BA143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -25008,6 +31904,54 @@
       <c r="AZ144" t="n">
         <v>12</v>
       </c>
+      <c r="BA144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -25178,6 +32122,54 @@
       <c r="AZ145" t="n">
         <v>9</v>
       </c>
+      <c r="BA145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -25348,6 +32340,54 @@
       <c r="AZ146" t="n">
         <v>10</v>
       </c>
+      <c r="BA146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -25518,6 +32558,54 @@
       <c r="AZ147" t="n">
         <v>9</v>
       </c>
+      <c r="BA147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -25688,6 +32776,54 @@
       <c r="AZ148" t="n">
         <v>13</v>
       </c>
+      <c r="BA148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -25858,6 +32994,54 @@
       <c r="AZ149" t="n">
         <v>11</v>
       </c>
+      <c r="BA149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -26028,6 +33212,54 @@
       <c r="AZ150" t="n">
         <v>14</v>
       </c>
+      <c r="BA150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -26197,6 +33429,54 @@
       </c>
       <c r="AZ151" t="n">
         <v>4</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.15</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.92</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.15</v>
@@ -2881,7 +2881,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR12" t="n">
         <v>0.87</v>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.92</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR14" t="n">
         <v>2.23</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR19" t="n">
         <v>1.59</v>
@@ -4840,10 +4840,10 @@
         <v>1.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR20" t="n">
         <v>1.1</v>
@@ -5276,10 +5276,10 @@
         <v>1.33</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR22" t="n">
         <v>0.8</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR23" t="n">
         <v>1.11</v>
@@ -5715,7 +5715,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ25" t="n">
         <v>2.08</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR26" t="n">
         <v>1.05</v>
@@ -6366,10 +6366,10 @@
         <v>1.67</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR27" t="n">
         <v>1.11</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.6899999999999999</v>
@@ -7238,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR31" t="n">
         <v>1.67</v>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR32" t="n">
         <v>1.16</v>
@@ -8113,7 +8113,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.75</v>
@@ -9418,7 +9418,7 @@
         <v>1.25</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.92</v>
@@ -9636,10 +9636,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR42" t="n">
         <v>1.19</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.69</v>
@@ -10075,7 +10075,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR44" t="n">
         <v>1.19</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.6899999999999999</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR46" t="n">
         <v>1.19</v>
@@ -10726,7 +10726,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.75</v>
@@ -11162,7 +11162,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -11383,7 +11383,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR50" t="n">
         <v>1.53</v>
@@ -11601,7 +11601,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR51" t="n">
         <v>1.4</v>
@@ -11816,10 +11816,10 @@
         <v>1.25</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR52" t="n">
         <v>1.31</v>
@@ -12034,10 +12034,10 @@
         <v>1.6</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR53" t="n">
         <v>1.94</v>
@@ -12470,7 +12470,7 @@
         <v>0.6</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.75</v>
@@ -12909,7 +12909,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR57" t="n">
         <v>1.53</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.92</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59" t="n">
         <v>1</v>
@@ -13563,7 +13563,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR60" t="n">
         <v>1.7</v>
@@ -13996,10 +13996,10 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR62" t="n">
         <v>1.9</v>
@@ -14214,10 +14214,10 @@
         <v>2.2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR63" t="n">
         <v>1.58</v>
@@ -14650,10 +14650,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR65" t="n">
         <v>1.27</v>
@@ -15086,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ67" t="n">
         <v>2.08</v>
@@ -15304,10 +15304,10 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR68" t="n">
         <v>1.17</v>
@@ -15525,7 +15525,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR69" t="n">
         <v>1.49</v>
@@ -15958,10 +15958,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR71" t="n">
         <v>1.26</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ72" t="n">
         <v>1</v>
@@ -16394,7 +16394,7 @@
         <v>0.2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.6899999999999999</v>
@@ -16615,7 +16615,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR74" t="n">
         <v>1.6</v>
@@ -17269,7 +17269,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR77" t="n">
         <v>1.56</v>
@@ -17484,10 +17484,10 @@
         <v>2.2</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR78" t="n">
         <v>1.28</v>
@@ -17920,7 +17920,7 @@
         <v>0.8</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.15</v>
@@ -18138,10 +18138,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR81" t="n">
         <v>1.18</v>
@@ -18792,7 +18792,7 @@
         <v>0.17</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.69</v>
@@ -19231,7 +19231,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR86" t="n">
         <v>1.61</v>
@@ -19446,7 +19446,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.15</v>
@@ -19664,10 +19664,10 @@
         <v>2</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR88" t="n">
         <v>1.26</v>
@@ -19882,7 +19882,7 @@
         <v>0.57</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.69</v>
@@ -20100,7 +20100,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.6899999999999999</v>
@@ -20318,10 +20318,10 @@
         <v>2.13</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR91" t="n">
         <v>1.3</v>
@@ -20539,7 +20539,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR92" t="n">
         <v>1.38</v>
@@ -20754,7 +20754,7 @@
         <v>2.29</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ93" t="n">
         <v>2.08</v>
@@ -20972,10 +20972,10 @@
         <v>1.86</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR94" t="n">
         <v>1.68</v>
@@ -21193,7 +21193,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR95" t="n">
         <v>1.15</v>
@@ -21844,7 +21844,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.75</v>
@@ -22062,7 +22062,7 @@
         <v>0.88</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.69</v>
@@ -22283,7 +22283,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR100" t="n">
         <v>1.55</v>
@@ -22498,7 +22498,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.92</v>
@@ -22719,7 +22719,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR102" t="n">
         <v>1.52</v>
@@ -22934,10 +22934,10 @@
         <v>0.63</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR103" t="n">
         <v>1.53</v>
@@ -23152,7 +23152,7 @@
         <v>0.71</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.15</v>
@@ -23370,7 +23370,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.75</v>
@@ -24027,7 +24027,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR108" t="n">
         <v>1.34</v>
@@ -24242,10 +24242,10 @@
         <v>2</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR109" t="n">
         <v>1.45</v>
@@ -24460,7 +24460,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.6899999999999999</v>
@@ -25114,7 +25114,7 @@
         <v>2.13</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ113" t="n">
         <v>2.08</v>
@@ -25335,7 +25335,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR114" t="n">
         <v>1.54</v>
@@ -25768,10 +25768,10 @@
         <v>1</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR116" t="n">
         <v>1.25</v>
@@ -26204,10 +26204,10 @@
         <v>1.56</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR118" t="n">
         <v>1.64</v>
@@ -26422,10 +26422,10 @@
         <v>1.78</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR119" t="n">
         <v>1.57</v>
@@ -26858,10 +26858,10 @@
         <v>0.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR121" t="n">
         <v>1.44</v>
@@ -27076,7 +27076,7 @@
         <v>1.1</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.92</v>
@@ -27730,7 +27730,7 @@
         <v>2.22</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ125" t="n">
         <v>2.08</v>
@@ -27951,7 +27951,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR126" t="n">
         <v>1.13</v>
@@ -28384,10 +28384,10 @@
         <v>1.6</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR128" t="n">
         <v>1.42</v>
@@ -28602,7 +28602,7 @@
         <v>1.3</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.69</v>
@@ -28823,7 +28823,7 @@
         <v>1</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR130" t="n">
         <v>1.41</v>
@@ -29256,10 +29256,10 @@
         <v>1.7</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR132" t="n">
         <v>1.65</v>
@@ -29692,7 +29692,7 @@
         <v>0.82</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ134" t="n">
         <v>1</v>
@@ -29913,7 +29913,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR135" t="n">
         <v>1.29</v>
@@ -30567,7 +30567,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR138" t="n">
         <v>1.56</v>
@@ -30782,7 +30782,7 @@
         <v>1.45</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.69</v>
@@ -31221,7 +31221,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR141" t="n">
         <v>1.32</v>
@@ -31654,7 +31654,7 @@
         <v>0.82</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.75</v>
@@ -31872,7 +31872,7 @@
         <v>2</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ144" t="n">
         <v>2.08</v>
@@ -32093,7 +32093,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR145" t="n">
         <v>1.57</v>
@@ -32308,7 +32308,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.6899999999999999</v>
@@ -32529,7 +32529,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR147" t="n">
         <v>1.38</v>
@@ -32747,7 +32747,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR148" t="n">
         <v>1.12</v>
@@ -32962,7 +32962,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.15</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.92</v>
@@ -33398,10 +33398,10 @@
         <v>1.45</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR151" t="n">
         <v>1.55</v>
@@ -33477,6 +33477,1314 @@
       </c>
       <c r="BP151" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>7200053</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45205.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['41', '52', '64']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['80', '85']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S152" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7200054</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45206.375</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['27', '49']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U153" t="n">
+        <v>3</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X153" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>7200055</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['30', '85']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S154" t="n">
+        <v>4</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X154" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7200056</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45207.375</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U155" t="n">
+        <v>3</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X155" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7200057</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>5</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['2', '14', '90+4']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['40', '78']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X156" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7200058</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>4</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['14', '21', '48']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S157" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X157" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -34294,22 +34294,22 @@
         <v>6</v>
       </c>
       <c r="AX155" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY155" t="n">
         <v>10</v>
       </c>
       <c r="AZ155" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA155" t="n">
         <v>4</v>
       </c>
       <c r="BB155" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC155" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD155" t="n">
         <v>2.1</v>
@@ -34512,13 +34512,13 @@
         <v>3</v>
       </c>
       <c r="AX156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY156" t="n">
         <v>7</v>
       </c>
       <c r="AZ156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA156" t="n">
         <v>7</v>
@@ -34721,7 +34721,7 @@
         <v>2.86</v>
       </c>
       <c r="AU157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV157" t="n">
         <v>3</v>
@@ -34733,7 +34733,7 @@
         <v>3</v>
       </c>
       <c r="AY157" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ157" t="n">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.31</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.29</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR8" t="n">
         <v>1.45</v>
@@ -2663,7 +2663,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.54</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR15" t="n">
         <v>1.36</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR16" t="n">
         <v>1.15</v>
@@ -4186,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.92</v>
@@ -4407,7 +4407,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR18" t="n">
         <v>1.67</v>
@@ -4622,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.31</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR21" t="n">
         <v>1.41</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.54</v>
@@ -5933,7 +5933,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR25" t="n">
         <v>1.35</v>
@@ -6584,10 +6584,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR28" t="n">
         <v>1.57</v>
@@ -6802,7 +6802,7 @@
         <v>1.67</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.92</v>
@@ -7023,7 +7023,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR30" t="n">
         <v>0.92</v>
@@ -7456,7 +7456,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.77</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR33" t="n">
         <v>1.65</v>
@@ -7892,10 +7892,10 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR34" t="n">
         <v>0.5600000000000001</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.57</v>
@@ -8328,10 +8328,10 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR36" t="n">
         <v>1.49</v>
@@ -8546,10 +8546,10 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR37" t="n">
         <v>1.71</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR38" t="n">
         <v>1.44</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR39" t="n">
         <v>0.87</v>
@@ -9203,7 +9203,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR40" t="n">
         <v>1.18</v>
@@ -9857,7 +9857,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR43" t="n">
         <v>1.23</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.29</v>
@@ -10293,7 +10293,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -10508,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.54</v>
@@ -10729,7 +10729,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR47" t="n">
         <v>1.69</v>
@@ -10944,10 +10944,10 @@
         <v>2.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -11165,7 +11165,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR49" t="n">
         <v>1.12</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.31</v>
@@ -11598,7 +11598,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.57</v>
@@ -12252,10 +12252,10 @@
         <v>0.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -12473,7 +12473,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR55" t="n">
         <v>1.65</v>
@@ -12688,10 +12688,10 @@
         <v>0.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR56" t="n">
         <v>1.17</v>
@@ -12906,7 +12906,7 @@
         <v>2.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.54</v>
@@ -13345,7 +13345,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR59" t="n">
         <v>1.23</v>
@@ -13560,7 +13560,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.77</v>
@@ -13778,10 +13778,10 @@
         <v>0.25</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR61" t="n">
         <v>1.4</v>
@@ -13864,7 +13864,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>5239111</v>
+        <v>5239112</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -13884,12 +13884,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -13902,179 +13902,179 @@
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['22', '53']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>['70']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>2.17</v>
+        <v>2.37</v>
       </c>
       <c r="R62" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="S62" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="T62" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="U62" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="V62" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="W62" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="X62" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AA62" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AB62" t="n">
         <v>4.8</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AD62" t="n">
-        <v>14.25</v>
+        <v>7.25</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AF62" t="n">
-        <v>4.08</v>
+        <v>2.65</v>
       </c>
       <c r="AG62" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="AH62" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="AK62" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AL62" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AM62" t="n">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="AN62" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO62" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.57</v>
+        <v>1.31</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="AU62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW62" t="n">
         <v>5</v>
       </c>
       <c r="AX62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA62" t="n">
         <v>5</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>6</v>
       </c>
       <c r="BB62" t="n">
         <v>4</v>
       </c>
       <c r="BC62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD62" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BE62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BF62" t="n">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="BG62" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="BH62" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="BI62" t="n">
-        <v>1.34</v>
+        <v>1.54</v>
       </c>
       <c r="BJ62" t="n">
-        <v>3</v>
+        <v>2.31</v>
       </c>
       <c r="BK62" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="BL62" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="BM62" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="BN62" t="n">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="BO62" t="n">
-        <v>2.4</v>
+        <v>3.08</v>
       </c>
       <c r="BP62" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="63">
@@ -14082,7 +14082,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>5239112</v>
+        <v>5239111</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -14102,12 +14102,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -14120,179 +14120,179 @@
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['22', '53']</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['70']</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>2.37</v>
+        <v>2.17</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="S63" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="T63" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="U63" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="V63" t="n">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="W63" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="X63" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="AA63" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AB63" t="n">
         <v>4.8</v>
       </c>
       <c r="AC63" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AD63" t="n">
-        <v>7.25</v>
+        <v>14.25</v>
       </c>
       <c r="AE63" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AF63" t="n">
-        <v>2.65</v>
+        <v>4.08</v>
       </c>
       <c r="AG63" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AH63" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AI63" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="AK63" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AL63" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AM63" t="n">
-        <v>1.98</v>
+        <v>2.29</v>
       </c>
       <c r="AN63" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO63" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.31</v>
+        <v>0.57</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.99</v>
+        <v>3.07</v>
       </c>
       <c r="AU63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV63" t="n">
         <v>6</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>2</v>
       </c>
       <c r="AW63" t="n">
         <v>5</v>
       </c>
       <c r="AX63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ63" t="n">
         <v>11</v>
       </c>
-      <c r="AZ63" t="n">
+      <c r="BA63" t="n">
         <v>6</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>5</v>
       </c>
       <c r="BB63" t="n">
         <v>4</v>
       </c>
       <c r="BC63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD63" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BE63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BF63" t="n">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="BG63" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="BH63" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="BI63" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="BJ63" t="n">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="BK63" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="BL63" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="BM63" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="BN63" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="BO63" t="n">
-        <v>3.08</v>
+        <v>2.4</v>
       </c>
       <c r="BP63" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64">
@@ -14432,10 +14432,10 @@
         <v>0.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR64" t="n">
         <v>1.71</v>
@@ -14868,10 +14868,10 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR66" t="n">
         <v>1.18</v>
@@ -15089,7 +15089,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR67" t="n">
         <v>1.17</v>
@@ -15522,7 +15522,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.57</v>
@@ -15740,10 +15740,10 @@
         <v>0.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR70" t="n">
         <v>1.54</v>
@@ -15826,7 +15826,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>5239127</v>
+        <v>5239128</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -15846,50 +15846,50 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="R71" t="n">
         <v>2.1</v>
       </c>
       <c r="S71" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="T71" t="n">
         <v>1.44</v>
@@ -15910,31 +15910,31 @@
         <v>1.06</v>
       </c>
       <c r="Z71" t="n">
-        <v>4.95</v>
+        <v>1.72</v>
       </c>
       <c r="AA71" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AB71" t="n">
-        <v>1.73</v>
+        <v>5</v>
       </c>
       <c r="AC71" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AD71" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="AE71" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AF71" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="AG71" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AH71" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AI71" t="n">
         <v>2.05</v>
@@ -15943,100 +15943,100 @@
         <v>1.7</v>
       </c>
       <c r="AK71" t="n">
-        <v>2.12</v>
+        <v>1.17</v>
       </c>
       <c r="AL71" t="n">
         <v>1.29</v>
       </c>
       <c r="AM71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN71" t="n">
         <v>1.17</v>
       </c>
-      <c r="AN71" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AO71" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="AT71" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AU71" t="n">
         <v>6</v>
       </c>
       <c r="AV71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX71" t="n">
         <v>5</v>
       </c>
-      <c r="AX71" t="n">
-        <v>2</v>
-      </c>
       <c r="AY71" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA71" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC71" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD71" t="n">
-        <v>3.49</v>
+        <v>1.41</v>
       </c>
       <c r="BE71" t="n">
         <v>9</v>
       </c>
       <c r="BF71" t="n">
-        <v>1.41</v>
+        <v>3.58</v>
       </c>
       <c r="BG71" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BH71" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="BI71" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BJ71" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="BK71" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="BL71" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BM71" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="BN71" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="BO71" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="BP71" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="72">
@@ -16179,7 +16179,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR72" t="n">
         <v>1.76</v>
@@ -16397,7 +16397,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR73" t="n">
         <v>1.58</v>
@@ -16612,7 +16612,7 @@
         <v>1.83</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.31</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.92</v>
@@ -16916,7 +16916,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>5239128</v>
+        <v>5239127</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -16936,50 +16936,50 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="R76" t="n">
         <v>2.1</v>
       </c>
       <c r="S76" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="T76" t="n">
         <v>1.44</v>
@@ -17000,31 +17000,31 @@
         <v>1.06</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.72</v>
+        <v>4.95</v>
       </c>
       <c r="AA76" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AB76" t="n">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="AC76" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AD76" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AF76" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="AG76" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AH76" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AI76" t="n">
         <v>2.05</v>
@@ -17033,100 +17033,100 @@
         <v>1.7</v>
       </c>
       <c r="AK76" t="n">
-        <v>1.17</v>
+        <v>2.12</v>
       </c>
       <c r="AL76" t="n">
         <v>1.29</v>
       </c>
       <c r="AM76" t="n">
-        <v>2.1</v>
+        <v>1.17</v>
       </c>
       <c r="AN76" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AO76" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="AR76" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.34</v>
+        <v>1.74</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AU76" t="n">
         <v>6</v>
       </c>
       <c r="AV76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW76" t="n">
         <v>5</v>
       </c>
-      <c r="AW76" t="n">
-        <v>8</v>
-      </c>
       <c r="AX76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ76" t="n">
         <v>5</v>
       </c>
-      <c r="AY76" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ76" t="n">
+      <c r="BA76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC76" t="n">
         <v>10</v>
       </c>
-      <c r="BA76" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>8</v>
-      </c>
       <c r="BD76" t="n">
-        <v>1.41</v>
+        <v>3.49</v>
       </c>
       <c r="BE76" t="n">
         <v>9</v>
       </c>
       <c r="BF76" t="n">
-        <v>3.58</v>
+        <v>1.41</v>
       </c>
       <c r="BG76" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BH76" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BI76" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BJ76" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="BK76" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="BL76" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BM76" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="BN76" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="BO76" t="n">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="BP76" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="77">
@@ -17266,7 +17266,7 @@
         <v>1.43</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.77</v>
@@ -17570,7 +17570,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>5239132</v>
+        <v>5239131</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -17590,22 +17590,22 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
         <v>3</v>
@@ -17618,7 +17618,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['19', '22', '25']</t>
+          <t>['8', '23', '63']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -17627,121 +17627,121 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>2.8</v>
+        <v>4.07</v>
       </c>
       <c r="R79" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="S79" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="T79" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="U79" t="n">
-        <v>2.8</v>
+        <v>2.61</v>
       </c>
       <c r="V79" t="n">
-        <v>2.7</v>
+        <v>3.16</v>
       </c>
       <c r="W79" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X79" t="n">
-        <v>6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Z79" t="n">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="AA79" t="n">
-        <v>3.2</v>
+        <v>3.02</v>
       </c>
       <c r="AB79" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="AC79" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AD79" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AE79" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AF79" t="n">
-        <v>3.3</v>
+        <v>2.83</v>
       </c>
       <c r="AG79" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="AH79" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AI79" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="AJ79" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AK79" t="n">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="AL79" t="n">
         <v>1.33</v>
       </c>
       <c r="AM79" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AO79" t="n">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.75</v>
+        <v>1.07</v>
       </c>
       <c r="AR79" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.13</v>
+        <v>1.41</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.26</v>
+        <v>2.61</v>
       </c>
       <c r="AU79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB79" t="n">
         <v>6</v>
       </c>
-      <c r="AV79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>2</v>
-      </c>
       <c r="BC79" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD79" t="n">
         <v>0</v>
@@ -17788,7 +17788,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>5239131</v>
+        <v>5239132</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -17808,22 +17808,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
         <v>3</v>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['8', '23', '63']</t>
+          <t>['19', '22', '25']</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -17845,121 +17845,121 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>4.07</v>
+        <v>2.8</v>
       </c>
       <c r="R80" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="S80" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="T80" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="U80" t="n">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="V80" t="n">
-        <v>3.16</v>
+        <v>2.7</v>
       </c>
       <c r="W80" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X80" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z80" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="AA80" t="n">
-        <v>3.02</v>
+        <v>3.2</v>
       </c>
       <c r="AB80" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="AC80" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AE80" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AF80" t="n">
-        <v>2.83</v>
+        <v>3.3</v>
       </c>
       <c r="AG80" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="AH80" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="AI80" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AK80" t="n">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="AL80" t="n">
         <v>1.33</v>
       </c>
       <c r="AM80" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AN80" t="n">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AO80" t="n">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.15</v>
+        <v>0.77</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.61</v>
+        <v>2.26</v>
       </c>
       <c r="AU80" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY80" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA80" t="n">
         <v>7</v>
       </c>
-      <c r="BA80" t="n">
-        <v>8</v>
-      </c>
       <c r="BB80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC80" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD80" t="n">
         <v>0</v>
@@ -18356,10 +18356,10 @@
         <v>2.17</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ82" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR82" t="n">
         <v>1.42</v>
@@ -18574,7 +18574,7 @@
         <v>0.86</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.92</v>
@@ -18795,7 +18795,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR84" t="n">
         <v>1.61</v>
@@ -19010,10 +19010,10 @@
         <v>0.83</v>
       </c>
       <c r="AP85" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR85" t="n">
         <v>1.45</v>
@@ -19228,7 +19228,7 @@
         <v>1.29</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.29</v>
@@ -19449,7 +19449,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -19885,7 +19885,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR89" t="n">
         <v>1.77</v>
@@ -20103,7 +20103,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR90" t="n">
         <v>1.22</v>
@@ -20536,7 +20536,7 @@
         <v>2</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.54</v>
@@ -20757,7 +20757,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR93" t="n">
         <v>1.73</v>
@@ -20840,7 +20840,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>5239148</v>
+        <v>5239146</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -20860,143 +20860,143 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['90+5']</t>
+          <t>['12', '71', '80']</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>['47', '66']</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>3.14</v>
+        <v>2.3</v>
       </c>
       <c r="R94" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="S94" t="n">
-        <v>3.44</v>
+        <v>5.25</v>
       </c>
       <c r="T94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X94" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN94" t="n">
         <v>1.43</v>
       </c>
-      <c r="U94" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="V94" t="n">
-        <v>3</v>
-      </c>
-      <c r="W94" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X94" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>2</v>
-      </c>
       <c r="AO94" t="n">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.68</v>
+        <v>1.15</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
       <c r="AU94" t="n">
         <v>4</v>
       </c>
       <c r="AV94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW94" t="n">
         <v>6</v>
       </c>
       <c r="AX94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY94" t="n">
         <v>10</v>
@@ -21005,22 +21005,22 @@
         <v>7</v>
       </c>
       <c r="BA94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC94" t="n">
         <v>8</v>
       </c>
       <c r="BD94" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="BE94" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF94" t="n">
-        <v>2.28</v>
+        <v>2.66</v>
       </c>
       <c r="BG94" t="n">
         <v>1.2</v>
@@ -21058,7 +21058,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>5239146</v>
+        <v>5239147</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -21078,197 +21078,197 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['12', '71', '80']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R95" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S95" t="n">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
       <c r="T95" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U95" t="n">
-        <v>2.83</v>
+        <v>2.65</v>
       </c>
       <c r="V95" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="W95" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="X95" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="AA95" t="n">
-        <v>3.7</v>
+        <v>4.22</v>
       </c>
       <c r="AB95" t="n">
-        <v>4.2</v>
+        <v>7.15</v>
       </c>
       <c r="AC95" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD95" t="n">
-        <v>8.9</v>
+        <v>10.25</v>
       </c>
       <c r="AE95" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AF95" t="n">
         <v>3.2</v>
       </c>
       <c r="AG95" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="AH95" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AI95" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AJ95" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="AK95" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AL95" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AM95" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AN95" t="n">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AO95" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.54</v>
+        <v>2.14</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.15</v>
+        <v>1.52</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.45</v>
+        <v>2.91</v>
       </c>
       <c r="AU95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV95" t="n">
         <v>3</v>
       </c>
       <c r="AW95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX95" t="n">
         <v>6</v>
       </c>
-      <c r="AX95" t="n">
-        <v>4</v>
-      </c>
       <c r="AY95" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ95" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA95" t="n">
         <v>5</v>
       </c>
       <c r="BB95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC95" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD95" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="BE95" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF95" t="n">
-        <v>2.66</v>
+        <v>4.42</v>
       </c>
       <c r="BG95" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="BH95" t="n">
-        <v>4.25</v>
+        <v>3.7</v>
       </c>
       <c r="BI95" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BJ95" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BK95" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="BL95" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="BM95" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="BN95" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="BO95" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="BP95" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="96">
@@ -21276,7 +21276,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>5239147</v>
+        <v>5239148</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -21296,12 +21296,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -21317,176 +21317,176 @@
         <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['47', '66']</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>3.14</v>
       </c>
       <c r="R96" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S96" t="n">
-        <v>6.75</v>
+        <v>3.44</v>
       </c>
       <c r="T96" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U96" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X96" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB96" t="n">
         <v>2.65</v>
       </c>
-      <c r="V96" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="W96" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X96" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>7.15</v>
-      </c>
       <c r="AC96" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD96" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="AE96" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF96" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AG96" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="AH96" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AI96" t="n">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="AJ96" t="n">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="AK96" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="AL96" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AM96" t="n">
-        <v>2.6</v>
+        <v>1.51</v>
       </c>
       <c r="AN96" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AO96" t="n">
-        <v>0.86</v>
+        <v>1.86</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.31</v>
+        <v>1.54</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="AR96" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.91</v>
+        <v>2.99</v>
       </c>
       <c r="AU96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX96" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY96" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ96" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB96" t="n">
         <v>5</v>
       </c>
       <c r="BC96" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD96" t="n">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="BE96" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF96" t="n">
-        <v>4.42</v>
+        <v>2.28</v>
       </c>
       <c r="BG96" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BH96" t="n">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="BI96" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BJ96" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BK96" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="BL96" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="BM96" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="BN96" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="BO96" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="BP96" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="97">
@@ -21626,10 +21626,10 @@
         <v>0.71</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR97" t="n">
         <v>1.3</v>
@@ -21847,7 +21847,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR98" t="n">
         <v>1.37</v>
@@ -22065,7 +22065,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR99" t="n">
         <v>1.23</v>
@@ -22280,7 +22280,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.77</v>
@@ -22716,7 +22716,7 @@
         <v>1.89</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.31</v>
@@ -23155,7 +23155,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR104" t="n">
         <v>1.22</v>
@@ -23373,7 +23373,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR105" t="n">
         <v>1.27</v>
@@ -23588,10 +23588,10 @@
         <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR106" t="n">
         <v>1.46</v>
@@ -23806,10 +23806,10 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR107" t="n">
         <v>1.44</v>
@@ -24024,7 +24024,7 @@
         <v>1.13</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.29</v>
@@ -24463,7 +24463,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR110" t="n">
         <v>1.43</v>
@@ -24678,7 +24678,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.92</v>
@@ -24896,10 +24896,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR112" t="n">
         <v>1.5</v>
@@ -25117,7 +25117,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR113" t="n">
         <v>1.29</v>
@@ -25332,7 +25332,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.57</v>
@@ -25550,10 +25550,10 @@
         <v>1.11</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR115" t="n">
         <v>1.33</v>
@@ -25986,10 +25986,10 @@
         <v>0.75</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR117" t="n">
         <v>1.17</v>
@@ -26640,10 +26640,10 @@
         <v>0.6</v>
       </c>
       <c r="AP120" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR120" t="n">
         <v>1.4</v>
@@ -27294,10 +27294,10 @@
         <v>0.9</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR123" t="n">
         <v>1.57</v>
@@ -27512,10 +27512,10 @@
         <v>1</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR124" t="n">
         <v>1.52</v>
@@ -27733,7 +27733,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ125" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR125" t="n">
         <v>1.49</v>
@@ -27948,7 +27948,7 @@
         <v>1.7</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.77</v>
@@ -28166,10 +28166,10 @@
         <v>1.1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR127" t="n">
         <v>1.33</v>
@@ -28252,7 +28252,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>5239184</v>
+        <v>5239183</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -28272,62 +28272,62 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['7', '30']</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="R128" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S128" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T128" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U128" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V128" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W128" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X128" t="n">
         <v>7</v>
@@ -28336,94 +28336,94 @@
         <v>1.1</v>
       </c>
       <c r="Z128" t="n">
-        <v>2.64</v>
+        <v>3.11</v>
       </c>
       <c r="AA128" t="n">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="AB128" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
       <c r="AC128" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD128" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE128" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR128" t="n">
         <v>1.25</v>
       </c>
-      <c r="AF128" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM128" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AN128" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO128" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AP128" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ128" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AR128" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AS128" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="AU128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV128" t="n">
         <v>5</v>
       </c>
       <c r="AW128" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX128" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY128" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC128" t="n">
         <v>10</v>
-      </c>
-      <c r="BA128" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB128" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC128" t="n">
-        <v>11</v>
       </c>
       <c r="BD128" t="n">
         <v>2.39</v>
@@ -28435,7 +28435,7 @@
         <v>1.82</v>
       </c>
       <c r="BG128" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH128" t="n">
         <v>4.6</v>
@@ -28447,22 +28447,22 @@
         <v>3.1</v>
       </c>
       <c r="BK128" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="BL128" t="n">
-        <v>2.09</v>
+        <v>2.27</v>
       </c>
       <c r="BM128" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="BN128" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="BO128" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="BP128" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="129">
@@ -28470,7 +28470,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>5239183</v>
+        <v>5239182</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -28490,22 +28490,22 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
         <v>1</v>
@@ -28518,28 +28518,28 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>['7', '30']</t>
+          <t>['55', '71']</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R129" t="n">
         <v>2.2</v>
       </c>
       <c r="S129" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T129" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U129" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V129" t="n">
         <v>2.75</v>
@@ -28548,19 +28548,19 @@
         <v>1.4</v>
       </c>
       <c r="X129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y129" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z129" t="n">
-        <v>3.11</v>
+        <v>3.5</v>
       </c>
       <c r="AA129" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AB129" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="AC129" t="n">
         <v>1.05</v>
@@ -28569,88 +28569,88 @@
         <v>11</v>
       </c>
       <c r="AE129" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF129" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AG129" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="AH129" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AI129" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ129" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK129" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AL129" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM129" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AN129" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO129" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR129" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>2.59</v>
+        <v>2.7</v>
       </c>
       <c r="AU129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV129" t="n">
         <v>5</v>
       </c>
       <c r="AW129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY129" t="n">
         <v>7</v>
       </c>
       <c r="AZ129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA129" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC129" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD129" t="n">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="BE129" t="n">
         <v>8</v>
       </c>
       <c r="BF129" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="BG129" t="n">
         <v>1.18</v>
@@ -28665,22 +28665,22 @@
         <v>3.1</v>
       </c>
       <c r="BK129" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="BL129" t="n">
-        <v>2.27</v>
+        <v>2.09</v>
       </c>
       <c r="BM129" t="n">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="BN129" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="BO129" t="n">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="BP129" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="130">
@@ -28688,7 +28688,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>5239182</v>
+        <v>5239184</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -28708,170 +28708,170 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
       <c r="M130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>['55', '71']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="R130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S130" t="n">
+        <v>3</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X130" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ130" t="n">
         <v>2.2</v>
       </c>
-      <c r="S130" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T130" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U130" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V130" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W130" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X130" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AK130" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AL130" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AM130" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AN130" t="n">
         <v>1.2</v>
       </c>
       <c r="AO130" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="AR130" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AU130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV130" t="n">
         <v>5</v>
       </c>
       <c r="AW130" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AX130" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY130" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ130" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA130" t="n">
         <v>6</v>
       </c>
       <c r="BB130" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC130" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD130" t="n">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="BE130" t="n">
         <v>8</v>
       </c>
       <c r="BF130" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BG130" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH130" t="n">
         <v>4.6</v>
@@ -28889,10 +28889,10 @@
         <v>2.09</v>
       </c>
       <c r="BM130" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="BN130" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="BO130" t="n">
         <v>2.65</v>
@@ -29038,10 +29038,10 @@
         <v>0.9</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR131" t="n">
         <v>1.28</v>
@@ -29474,10 +29474,10 @@
         <v>2.1</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ133" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR133" t="n">
         <v>1.45</v>
@@ -29695,7 +29695,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR134" t="n">
         <v>1.42</v>
@@ -29910,7 +29910,7 @@
         <v>0.73</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.57</v>
@@ -30128,10 +30128,10 @@
         <v>0.82</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR136" t="n">
         <v>1.12</v>
@@ -30346,10 +30346,10 @@
         <v>1.27</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR137" t="n">
         <v>1.44</v>
@@ -30564,7 +30564,7 @@
         <v>1.36</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.29</v>
@@ -30785,7 +30785,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR139" t="n">
         <v>1.59</v>
@@ -30868,7 +30868,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>7200043</v>
+        <v>7200042</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -30888,197 +30888,197 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N140" t="n">
         <v>3</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['29', '48']</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>['37', '45+3', '64']</t>
+          <t>['84']</t>
         </is>
       </c>
       <c r="Q140" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S140" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U140" t="n">
         <v>2.88</v>
       </c>
-      <c r="R140" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S140" t="n">
+      <c r="V140" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X140" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU140" t="n">
         <v>4</v>
       </c>
-      <c r="T140" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U140" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V140" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W140" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X140" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y140" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z140" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AA140" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB140" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AC140" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD140" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE140" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AG140" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH140" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AI140" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK140" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AL140" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM140" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN140" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AO140" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AP140" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ140" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AR140" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AS140" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AT140" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU140" t="n">
-        <v>2</v>
-      </c>
       <c r="AV140" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX140" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY140" t="n">
         <v>5</v>
       </c>
       <c r="AZ140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA140" t="n">
         <v>9</v>
       </c>
-      <c r="BA140" t="n">
+      <c r="BB140" t="n">
         <v>6</v>
       </c>
-      <c r="BB140" t="n">
-        <v>2</v>
-      </c>
       <c r="BC140" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE140" t="n">
         <v>8</v>
       </c>
-      <c r="BD140" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BE140" t="n">
-        <v>8.5</v>
-      </c>
       <c r="BF140" t="n">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="BG140" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BH140" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="BI140" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BJ140" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="BK140" t="n">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="BL140" t="n">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="BM140" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="BN140" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="BO140" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BP140" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="141">
@@ -31086,7 +31086,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>7200042</v>
+        <v>7200041</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -31106,197 +31106,197 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
         <v>1</v>
       </c>
       <c r="L141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N141" t="n">
         <v>3</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>['29', '48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>['84']</t>
+          <t>['22', '49', '66']</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="R141" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="S141" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T141" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="U141" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="V141" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="W141" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y141" t="n">
         <v>1.08</v>
       </c>
       <c r="Z141" t="n">
-        <v>2.13</v>
+        <v>2.6</v>
       </c>
       <c r="AA141" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AB141" t="n">
-        <v>3.1</v>
+        <v>2.41</v>
       </c>
       <c r="AC141" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD141" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AE141" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AF141" t="n">
-        <v>3.32</v>
+        <v>4</v>
       </c>
       <c r="AG141" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="AH141" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AI141" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AJ141" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="AK141" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AL141" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AM141" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AN141" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AO141" t="n">
-        <v>1.55</v>
+        <v>0.83</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.31</v>
+        <v>0.92</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="AR141" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="AU141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC141" t="n">
         <v>4</v>
       </c>
-      <c r="AV141" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX141" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY141" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ141" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA141" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB141" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC141" t="n">
-        <v>15</v>
-      </c>
       <c r="BD141" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="BE141" t="n">
         <v>8</v>
       </c>
       <c r="BF141" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="BG141" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH141" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="BI141" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BJ141" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="BK141" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="BL141" t="n">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="BM141" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="BN141" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="BO141" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BP141" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="142">
@@ -31304,7 +31304,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>7200041</v>
+        <v>7200043</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -31324,22 +31324,22 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -31357,134 +31357,134 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>['22', '49', '66']</t>
+          <t>['37', '45+3', '64']</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="R142" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T142" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U142" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V142" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W142" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X142" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y142" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z142" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
       <c r="AA142" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB142" t="n">
-        <v>2.41</v>
+        <v>3.45</v>
       </c>
       <c r="AC142" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AD142" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE142" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AF142" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="AG142" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AH142" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AI142" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ142" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK142" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AL142" t="n">
         <v>1.3</v>
       </c>
       <c r="AM142" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AN142" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="AO142" t="n">
-        <v>0.83</v>
+        <v>1.58</v>
       </c>
       <c r="AP142" t="n">
-        <v>1</v>
+        <v>1.77</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1</v>
+        <v>1.79</v>
       </c>
       <c r="AR142" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AT142" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="AU142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ142" t="n">
         <v>9</v>
       </c>
-      <c r="AX142" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY142" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ142" t="n">
-        <v>14</v>
-      </c>
       <c r="BA142" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB142" t="n">
         <v>2</v>
       </c>
       <c r="BC142" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD142" t="n">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="BE142" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF142" t="n">
-        <v>1.95</v>
+        <v>2.78</v>
       </c>
       <c r="BG142" t="n">
         <v>1.18</v>
@@ -31514,7 +31514,7 @@
         <v>2.7</v>
       </c>
       <c r="BP142" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="143">
@@ -31657,7 +31657,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR143" t="n">
         <v>1.24</v>
@@ -31875,7 +31875,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR144" t="n">
         <v>1.68</v>
@@ -32090,7 +32090,7 @@
         <v>1.82</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.77</v>
@@ -32311,7 +32311,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR146" t="n">
         <v>1.32</v>
@@ -32526,7 +32526,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.29</v>
@@ -32744,7 +32744,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.57</v>
@@ -32965,7 +32965,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR149" t="n">
         <v>1.46</v>
@@ -34785,6 +34785,1314 @@
       </c>
       <c r="BP157" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7200059</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['13', '23']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>7200060</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3</v>
+      </c>
+      <c r="K159" t="n">
+        <v>4</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>5</v>
+      </c>
+      <c r="N159" t="n">
+        <v>6</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['31', '41', '44', '72', '86']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S159" t="n">
+        <v>3</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X159" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>7200061</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X160" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7200062</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45220.45833333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['8', '67']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S161" t="n">
+        <v>4</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7200063</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45220.45833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>3</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['24', '74', '84']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S162" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X162" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7200064</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45220.45833333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['27', '48']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>3</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.77</v>
@@ -1791,7 +1791,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.54</v>
@@ -4186,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.92</v>
@@ -4625,7 +4625,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR19" t="n">
         <v>1.59</v>
@@ -6016,7 +6016,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5239081</v>
+        <v>5239083</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -6032,201 +6032,201 @@
         <v>45051.5</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
         <v>3</v>
       </c>
-      <c r="L26" t="n">
-        <v>4</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6</v>
-      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>['1', '49', '60', '75']</t>
+          <t>['1', '53']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>['20', '39']</t>
+          <t>['71']</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="U26" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="V26" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="W26" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X26" t="n">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.6</v>
+        <v>3.16</v>
       </c>
       <c r="AB26" t="n">
-        <v>4.1</v>
+        <v>3.02</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF26" t="n">
         <v>3.4</v>
       </c>
       <c r="AG26" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AI26" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AM26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
         <v>1.85</v>
       </c>
-      <c r="AN26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.85</v>
+        <v>1.43</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE26" t="n">
         <v>9</v>
       </c>
-      <c r="BA26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>8.5</v>
-      </c>
       <c r="BF26" t="n">
-        <v>2.66</v>
+        <v>2.1</v>
       </c>
       <c r="BG26" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="BH26" t="n">
-        <v>4.45</v>
+        <v>3.34</v>
       </c>
       <c r="BI26" t="n">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="BJ26" t="n">
-        <v>3.04</v>
+        <v>2.44</v>
       </c>
       <c r="BK26" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="BL26" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="BM26" t="n">
-        <v>2</v>
+        <v>2.41</v>
       </c>
       <c r="BN26" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="BO26" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="BP26" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="27">
@@ -6369,7 +6369,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR27" t="n">
         <v>1.11</v>
@@ -6452,7 +6452,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>5239080</v>
+        <v>5239082</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -6472,185 +6472,185 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>3</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>['36', '90+2']</t>
+          <t>['36', '44', '81']</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="R28" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S28" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="U28" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="V28" t="n">
         <v>2.8</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE28" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM28" t="n">
+      <c r="BF28" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK28" t="n">
         <v>1.58</v>
       </c>
-      <c r="AN28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>20</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>1.56</v>
-      </c>
       <c r="BL28" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="BM28" t="n">
         <v>2</v>
@@ -6659,10 +6659,10 @@
         <v>1.8</v>
       </c>
       <c r="BO28" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="BP28" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="29">
@@ -6670,7 +6670,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>5239082</v>
+        <v>5239080</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -6690,185 +6690,185 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>3</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>['36', '44', '81']</t>
+          <t>['36', '90+2']</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="R29" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="U29" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="V29" t="n">
         <v>2.8</v>
       </c>
       <c r="W29" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="X29" t="n">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK29" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1.11</v>
-      </c>
       <c r="AL29" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AM29" t="n">
-        <v>2.8</v>
+        <v>1.58</v>
       </c>
       <c r="AN29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.99</v>
+        <v>1.57</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.98</v>
+        <v>1.73</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.97</v>
+        <v>3.3</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA29" t="n">
         <v>10</v>
       </c>
-      <c r="AX29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>3</v>
-      </c>
       <c r="BB29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC29" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="BE29" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF29" t="n">
-        <v>3.96</v>
+        <v>2.41</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BH29" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="BI29" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BJ29" t="n">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="BK29" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BL29" t="n">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="BM29" t="n">
         <v>2</v>
@@ -6877,10 +6877,10 @@
         <v>1.8</v>
       </c>
       <c r="BO29" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="BP29" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="30">
@@ -6888,7 +6888,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>5239083</v>
+        <v>5239081</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -6904,201 +6904,201 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
         <v>6</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>VPS</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Mariehamn</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3</v>
-      </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>['1', '53']</t>
+          <t>['1', '49', '60', '75']</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>['20', '39']</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U30" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="V30" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="W30" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X30" t="n">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.16</v>
+        <v>3.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>3.02</v>
+        <v>4.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF30" t="n">
         <v>3.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="AH30" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AI30" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AK30" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO30" t="n">
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.43</v>
+        <v>0.85</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
       </c>
       <c r="AV30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX30" t="n">
         <v>6</v>
       </c>
-      <c r="AW30" t="n">
+      <c r="AY30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB30" t="n">
         <v>6</v>
       </c>
-      <c r="AX30" t="n">
+      <c r="BC30" t="n">
         <v>9</v>
       </c>
-      <c r="AY30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>13</v>
-      </c>
       <c r="BD30" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="BE30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF30" t="n">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
       <c r="BG30" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="BH30" t="n">
-        <v>3.34</v>
+        <v>4.45</v>
       </c>
       <c r="BI30" t="n">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="BJ30" t="n">
-        <v>2.44</v>
+        <v>3.04</v>
       </c>
       <c r="BK30" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="BL30" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="BM30" t="n">
-        <v>2.41</v>
+        <v>2</v>
       </c>
       <c r="BN30" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="BO30" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="BP30" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="31">
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.77</v>
@@ -8328,7 +8328,7 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.15</v>
@@ -8414,7 +8414,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>5239091</v>
+        <v>5239089</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -8434,197 +8434,197 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['54', '63', '83', '89']</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="R37" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="S37" t="n">
-        <v>5.24</v>
+        <v>5.55</v>
       </c>
       <c r="T37" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="U37" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="V37" t="n">
-        <v>3.18</v>
+        <v>2.7</v>
       </c>
       <c r="W37" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X37" t="n">
-        <v>7.8</v>
+        <v>7.25</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AA37" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AB37" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD37" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AF37" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AI37" t="n">
         <v>1.95</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AK37" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AL37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AM37" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AN37" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.83</v>
+        <v>1.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.54</v>
+        <v>3.11</v>
       </c>
       <c r="AU37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV37" t="n">
         <v>3</v>
       </c>
       <c r="AW37" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY37" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC37" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD37" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BE37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BF37" t="n">
-        <v>3.26</v>
+        <v>3.38</v>
       </c>
       <c r="BG37" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="BH37" t="n">
-        <v>4.24</v>
+        <v>3.28</v>
       </c>
       <c r="BI37" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="BJ37" t="n">
-        <v>2.91</v>
+        <v>2.34</v>
       </c>
       <c r="BK37" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="BL37" t="n">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="BM37" t="n">
-        <v>2.04</v>
+        <v>2.49</v>
       </c>
       <c r="BN37" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="BO37" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="BP37" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="38">
@@ -8632,7 +8632,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>5239089</v>
+        <v>5239091</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -8652,197 +8652,197 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['54', '63', '83', '89']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>2.21</v>
+        <v>2.48</v>
       </c>
       <c r="R38" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="S38" t="n">
-        <v>5.55</v>
+        <v>5.24</v>
       </c>
       <c r="T38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.38</v>
       </c>
-      <c r="U38" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X38" t="n">
-        <v>7.25</v>
+        <v>7.8</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AA38" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD38" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AF38" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AG38" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AH38" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AI38" t="n">
         <v>1.95</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AK38" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AL38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM38" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AN38" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO38" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.14</v>
+        <v>1.53</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.11</v>
+        <v>2.54</v>
       </c>
       <c r="AU38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV38" t="n">
         <v>3</v>
       </c>
       <c r="AW38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX38" t="n">
         <v>4</v>
       </c>
-      <c r="AX38" t="n">
-        <v>2</v>
-      </c>
       <c r="AY38" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD38" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BE38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BF38" t="n">
-        <v>3.38</v>
+        <v>3.26</v>
       </c>
       <c r="BG38" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="BH38" t="n">
-        <v>3.28</v>
+        <v>4.24</v>
       </c>
       <c r="BI38" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="BJ38" t="n">
-        <v>2.34</v>
+        <v>2.91</v>
       </c>
       <c r="BK38" t="n">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="BL38" t="n">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="BM38" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="BN38" t="n">
-        <v>1.51</v>
+        <v>1.73</v>
       </c>
       <c r="BO38" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="BP38" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="39">
@@ -10944,7 +10944,7 @@
         <v>2.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.15</v>
@@ -11248,7 +11248,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>5239100</v>
+        <v>5239099</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -11268,197 +11268,197 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X50" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU50" t="n">
         <v>3</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>['17']</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>['64', '75']</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U50" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V50" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X50" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>5</v>
       </c>
       <c r="AV50" t="n">
         <v>7</v>
       </c>
       <c r="AW50" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ50" t="n">
         <v>15</v>
       </c>
-      <c r="AZ50" t="n">
-        <v>10</v>
-      </c>
       <c r="BA50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB50" t="n">
         <v>6</v>
       </c>
-      <c r="BB50" t="n">
-        <v>1</v>
-      </c>
       <c r="BC50" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD50" t="n">
-        <v>2.28</v>
+        <v>1.41</v>
       </c>
       <c r="BE50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF50" t="n">
-        <v>1.85</v>
+        <v>3.48</v>
       </c>
       <c r="BG50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH50" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BI50" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BJ50" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BK50" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="BL50" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="BM50" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BN50" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BO50" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="BP50" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="51">
@@ -11466,7 +11466,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>5239099</v>
+        <v>5239100</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -11486,197 +11486,197 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['17']</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>['64', '75']</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="R51" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S51" t="n">
-        <v>5.4</v>
+        <v>3.08</v>
       </c>
       <c r="T51" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="U51" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="V51" t="n">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="W51" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X51" t="n">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z51" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR51" t="n">
         <v>1.53</v>
       </c>
-      <c r="AA51" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AB51" t="n">
+      <c r="AS51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU51" t="n">
         <v>5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>3</v>
       </c>
       <c r="AV51" t="n">
         <v>7</v>
       </c>
       <c r="AW51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA51" t="n">
         <v>6</v>
       </c>
-      <c r="AX51" t="n">
+      <c r="BB51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE51" t="n">
         <v>8</v>
       </c>
-      <c r="AY51" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>9</v>
-      </c>
       <c r="BF51" t="n">
-        <v>3.48</v>
+        <v>1.85</v>
       </c>
       <c r="BG51" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH51" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="BI51" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BJ51" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="BK51" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="BL51" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="BM51" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="BN51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BO51" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="BP51" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="52">
@@ -12120,7 +12120,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>5239109</v>
+        <v>5239108</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -12140,197 +12140,197 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['44', '45+1', '53']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>['81', '85']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="R54" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="S54" t="n">
-        <v>4.7</v>
+        <v>5.23</v>
       </c>
       <c r="T54" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="V54" t="n">
-        <v>2.62</v>
+        <v>3.43</v>
       </c>
       <c r="W54" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="X54" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AA54" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AB54" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AC54" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AD54" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AF54" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AG54" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="AH54" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AI54" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="AJ54" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AK54" t="n">
         <v>1.18</v>
       </c>
       <c r="AL54" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AM54" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AN54" t="n">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.86</v>
+        <v>1.54</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="AU54" t="n">
         <v>5</v>
       </c>
       <c r="AV54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC54" t="n">
         <v>5</v>
       </c>
-      <c r="AW54" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>3</v>
-      </c>
       <c r="BD54" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="BE54" t="n">
-        <v>8.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BF54" t="n">
-        <v>3.07</v>
+        <v>3.22</v>
       </c>
       <c r="BG54" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BH54" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="BI54" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="BJ54" t="n">
-        <v>3.04</v>
+        <v>2.7</v>
       </c>
       <c r="BK54" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="BL54" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BM54" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN54" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="BO54" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BP54" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="55">
@@ -12774,7 +12774,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>5239108</v>
+        <v>5239109</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -12794,197 +12794,197 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['44', '45+1', '53']</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['81', '85']</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="R57" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="S57" t="n">
-        <v>5.23</v>
+        <v>4.7</v>
       </c>
       <c r="T57" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="U57" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
-        <v>3.43</v>
+        <v>2.62</v>
       </c>
       <c r="W57" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="X57" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AA57" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AB57" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AC57" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AD57" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AF57" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="AH57" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AI57" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AK57" t="n">
         <v>1.18</v>
       </c>
       <c r="AL57" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM57" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AN57" t="n">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="AO57" t="n">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.54</v>
+        <v>0.86</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.85</v>
+        <v>2.68</v>
       </c>
       <c r="AU57" t="n">
         <v>5</v>
       </c>
       <c r="AV57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ57" t="n">
         <v>6</v>
       </c>
-      <c r="AW57" t="n">
+      <c r="BA57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC57" t="n">
         <v>3</v>
       </c>
-      <c r="AX57" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>5</v>
-      </c>
       <c r="BD57" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="BE57" t="n">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="BF57" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
       <c r="BG57" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BH57" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BI57" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="BJ57" t="n">
-        <v>2.7</v>
+        <v>3.04</v>
       </c>
       <c r="BK57" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="BL57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BM57" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="BO57" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BP57" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58">
@@ -13210,7 +13210,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>5239115</v>
+        <v>5239113</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -13230,197 +13230,197 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['30', '37']</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>['29']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>2.85</v>
+        <v>2.17</v>
       </c>
       <c r="R59" t="n">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="S59" t="n">
-        <v>3.8</v>
+        <v>5.45</v>
       </c>
       <c r="T59" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="U59" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="V59" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="W59" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="X59" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="AA59" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AB59" t="n">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="AC59" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AD59" t="n">
-        <v>7.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE59" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AF59" t="n">
-        <v>2.75</v>
+        <v>3.32</v>
       </c>
       <c r="AG59" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AH59" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AI59" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AK59" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AL59" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM59" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="AN59" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO59" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.43</v>
+        <v>2.77</v>
       </c>
       <c r="AU59" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV59" t="n">
         <v>4</v>
       </c>
       <c r="AW59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ59" t="n">
         <v>4</v>
       </c>
-      <c r="AY59" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ59" t="n">
+      <c r="BA59" t="n">
         <v>8</v>
       </c>
-      <c r="BA59" t="n">
-        <v>7</v>
-      </c>
       <c r="BB59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC59" t="n">
         <v>12</v>
       </c>
       <c r="BD59" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="BE59" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BF59" t="n">
-        <v>2.44</v>
+        <v>3.48</v>
       </c>
       <c r="BG59" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="BH59" t="n">
-        <v>4.15</v>
+        <v>4.74</v>
       </c>
       <c r="BI59" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="BJ59" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="BK59" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="BL59" t="n">
-        <v>2.11</v>
+        <v>2.24</v>
       </c>
       <c r="BM59" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="BN59" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="BO59" t="n">
-        <v>2.63</v>
+        <v>2.41</v>
       </c>
       <c r="BP59" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="60">
@@ -13428,7 +13428,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>5239114</v>
+        <v>5239115</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -13448,19 +13448,19 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -13469,176 +13469,176 @@
         <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X60" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA60" t="n">
         <v>3</v>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>['3']</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>['48', '74']</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="S60" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T60" t="n">
+      <c r="AB60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE60" t="n">
         <v>1.39</v>
       </c>
-      <c r="U60" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V60" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X60" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AF60" t="n">
-        <v>3.26</v>
+        <v>2.75</v>
       </c>
       <c r="AG60" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AH60" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AI60" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AK60" t="n">
-        <v>2.12</v>
+        <v>1.32</v>
       </c>
       <c r="AL60" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AM60" t="n">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS60" t="n">
         <v>1.2</v>
       </c>
-      <c r="AP60" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AT60" t="n">
-        <v>3.32</v>
+        <v>2.43</v>
       </c>
       <c r="AU60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV60" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX60" t="n">
         <v>4</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>5</v>
       </c>
       <c r="AY60" t="n">
         <v>9</v>
       </c>
       <c r="AZ60" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA60" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC60" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BD60" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="BE60" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF60" t="n">
-        <v>1.45</v>
+        <v>2.44</v>
       </c>
       <c r="BG60" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="BH60" t="n">
-        <v>3.48</v>
+        <v>4.15</v>
       </c>
       <c r="BI60" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="BJ60" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="BK60" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="BL60" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="BM60" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="BN60" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="BO60" t="n">
-        <v>3.08</v>
+        <v>2.63</v>
       </c>
       <c r="BP60" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="61">
@@ -13646,7 +13646,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>5239113</v>
+        <v>5239114</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -13666,50 +13666,50 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
         <v>3</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['30', '37']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['48', '74']</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>2.17</v>
+        <v>5.2</v>
       </c>
       <c r="R61" t="n">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="S61" t="n">
-        <v>5.45</v>
+        <v>2.26</v>
       </c>
       <c r="T61" t="n">
         <v>1.39</v>
@@ -13718,37 +13718,37 @@
         <v>2.88</v>
       </c>
       <c r="V61" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="W61" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X61" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y61" t="n">
         <v>1.08</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.57</v>
+        <v>4.8</v>
       </c>
       <c r="AA61" t="n">
         <v>3.6</v>
       </c>
       <c r="AB61" t="n">
-        <v>5.25</v>
+        <v>1.61</v>
       </c>
       <c r="AC61" t="n">
         <v>1.02</v>
       </c>
       <c r="AD61" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AE61" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AF61" t="n">
-        <v>3.32</v>
+        <v>3.26</v>
       </c>
       <c r="AG61" t="n">
         <v>1.83</v>
@@ -13757,106 +13757,106 @@
         <v>1.83</v>
       </c>
       <c r="AI61" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AK61" t="n">
-        <v>1.15</v>
+        <v>2.12</v>
       </c>
       <c r="AL61" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM61" t="n">
-        <v>2.3</v>
+        <v>1.18</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP61" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ61" t="n">
         <v>1.77</v>
       </c>
-      <c r="AQ61" t="n">
-        <v>0.86</v>
-      </c>
       <c r="AR61" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.77</v>
+        <v>3.32</v>
       </c>
       <c r="AU61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV61" t="n">
         <v>9</v>
       </c>
-      <c r="AV61" t="n">
+      <c r="AW61" t="n">
         <v>4</v>
       </c>
-      <c r="AW61" t="n">
+      <c r="AX61" t="n">
         <v>5</v>
       </c>
-      <c r="AX61" t="n">
-        <v>0</v>
-      </c>
       <c r="AY61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ61" t="n">
         <v>14</v>
       </c>
-      <c r="AZ61" t="n">
-        <v>4</v>
-      </c>
       <c r="BA61" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BB61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC61" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BD61" t="n">
-        <v>1.41</v>
+        <v>3.26</v>
       </c>
       <c r="BE61" t="n">
         <v>9</v>
       </c>
       <c r="BF61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH61" t="n">
         <v>3.48</v>
       </c>
-      <c r="BG61" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="BH61" t="n">
-        <v>4.74</v>
-      </c>
       <c r="BI61" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="BJ61" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="BK61" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="BL61" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="BM61" t="n">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="BN61" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="BO61" t="n">
-        <v>2.41</v>
+        <v>3.08</v>
       </c>
       <c r="BP61" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="62">
@@ -13864,7 +13864,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>5239112</v>
+        <v>5239111</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -13884,12 +13884,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -13902,179 +13902,179 @@
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['22', '53']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['70']</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>2.37</v>
+        <v>2.17</v>
       </c>
       <c r="R62" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="S62" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="U62" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="V62" t="n">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="W62" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="X62" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="AA62" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AB62" t="n">
         <v>4.8</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AD62" t="n">
-        <v>7.25</v>
+        <v>14.25</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AF62" t="n">
-        <v>2.65</v>
+        <v>4.08</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AI62" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="AK62" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AL62" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AM62" t="n">
-        <v>1.98</v>
+        <v>2.29</v>
       </c>
       <c r="AN62" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO62" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.31</v>
+        <v>0.57</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.99</v>
+        <v>3.07</v>
       </c>
       <c r="AU62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV62" t="n">
         <v>6</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>2</v>
       </c>
       <c r="AW62" t="n">
         <v>5</v>
       </c>
       <c r="AX62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ62" t="n">
         <v>11</v>
       </c>
-      <c r="AZ62" t="n">
+      <c r="BA62" t="n">
         <v>6</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>5</v>
       </c>
       <c r="BB62" t="n">
         <v>4</v>
       </c>
       <c r="BC62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD62" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BE62" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BF62" t="n">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="BG62" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="BH62" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="BI62" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="BJ62" t="n">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="BK62" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="BL62" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="BM62" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="BN62" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="BO62" t="n">
-        <v>3.08</v>
+        <v>2.4</v>
       </c>
       <c r="BP62" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63">
@@ -14082,7 +14082,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>5239111</v>
+        <v>5239112</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -14102,12 +14102,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -14120,179 +14120,179 @@
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['22', '53']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>['70']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>2.17</v>
+        <v>2.37</v>
       </c>
       <c r="R63" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="S63" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="T63" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="U63" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="V63" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="W63" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="X63" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AA63" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AB63" t="n">
         <v>4.8</v>
       </c>
       <c r="AC63" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AD63" t="n">
-        <v>14.25</v>
+        <v>7.25</v>
       </c>
       <c r="AE63" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AF63" t="n">
-        <v>4.08</v>
+        <v>2.65</v>
       </c>
       <c r="AG63" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="AH63" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="AK63" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AL63" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AM63" t="n">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="AN63" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO63" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="AT63" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="AU63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW63" t="n">
         <v>5</v>
       </c>
       <c r="AX63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA63" t="n">
         <v>5</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>6</v>
       </c>
       <c r="BB63" t="n">
         <v>4</v>
       </c>
       <c r="BC63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD63" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BE63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BF63" t="n">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="BG63" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="BH63" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="BI63" t="n">
-        <v>1.34</v>
+        <v>1.54</v>
       </c>
       <c r="BJ63" t="n">
-        <v>3</v>
+        <v>2.31</v>
       </c>
       <c r="BK63" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="BL63" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="BM63" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="BN63" t="n">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="BO63" t="n">
-        <v>2.4</v>
+        <v>3.08</v>
       </c>
       <c r="BP63" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="64">
@@ -14432,7 +14432,7 @@
         <v>0.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.79</v>
@@ -15958,7 +15958,7 @@
         <v>0.2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.79</v>
@@ -16612,10 +16612,10 @@
         <v>1.83</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR74" t="n">
         <v>1.6</v>
@@ -17266,7 +17266,7 @@
         <v>1.43</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.77</v>
@@ -17352,7 +17352,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>5239130</v>
+        <v>5239131</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -17368,162 +17368,162 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F78" t="n">
+        <v>14</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['8', '23', '63']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X78" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY78" t="n">
         <v>13</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Ilves</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>SJK</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>['55']</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>['70']</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S78" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V78" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W78" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X78" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX78" t="n">
+      <c r="AZ78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB78" t="n">
         <v>6</v>
       </c>
-      <c r="AY78" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>8</v>
-      </c>
       <c r="BC78" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD78" t="n">
         <v>0</v>
@@ -17570,7 +17570,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>5239131</v>
+        <v>5239132</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -17590,22 +17590,22 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79" t="n">
         <v>3</v>
@@ -17618,7 +17618,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['8', '23', '63']</t>
+          <t>['19', '22', '25']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -17627,121 +17627,121 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>4.07</v>
+        <v>2.8</v>
       </c>
       <c r="R79" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="S79" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="T79" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="U79" t="n">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="V79" t="n">
-        <v>3.16</v>
+        <v>2.7</v>
       </c>
       <c r="W79" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X79" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="Z79" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="AA79" t="n">
-        <v>3.02</v>
+        <v>3.2</v>
       </c>
       <c r="AB79" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="AC79" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AD79" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AE79" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AF79" t="n">
-        <v>2.83</v>
+        <v>3.3</v>
       </c>
       <c r="AG79" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="AH79" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="AI79" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AK79" t="n">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="AL79" t="n">
         <v>1.33</v>
       </c>
       <c r="AM79" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AN79" t="n">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AO79" t="n">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.07</v>
+        <v>0.77</v>
       </c>
       <c r="AR79" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.61</v>
+        <v>2.26</v>
       </c>
       <c r="AU79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX79" t="n">
         <v>3</v>
       </c>
-      <c r="AW79" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>4</v>
-      </c>
       <c r="AY79" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA79" t="n">
         <v>7</v>
       </c>
-      <c r="BA79" t="n">
-        <v>8</v>
-      </c>
       <c r="BB79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC79" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD79" t="n">
         <v>0</v>
@@ -17788,7 +17788,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>5239132</v>
+        <v>5239130</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -17804,162 +17804,162 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F80" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X80" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU80" t="n">
         <v>3</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
+      <c r="AV80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW80" t="n">
         <v>3</v>
       </c>
-      <c r="L80" t="n">
-        <v>3</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>3</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>['19', '22', '25']</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R80" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S80" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U80" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V80" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X80" t="n">
+      <c r="AX80" t="n">
         <v>6</v>
       </c>
-      <c r="Y80" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AU80" t="n">
+      <c r="AY80" t="n">
         <v>6</v>
       </c>
-      <c r="AV80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>7</v>
-      </c>
       <c r="AZ80" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA80" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB80" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC80" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD80" t="n">
         <v>0</v>
@@ -19228,7 +19228,7 @@
         <v>1.29</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.29</v>
@@ -19667,7 +19667,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR88" t="n">
         <v>1.26</v>
@@ -20321,7 +20321,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR91" t="n">
         <v>1.3</v>
@@ -22280,7 +22280,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.77</v>
@@ -22716,10 +22716,10 @@
         <v>1.89</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR102" t="n">
         <v>1.52</v>
@@ -24896,7 +24896,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.07</v>
@@ -25332,7 +25332,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.57</v>
@@ -27294,7 +27294,7 @@
         <v>0.9</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.86</v>
@@ -27380,7 +27380,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>5239177</v>
+        <v>5239178</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -27400,197 +27400,197 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L124" t="n">
         <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>['61', '72']</t>
+          <t>['14', '37']</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+4', '48']</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="R124" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S124" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="T124" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U124" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V124" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W124" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X124" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y124" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z124" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="AA124" t="n">
         <v>3.1</v>
       </c>
       <c r="AB124" t="n">
-        <v>4</v>
+        <v>1.87</v>
       </c>
       <c r="AC124" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD124" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE124" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AF124" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AG124" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AH124" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AI124" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AJ124" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.13</v>
+        <v>1.85</v>
       </c>
       <c r="AL124" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM124" t="n">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="AN124" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="AO124" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.14</v>
+        <v>2.15</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AU124" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV124" t="n">
         <v>4</v>
       </c>
       <c r="AW124" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY124" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AZ124" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB124" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC124" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD124" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="BE124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF124" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="BG124" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="BH124" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="BI124" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BJ124" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="BK124" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="BL124" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM124" t="n">
         <v>2.23</v>
       </c>
-      <c r="BM124" t="n">
-        <v>2.02</v>
-      </c>
       <c r="BN124" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="BO124" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BP124" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="125">
@@ -27598,7 +27598,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>5239178</v>
+        <v>5239177</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -27618,197 +27618,197 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>2</v>
       </c>
       <c r="M125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>['14', '37']</t>
+          <t>['61', '72']</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>['45+4', '48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="R125" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S125" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="T125" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U125" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V125" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W125" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y125" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z125" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="AA125" t="n">
         <v>3.1</v>
       </c>
       <c r="AB125" t="n">
-        <v>1.87</v>
+        <v>4</v>
       </c>
       <c r="AC125" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD125" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE125" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AF125" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AG125" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI125" t="n">
         <v>2.05</v>
       </c>
-      <c r="AH125" t="n">
+      <c r="AJ125" t="n">
         <v>1.7</v>
       </c>
-      <c r="AI125" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AK125" t="n">
-        <v>1.85</v>
+        <v>1.13</v>
       </c>
       <c r="AL125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS125" t="n">
         <v>1.28</v>
       </c>
-      <c r="AM125" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO125" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AP125" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ125" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AR125" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AS125" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AT125" t="n">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AU125" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV125" t="n">
         <v>4</v>
       </c>
       <c r="AW125" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB125" t="n">
         <v>4</v>
       </c>
-      <c r="AY125" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ125" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA125" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB125" t="n">
+      <c r="BC125" t="n">
         <v>9</v>
       </c>
-      <c r="BC125" t="n">
-        <v>12</v>
-      </c>
       <c r="BD125" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="BE125" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF125" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="BG125" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BH125" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="BI125" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BJ125" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="BK125" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN125" t="n">
         <v>1.74</v>
       </c>
-      <c r="BL125" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="BM125" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BN125" t="n">
-        <v>1.6</v>
-      </c>
       <c r="BO125" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BP125" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="126">
@@ -28252,7 +28252,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>5239183</v>
+        <v>5239179</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -28272,197 +28272,197 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
         <v>3</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>['5', '60']</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>['7', '30']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="R128" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S128" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="T128" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U128" t="n">
         <v>3</v>
       </c>
       <c r="V128" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="W128" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y128" t="n">
         <v>1.1</v>
       </c>
       <c r="Z128" t="n">
-        <v>3.11</v>
+        <v>2.06</v>
       </c>
       <c r="AA128" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AB128" t="n">
-        <v>1.97</v>
+        <v>3.1</v>
       </c>
       <c r="AC128" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD128" t="n">
-        <v>11</v>
+        <v>13.75</v>
       </c>
       <c r="AE128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL128" t="n">
         <v>1.28</v>
       </c>
-      <c r="AF128" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AM128" t="n">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
       <c r="AN128" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="AO128" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.77</v>
+        <v>1.54</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.79</v>
+        <v>1.29</v>
       </c>
       <c r="AR128" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.59</v>
+        <v>2.97</v>
       </c>
       <c r="AU128" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV128" t="n">
         <v>5</v>
       </c>
       <c r="AW128" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY128" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA128" t="n">
         <v>7</v>
       </c>
-      <c r="AZ128" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA128" t="n">
-        <v>8</v>
-      </c>
       <c r="BB128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC128" t="n">
         <v>10</v>
       </c>
       <c r="BD128" t="n">
-        <v>2.39</v>
+        <v>1.64</v>
       </c>
       <c r="BE128" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF128" t="n">
-        <v>1.82</v>
+        <v>2.66</v>
       </c>
       <c r="BG128" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="BH128" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="BI128" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BJ128" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="BK128" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="BL128" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="BM128" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="BN128" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="BO128" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="BP128" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="129">
@@ -28470,7 +28470,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>5239182</v>
+        <v>5239180</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -28490,50 +28490,50 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
         <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M129" t="n">
         <v>2</v>
       </c>
       <c r="N129" t="n">
+        <v>5</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['58', '63', '67']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['14', '84']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S129" t="n">
         <v>3</v>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>['13']</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>['55', '71']</t>
-        </is>
-      </c>
-      <c r="Q129" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="R129" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S129" t="n">
-        <v>2.5</v>
       </c>
       <c r="T129" t="n">
         <v>1.4</v>
@@ -28542,145 +28542,145 @@
         <v>2.75</v>
       </c>
       <c r="V129" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="W129" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X129" t="n">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="Y129" t="n">
         <v>1.08</v>
       </c>
       <c r="Z129" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AA129" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="AB129" t="n">
-        <v>1.92</v>
+        <v>2.41</v>
       </c>
       <c r="AC129" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD129" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE129" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AF129" t="n">
         <v>3.5</v>
       </c>
       <c r="AG129" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AH129" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AI129" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AJ129" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AK129" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AL129" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AM129" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AN129" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AO129" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.92</v>
+        <v>1.21</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR129" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AT129" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="AU129" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV129" t="n">
         <v>5</v>
       </c>
       <c r="AW129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA129" t="n">
         <v>8</v>
-      </c>
-      <c r="BA129" t="n">
-        <v>6</v>
       </c>
       <c r="BB129" t="n">
         <v>3</v>
       </c>
       <c r="BC129" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD129" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="BE129" t="n">
         <v>8</v>
       </c>
       <c r="BF129" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="BG129" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BH129" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="BI129" t="n">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="BJ129" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="BK129" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BL129" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="BM129" t="n">
-        <v>2.13</v>
+        <v>2.41</v>
       </c>
       <c r="BN129" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="BO129" t="n">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BP129" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="130">
@@ -28688,7 +28688,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>5239184</v>
+        <v>5239181</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -28708,197 +28708,197 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>['44', '50']</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '58']</t>
         </is>
       </c>
       <c r="Q130" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S130" t="n">
+        <v>4</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V130" t="n">
         <v>3.25</v>
       </c>
-      <c r="R130" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S130" t="n">
+      <c r="W130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X130" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA130" t="n">
         <v>3</v>
       </c>
-      <c r="T130" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U130" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V130" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W130" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X130" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>3.26</v>
-      </c>
       <c r="AB130" t="n">
-        <v>2.26</v>
+        <v>3.3</v>
       </c>
       <c r="AC130" t="n">
         <v>1.04</v>
       </c>
       <c r="AD130" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AE130" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AF130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV130" t="n">
         <v>4</v>
       </c>
-      <c r="AG130" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM130" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO130" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AP130" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ130" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AR130" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AS130" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AT130" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AU130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV130" t="n">
+      <c r="AW130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA130" t="n">
         <v>5</v>
       </c>
-      <c r="AW130" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX130" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY130" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ130" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA130" t="n">
-        <v>6</v>
-      </c>
       <c r="BB130" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC130" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD130" t="n">
-        <v>2.39</v>
+        <v>1.75</v>
       </c>
       <c r="BE130" t="n">
         <v>8</v>
       </c>
       <c r="BF130" t="n">
-        <v>1.82</v>
+        <v>2.42</v>
       </c>
       <c r="BG130" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="BH130" t="n">
-        <v>4.6</v>
+        <v>2.93</v>
       </c>
       <c r="BI130" t="n">
-        <v>1.34</v>
+        <v>1.76</v>
       </c>
       <c r="BJ130" t="n">
-        <v>3.1</v>
+        <v>2.03</v>
       </c>
       <c r="BK130" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="BL130" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="BM130" t="n">
-        <v>2.12</v>
+        <v>2.47</v>
       </c>
       <c r="BN130" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="BO130" t="n">
-        <v>2.65</v>
+        <v>3.84</v>
       </c>
       <c r="BP130" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="131">
@@ -28906,7 +28906,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>5239180</v>
+        <v>5239182</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -28926,50 +28926,50 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>1</v>
       </c>
       <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2</v>
+      </c>
+      <c r="N131" t="n">
         <v>3</v>
       </c>
-      <c r="M131" t="n">
-        <v>2</v>
-      </c>
-      <c r="N131" t="n">
-        <v>5</v>
-      </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>['58', '63', '67']</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>['14', '84']</t>
+          <t>['55', '71']</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>3.67</v>
+        <v>4.5</v>
       </c>
       <c r="R131" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="S131" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T131" t="n">
         <v>1.4</v>
@@ -28978,145 +28978,145 @@
         <v>2.75</v>
       </c>
       <c r="V131" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="W131" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X131" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="Y131" t="n">
         <v>1.08</v>
       </c>
       <c r="Z131" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AA131" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="AB131" t="n">
-        <v>2.41</v>
+        <v>1.92</v>
       </c>
       <c r="AC131" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD131" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE131" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AF131" t="n">
         <v>3.5</v>
       </c>
       <c r="AG131" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AH131" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AI131" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AJ131" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AK131" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AL131" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AM131" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AN131" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AO131" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR131" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="AU131" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV131" t="n">
         <v>5</v>
       </c>
       <c r="AW131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ131" t="n">
         <v>8</v>
       </c>
-      <c r="AZ131" t="n">
+      <c r="BA131" t="n">
         <v>6</v>
-      </c>
-      <c r="BA131" t="n">
-        <v>8</v>
       </c>
       <c r="BB131" t="n">
         <v>3</v>
       </c>
       <c r="BC131" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD131" t="n">
-        <v>1.91</v>
+        <v>2.28</v>
       </c>
       <c r="BE131" t="n">
         <v>8</v>
       </c>
       <c r="BF131" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="BG131" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BH131" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="BI131" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="BJ131" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="BK131" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="BL131" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="BM131" t="n">
-        <v>2.41</v>
+        <v>2.13</v>
       </c>
       <c r="BN131" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="BO131" t="n">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="BP131" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="132">
@@ -29124,7 +29124,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>5239179</v>
+        <v>5239183</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -29144,197 +29144,197 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N132" t="n">
         <v>3</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>['5', '60']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>['7', '30']</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="R132" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S132" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="T132" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U132" t="n">
         <v>3</v>
       </c>
       <c r="V132" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="W132" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X132" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y132" t="n">
         <v>1.1</v>
       </c>
       <c r="Z132" t="n">
-        <v>2.06</v>
+        <v>3.11</v>
       </c>
       <c r="AA132" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AB132" t="n">
-        <v>3.1</v>
+        <v>1.97</v>
       </c>
       <c r="AC132" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD132" t="n">
-        <v>13.75</v>
+        <v>11</v>
       </c>
       <c r="AE132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR132" t="n">
         <v>1.25</v>
       </c>
-      <c r="AF132" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM132" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AO132" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AP132" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AQ132" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AR132" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AS132" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.97</v>
+        <v>2.59</v>
       </c>
       <c r="AU132" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV132" t="n">
         <v>5</v>
       </c>
       <c r="AW132" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY132" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ132" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC132" t="n">
         <v>10</v>
       </c>
       <c r="BD132" t="n">
-        <v>1.64</v>
+        <v>2.39</v>
       </c>
       <c r="BE132" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF132" t="n">
-        <v>2.66</v>
+        <v>1.82</v>
       </c>
       <c r="BG132" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BH132" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="BI132" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BJ132" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="BK132" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="BL132" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="BM132" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="BN132" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="BO132" t="n">
-        <v>3.05</v>
+        <v>2.46</v>
       </c>
       <c r="BP132" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="133">
@@ -29342,7 +29342,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>5239181</v>
+        <v>5239184</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -29362,197 +29362,197 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>['44', '50']</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>['14', '58']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R133" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W133" t="n">
         <v>1.44</v>
       </c>
-      <c r="U133" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V133" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W133" t="n">
-        <v>1.33</v>
-      </c>
       <c r="X133" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y133" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z133" t="n">
-        <v>2.05</v>
+        <v>2.64</v>
       </c>
       <c r="AA133" t="n">
-        <v>3</v>
+        <v>3.26</v>
       </c>
       <c r="AB133" t="n">
-        <v>3.3</v>
+        <v>2.26</v>
       </c>
       <c r="AC133" t="n">
         <v>1.04</v>
       </c>
       <c r="AD133" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="AE133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL133" t="n">
         <v>1.33</v>
       </c>
-      <c r="AF133" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH133" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>1.32</v>
-      </c>
       <c r="AM133" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="AN133" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="AO133" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.14</v>
+        <v>1.57</v>
       </c>
       <c r="AQ133" t="n">
-        <v>2.15</v>
+        <v>1.54</v>
       </c>
       <c r="AR133" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="AU133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA133" t="n">
         <v>6</v>
       </c>
-      <c r="AV133" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW133" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX133" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY133" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ133" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA133" t="n">
+      <c r="BB133" t="n">
         <v>5</v>
       </c>
-      <c r="BB133" t="n">
-        <v>3</v>
-      </c>
       <c r="BC133" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD133" t="n">
-        <v>1.75</v>
+        <v>2.39</v>
       </c>
       <c r="BE133" t="n">
         <v>8</v>
       </c>
       <c r="BF133" t="n">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
       <c r="BG133" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="BH133" t="n">
-        <v>2.93</v>
+        <v>4.6</v>
       </c>
       <c r="BI133" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="BJ133" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="BK133" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="BL133" t="n">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="BM133" t="n">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="BN133" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BO133" t="n">
-        <v>3.84</v>
+        <v>2.65</v>
       </c>
       <c r="BP133" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="134">
@@ -29560,7 +29560,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>7200035</v>
+        <v>7200036</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -29580,197 +29580,197 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L134" t="n">
         <v>2</v>
       </c>
       <c r="M134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>['12', '35']</t>
+          <t>['18', '24']</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>['86', '90+3']</t>
+          <t>['16']</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>2.59</v>
+        <v>2.71</v>
       </c>
       <c r="R134" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S134" t="n">
-        <v>4.1</v>
+        <v>3.78</v>
       </c>
       <c r="T134" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="U134" t="n">
-        <v>2.88</v>
+        <v>2.99</v>
       </c>
       <c r="V134" t="n">
-        <v>2.78</v>
+        <v>2.71</v>
       </c>
       <c r="W134" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X134" t="n">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="Y134" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z134" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AA134" t="n">
         <v>3.2</v>
       </c>
       <c r="AB134" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AC134" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD134" t="n">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE134" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AF134" t="n">
-        <v>3.32</v>
+        <v>3.48</v>
       </c>
       <c r="AG134" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AH134" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AI134" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AJ134" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="AK134" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AL134" t="n">
         <v>1.3</v>
       </c>
       <c r="AM134" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AN134" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AO134" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AR134" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU134" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV134" t="n">
         <v>4</v>
       </c>
-      <c r="AV134" t="n">
+      <c r="AW134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ134" t="n">
         <v>6</v>
       </c>
-      <c r="AW134" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX134" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY134" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ134" t="n">
-        <v>13</v>
-      </c>
       <c r="BA134" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BB134" t="n">
         <v>6</v>
       </c>
       <c r="BC134" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD134" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="BE134" t="n">
         <v>8</v>
       </c>
       <c r="BF134" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="BG134" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH134" t="n">
-        <v>4.3</v>
+        <v>3.88</v>
       </c>
       <c r="BI134" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="BJ134" t="n">
-        <v>2.93</v>
+        <v>2.72</v>
       </c>
       <c r="BK134" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="BL134" t="n">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="BM134" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="BN134" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="BO134" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="BP134" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="135">
@@ -29778,7 +29778,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>7200036</v>
+        <v>7200035</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -29798,197 +29798,197 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L135" t="n">
         <v>2</v>
       </c>
       <c r="M135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>['18', '24']</t>
+          <t>['12', '35']</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>['16']</t>
+          <t>['86', '90+3']</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>2.71</v>
+        <v>2.59</v>
       </c>
       <c r="R135" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="S135" t="n">
-        <v>3.78</v>
+        <v>4.1</v>
       </c>
       <c r="T135" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U135" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="V135" t="n">
-        <v>2.71</v>
+        <v>2.78</v>
       </c>
       <c r="W135" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X135" t="n">
-        <v>6.65</v>
+        <v>7</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z135" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AA135" t="n">
         <v>3.2</v>
       </c>
       <c r="AB135" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AC135" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD135" t="n">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE135" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AF135" t="n">
-        <v>3.48</v>
+        <v>3.32</v>
       </c>
       <c r="AG135" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AH135" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AI135" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="AJ135" t="n">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="AK135" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AL135" t="n">
         <v>1.3</v>
       </c>
       <c r="AM135" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AN135" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AO135" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR135" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="AU135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV135" t="n">
         <v>6</v>
       </c>
-      <c r="AV135" t="n">
+      <c r="AW135" t="n">
         <v>4</v>
       </c>
-      <c r="AW135" t="n">
-        <v>5</v>
-      </c>
       <c r="AX135" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY135" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ135" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA135" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BB135" t="n">
         <v>6</v>
       </c>
       <c r="BC135" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BD135" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="BE135" t="n">
         <v>8</v>
       </c>
       <c r="BF135" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="BG135" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="BH135" t="n">
-        <v>3.88</v>
+        <v>4.3</v>
       </c>
       <c r="BI135" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="BJ135" t="n">
-        <v>2.72</v>
+        <v>2.93</v>
       </c>
       <c r="BK135" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="BL135" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="BM135" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="BN135" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="BO135" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="BP135" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="136">
@@ -30564,7 +30564,7 @@
         <v>1.36</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.29</v>
@@ -30868,7 +30868,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>7200042</v>
+        <v>7200041</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -30888,197 +30888,197 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
         <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N140" t="n">
         <v>3</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>['29', '48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>['84']</t>
+          <t>['22', '49', '66']</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="R140" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="S140" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T140" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="U140" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="V140" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="W140" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X140" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y140" t="n">
         <v>1.08</v>
       </c>
       <c r="Z140" t="n">
-        <v>2.13</v>
+        <v>2.6</v>
       </c>
       <c r="AA140" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AB140" t="n">
-        <v>3.1</v>
+        <v>2.41</v>
       </c>
       <c r="AC140" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD140" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AE140" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AF140" t="n">
-        <v>3.32</v>
+        <v>4</v>
       </c>
       <c r="AG140" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="AH140" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AI140" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AJ140" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="AK140" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AL140" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AM140" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AN140" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AO140" t="n">
-        <v>1.55</v>
+        <v>0.83</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="AR140" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="AU140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC140" t="n">
         <v>4</v>
       </c>
-      <c r="AV140" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX140" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY140" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ140" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA140" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB140" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC140" t="n">
-        <v>15</v>
-      </c>
       <c r="BD140" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="BE140" t="n">
         <v>8</v>
       </c>
       <c r="BF140" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="BG140" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH140" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="BI140" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BJ140" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="BK140" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="BL140" t="n">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="BM140" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="BN140" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="BO140" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BP140" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="141">
@@ -31086,7 +31086,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>7200041</v>
+        <v>7200042</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -31106,197 +31106,197 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
         <v>1</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N141" t="n">
         <v>3</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['29', '48']</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>['22', '49', '66']</t>
+          <t>['84']</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="R141" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="S141" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T141" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U141" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="V141" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="W141" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X141" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y141" t="n">
         <v>1.08</v>
       </c>
       <c r="Z141" t="n">
-        <v>2.6</v>
+        <v>2.13</v>
       </c>
       <c r="AA141" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AB141" t="n">
-        <v>2.41</v>
+        <v>3.1</v>
       </c>
       <c r="AC141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD141" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE141" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AF141" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU141" t="n">
         <v>4</v>
       </c>
-      <c r="AG141" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AH141" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AI141" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AJ141" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK141" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL141" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM141" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AN141" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AO141" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AP141" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AQ141" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AR141" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AS141" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AT141" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AU141" t="n">
-        <v>0</v>
-      </c>
       <c r="AV141" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA141" t="n">
         <v>9</v>
       </c>
-      <c r="AX141" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY141" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ141" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA141" t="n">
-        <v>2</v>
-      </c>
       <c r="BB141" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC141" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BD141" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="BE141" t="n">
         <v>8</v>
       </c>
       <c r="BF141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL141" t="n">
         <v>1.95</v>
       </c>
-      <c r="BG141" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BH141" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI141" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BJ141" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BK141" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="BL141" t="n">
-        <v>2.23</v>
-      </c>
       <c r="BM141" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="BN141" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="BO141" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BP141" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="142">
@@ -31436,7 +31436,7 @@
         <v>1.58</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.79</v>
@@ -32090,7 +32090,7 @@
         <v>1.82</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.77</v>
@@ -33619,7 +33619,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR152" t="n">
         <v>1.3</v>
@@ -35446,7 +35446,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>7200062</v>
+        <v>7200063</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -35466,50 +35466,50 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="n">
         <v>1</v>
       </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N161" t="n">
         <v>3</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['24', '74', '84']</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>['8', '67']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="R161" t="n">
         <v>2.25</v>
       </c>
       <c r="S161" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T161" t="n">
         <v>1.33</v>
@@ -35530,31 +35530,31 @@
         <v>1.11</v>
       </c>
       <c r="Z161" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AA161" t="n">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="AB161" t="n">
-        <v>3.51</v>
+        <v>3.3</v>
       </c>
       <c r="AC161" t="n">
         <v>1.04</v>
       </c>
       <c r="AD161" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE161" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF161" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AG161" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AH161" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AI161" t="n">
         <v>1.67</v>
@@ -35563,52 +35563,52 @@
         <v>2.1</v>
       </c>
       <c r="AK161" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AL161" t="n">
         <v>1.3</v>
       </c>
       <c r="AM161" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AN161" t="n">
-        <v>2.31</v>
+        <v>1.67</v>
       </c>
       <c r="AO161" t="n">
-        <v>2.08</v>
+        <v>1.15</v>
       </c>
       <c r="AP161" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AQ161" t="n">
-        <v>2.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR161" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="AU161" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV161" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW161" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY161" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AZ161" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA161" t="n">
         <v>5</v>
@@ -35620,43 +35620,43 @@
         <v>6</v>
       </c>
       <c r="BD161" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="BE161" t="n">
         <v>8</v>
       </c>
       <c r="BF161" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BG161" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH161" t="n">
-        <v>3.28</v>
+        <v>4.15</v>
       </c>
       <c r="BI161" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="BJ161" t="n">
-        <v>2.36</v>
+        <v>2.79</v>
       </c>
       <c r="BK161" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="BL161" t="n">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="BM161" t="n">
-        <v>2.46</v>
+        <v>2.09</v>
       </c>
       <c r="BN161" t="n">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="BO161" t="n">
-        <v>3.34</v>
+        <v>2.72</v>
       </c>
       <c r="BP161" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="162">
@@ -35664,7 +35664,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>7200063</v>
+        <v>7200062</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -35684,50 +35684,50 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="n">
         <v>1</v>
       </c>
       <c r="L162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N162" t="n">
         <v>3</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>['24', '74', '84']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8', '67']</t>
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="R162" t="n">
         <v>2.25</v>
       </c>
       <c r="S162" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T162" t="n">
         <v>1.33</v>
@@ -35748,31 +35748,31 @@
         <v>1.11</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AA162" t="n">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="AB162" t="n">
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="AC162" t="n">
         <v>1.04</v>
       </c>
       <c r="AD162" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE162" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF162" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AG162" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AH162" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AI162" t="n">
         <v>1.67</v>
@@ -35781,52 +35781,52 @@
         <v>2.1</v>
       </c>
       <c r="AK162" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AL162" t="n">
         <v>1.3</v>
       </c>
       <c r="AM162" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AN162" t="n">
-        <v>1.67</v>
+        <v>2.31</v>
       </c>
       <c r="AO162" t="n">
-        <v>1.15</v>
+        <v>2.08</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.07</v>
+        <v>2.15</v>
       </c>
       <c r="AR162" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="AU162" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX162" t="n">
         <v>3</v>
       </c>
-      <c r="AW162" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX162" t="n">
-        <v>2</v>
-      </c>
       <c r="AY162" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AZ162" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA162" t="n">
         <v>5</v>
@@ -35838,43 +35838,43 @@
         <v>6</v>
       </c>
       <c r="BD162" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BE162" t="n">
         <v>8</v>
       </c>
       <c r="BF162" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BG162" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BH162" t="n">
-        <v>4.15</v>
+        <v>3.28</v>
       </c>
       <c r="BI162" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="BJ162" t="n">
-        <v>2.79</v>
+        <v>2.36</v>
       </c>
       <c r="BK162" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="BL162" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="BM162" t="n">
-        <v>2.09</v>
+        <v>2.46</v>
       </c>
       <c r="BN162" t="n">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="BO162" t="n">
-        <v>2.72</v>
+        <v>3.34</v>
       </c>
       <c r="BP162" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="163">
@@ -36014,7 +36014,7 @@
         <v>1.69</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.79</v>
@@ -36093,6 +36093,442 @@
       </c>
       <c r="BP163" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7246634</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45224.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['19', '22']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['12', '61']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S164" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X164" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7246633</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45224.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S165" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X165" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.54</v>
@@ -4625,7 +4625,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.59</v>
@@ -6369,7 +6369,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR27" t="n">
         <v>1.11</v>
@@ -6802,7 +6802,7 @@
         <v>1.67</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.92</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.77</v>
@@ -8328,7 +8328,7 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.15</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.57</v>
@@ -11165,7 +11165,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR49" t="n">
         <v>1.53</v>
@@ -13778,7 +13778,7 @@
         <v>0.25</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.86</v>
@@ -14217,7 +14217,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR63" t="n">
         <v>1.58</v>
@@ -16397,7 +16397,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR73" t="n">
         <v>1.6</v>
@@ -16830,7 +16830,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.79</v>
@@ -17266,7 +17266,7 @@
         <v>1.43</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.77</v>
@@ -19667,7 +19667,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR88" t="n">
         <v>1.26</v>
@@ -20321,7 +20321,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR91" t="n">
         <v>1.3</v>
@@ -22934,10 +22934,10 @@
         <v>1.89</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR103" t="n">
         <v>1.52</v>
@@ -24896,7 +24896,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.07</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.14</v>
@@ -28387,7 +28387,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR128" t="n">
         <v>1.65</v>
@@ -29560,7 +29560,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>7200036</v>
+        <v>7200035</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -29580,197 +29580,197 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L134" t="n">
         <v>2</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>['18', '24']</t>
+          <t>['12', '35']</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>['16']</t>
+          <t>['86', '90+3']</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>2.71</v>
+        <v>2.59</v>
       </c>
       <c r="R134" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="S134" t="n">
-        <v>3.78</v>
+        <v>4.1</v>
       </c>
       <c r="T134" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U134" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="V134" t="n">
-        <v>2.71</v>
+        <v>2.78</v>
       </c>
       <c r="W134" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X134" t="n">
-        <v>6.65</v>
+        <v>7</v>
       </c>
       <c r="Y134" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z134" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AA134" t="n">
         <v>3.2</v>
       </c>
       <c r="AB134" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AC134" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD134" t="n">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE134" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AF134" t="n">
-        <v>3.48</v>
+        <v>3.32</v>
       </c>
       <c r="AG134" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AH134" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AI134" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="AJ134" t="n">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="AK134" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AL134" t="n">
         <v>1.3</v>
       </c>
       <c r="AM134" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AN134" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AO134" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR134" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="AU134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV134" t="n">
         <v>6</v>
       </c>
-      <c r="AV134" t="n">
+      <c r="AW134" t="n">
         <v>4</v>
       </c>
-      <c r="AW134" t="n">
-        <v>5</v>
-      </c>
       <c r="AX134" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY134" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ134" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA134" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BB134" t="n">
         <v>6</v>
       </c>
       <c r="BC134" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BD134" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="BE134" t="n">
         <v>8</v>
       </c>
       <c r="BF134" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="BG134" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="BH134" t="n">
-        <v>3.88</v>
+        <v>4.3</v>
       </c>
       <c r="BI134" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="BJ134" t="n">
-        <v>2.72</v>
+        <v>2.93</v>
       </c>
       <c r="BK134" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="BL134" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="BM134" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="BN134" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="BO134" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="BP134" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="135">
@@ -29778,7 +29778,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>7200035</v>
+        <v>7200036</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -29798,197 +29798,197 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L135" t="n">
         <v>2</v>
       </c>
       <c r="M135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>['12', '35']</t>
+          <t>['18', '24']</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>['86', '90+3']</t>
+          <t>['16']</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>2.59</v>
+        <v>2.71</v>
       </c>
       <c r="R135" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S135" t="n">
-        <v>4.1</v>
+        <v>3.78</v>
       </c>
       <c r="T135" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="U135" t="n">
-        <v>2.88</v>
+        <v>2.99</v>
       </c>
       <c r="V135" t="n">
-        <v>2.78</v>
+        <v>2.71</v>
       </c>
       <c r="W135" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X135" t="n">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z135" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AA135" t="n">
         <v>3.2</v>
       </c>
       <c r="AB135" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AC135" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD135" t="n">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE135" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AF135" t="n">
-        <v>3.32</v>
+        <v>3.48</v>
       </c>
       <c r="AG135" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AH135" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AI135" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AJ135" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="AK135" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AL135" t="n">
         <v>1.3</v>
       </c>
       <c r="AM135" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AN135" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AO135" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AR135" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV135" t="n">
         <v>4</v>
       </c>
-      <c r="AV135" t="n">
+      <c r="AW135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ135" t="n">
         <v>6</v>
       </c>
-      <c r="AW135" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX135" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY135" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ135" t="n">
-        <v>13</v>
-      </c>
       <c r="BA135" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BB135" t="n">
         <v>6</v>
       </c>
       <c r="BC135" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD135" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="BE135" t="n">
         <v>8</v>
       </c>
       <c r="BF135" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="BG135" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH135" t="n">
-        <v>4.3</v>
+        <v>3.88</v>
       </c>
       <c r="BI135" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="BJ135" t="n">
-        <v>2.93</v>
+        <v>2.72</v>
       </c>
       <c r="BK135" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="BL135" t="n">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="BM135" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="BN135" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="BO135" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="BP135" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="136">
@@ -29996,7 +29996,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>7200037</v>
+        <v>7200039</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -30016,197 +30016,197 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" t="n">
         <v>3</v>
       </c>
-      <c r="L136" t="n">
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['30', '38']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S136" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V136" t="n">
         <v>3</v>
       </c>
-      <c r="M136" t="n">
-        <v>2</v>
-      </c>
-      <c r="N136" t="n">
+      <c r="W136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X136" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB136" t="n">
         <v>5</v>
       </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>['24', '35', '79']</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>['14', '63']</t>
-        </is>
-      </c>
-      <c r="Q136" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="R136" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S136" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="T136" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U136" t="n">
-        <v>3</v>
-      </c>
-      <c r="V136" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="W136" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X136" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y136" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z136" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AA136" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM136" t="n">
+      <c r="BC136" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD136" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AN136" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO136" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AP136" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ136" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AR136" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AS136" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT136" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AU136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AV136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AW136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AZ136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BA136" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB136" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC136" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD136" t="n">
-        <v>1.69</v>
       </c>
       <c r="BE136" t="n">
         <v>8</v>
       </c>
       <c r="BF136" t="n">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
       <c r="BG136" t="n">
         <v>1.22</v>
       </c>
       <c r="BH136" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="BI136" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="BJ136" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="BK136" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="BL136" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="BM136" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="BN136" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="BO136" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="BP136" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="137">
@@ -30214,7 +30214,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>7200038</v>
+        <v>7200037</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -30234,197 +30234,197 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>['71', '81']</t>
+          <t>['24', '35', '79']</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '63']</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>2.22</v>
+        <v>2.59</v>
       </c>
       <c r="R137" t="n">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="S137" t="n">
-        <v>4.85</v>
+        <v>3.92</v>
       </c>
       <c r="T137" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="U137" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="V137" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="W137" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X137" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z137" t="n">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="AA137" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AB137" t="n">
-        <v>4.91</v>
+        <v>3.3</v>
       </c>
       <c r="AC137" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AD137" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="AE137" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF137" t="n">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="AG137" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AH137" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="AI137" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM137" t="n">
         <v>1.75</v>
       </c>
-      <c r="AJ137" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AK137" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL137" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM137" t="n">
-        <v>2.17</v>
-      </c>
       <c r="AN137" t="n">
-        <v>2.18</v>
+        <v>1.27</v>
       </c>
       <c r="AO137" t="n">
-        <v>1.27</v>
+        <v>0.82</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS137" t="n">
         <v>1.07</v>
       </c>
-      <c r="AR137" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AS137" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AT137" t="n">
-        <v>2.94</v>
+        <v>2.19</v>
       </c>
       <c r="AU137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV137" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW137" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY137" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AZ137" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BA137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC137" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BD137" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="BE137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF137" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="BG137" t="n">
         <v>1.22</v>
       </c>
       <c r="BH137" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="BI137" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="BJ137" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="BK137" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="BL137" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="BM137" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="BN137" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="BO137" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="BP137" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="138">
@@ -30432,7 +30432,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>7200039</v>
+        <v>7200038</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -30452,167 +30452,167 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['71', '81']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S138" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X138" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW138" t="n">
         <v>3</v>
       </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>['48']</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>['30', '38']</t>
-        </is>
-      </c>
-      <c r="Q138" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R138" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S138" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="T138" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="U138" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="V138" t="n">
+      <c r="AX138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY138" t="n">
         <v>3</v>
       </c>
-      <c r="W138" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X138" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z138" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AA138" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AL138" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM138" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AN138" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO138" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP138" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ138" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR138" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AS138" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AT138" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AU138" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV138" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW138" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY138" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ138" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BA138" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BB138" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC138" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BD138" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="BE138" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF138" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="BG138" t="n">
         <v>1.22</v>
@@ -31221,7 +31221,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR141" t="n">
         <v>1.32</v>
@@ -31436,7 +31436,7 @@
         <v>1.58</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.79</v>
@@ -32176,7 +32176,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>7200047</v>
+        <v>7200048</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -32196,197 +32196,197 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
         <v>3</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['18', '85']</t>
+          <t>['16', '50', '80']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>['26']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="R146" t="n">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="S146" t="n">
-        <v>4.9</v>
+        <v>4.86</v>
       </c>
       <c r="T146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X146" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR146" t="n">
         <v>1.38</v>
       </c>
-      <c r="U146" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="V146" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W146" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X146" t="n">
+      <c r="AS146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU146" t="n">
         <v>7</v>
       </c>
-      <c r="Y146" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z146" t="n">
+      <c r="AV146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL146" t="n">
         <v>1.8</v>
       </c>
-      <c r="AA146" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB146" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AC146" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE146" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF146" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AG146" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH146" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AM146" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AN146" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO146" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AP146" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AQ146" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AR146" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AS146" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT146" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AU146" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV146" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW146" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX146" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY146" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ146" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA146" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB146" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC146" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD146" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BE146" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF146" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="BG146" t="n">
+      <c r="BM146" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP146" t="n">
         <v>1.26</v>
-      </c>
-      <c r="BH146" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="BI146" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ146" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="BK146" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BL146" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BM146" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="BN146" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="BO146" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BP146" t="n">
-        <v>1.28</v>
       </c>
     </row>
     <row r="147">
@@ -32394,7 +32394,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>7200048</v>
+        <v>7200047</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -32414,197 +32414,197 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" t="n">
         <v>3</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>['16', '50', '80']</t>
+          <t>['18', '85']</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['26']</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="R147" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="S147" t="n">
-        <v>4.86</v>
+        <v>4.9</v>
       </c>
       <c r="T147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X147" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI147" t="n">
         <v>1.5</v>
       </c>
-      <c r="U147" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="V147" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="W147" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X147" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Y147" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z147" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AA147" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB147" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AC147" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD147" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE147" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF147" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ147" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AO147" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP147" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AQ147" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR147" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AS147" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AT147" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AU147" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV147" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW147" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX147" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY147" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ147" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA147" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB147" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC147" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD147" t="n">
+      <c r="BJ147" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN147" t="n">
         <v>1.51</v>
       </c>
-      <c r="BE147" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF147" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="BG147" t="n">
+      <c r="BO147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP147" t="n">
         <v>1.28</v>
-      </c>
-      <c r="BH147" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BI147" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BJ147" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="BK147" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL147" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BM147" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="BN147" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BO147" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="BP147" t="n">
-        <v>1.26</v>
       </c>
     </row>
     <row r="148">
@@ -33619,7 +33619,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR152" t="n">
         <v>1.3</v>
@@ -35796,7 +35796,7 @@
         <v>1.15</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.07</v>
@@ -36100,7 +36100,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>7246633</v>
+        <v>7246634</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -36120,197 +36120,197 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19', '22']</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12', '61']</t>
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>2.8</v>
+        <v>2.36</v>
       </c>
       <c r="R164" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="S164" t="n">
-        <v>4.34</v>
+        <v>4.93</v>
       </c>
       <c r="T164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W164" t="n">
         <v>1.44</v>
       </c>
-      <c r="U164" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="V164" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="W164" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X164" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="Y164" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z164" t="n">
-        <v>2.01</v>
+        <v>1.72</v>
       </c>
       <c r="AA164" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AB164" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="AC164" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD164" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AE164" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AF164" t="n">
-        <v>3.36</v>
+        <v>3.85</v>
       </c>
       <c r="AG164" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AH164" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AI164" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AJ164" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="AK164" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AL164" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM164" t="n">
-        <v>1.79</v>
+        <v>2.11</v>
       </c>
       <c r="AN164" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AO164" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AP164" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AR164" t="n">
         <v>1.5</v>
       </c>
-      <c r="AQ164" t="n">
+      <c r="AS164" t="n">
         <v>1.29</v>
       </c>
-      <c r="AR164" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS164" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AT164" t="n">
-        <v>2.99</v>
+        <v>2.79</v>
       </c>
       <c r="AU164" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV164" t="n">
         <v>5</v>
       </c>
       <c r="AW164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA164" t="n">
         <v>4</v>
       </c>
-      <c r="AX164" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY164" t="n">
+      <c r="BB164" t="n">
         <v>7</v>
       </c>
-      <c r="AZ164" t="n">
+      <c r="BC164" t="n">
         <v>11</v>
       </c>
-      <c r="BA164" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB164" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC164" t="n">
-        <v>10</v>
-      </c>
       <c r="BD164" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="BE164" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF164" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="BG164" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="BH164" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BI164" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BJ164" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="BK164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN164" t="n">
         <v>1.68</v>
       </c>
-      <c r="BL164" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BM164" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="BN164" t="n">
-        <v>1.72</v>
-      </c>
       <c r="BO164" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BP164" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="165">
@@ -36318,7 +36318,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>7246634</v>
+        <v>7246633</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -36338,197 +36338,415 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S165" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X165" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU165" t="n">
         <v>3</v>
-      </c>
-      <c r="L165" t="n">
-        <v>2</v>
-      </c>
-      <c r="M165" t="n">
-        <v>2</v>
-      </c>
-      <c r="N165" t="n">
-        <v>4</v>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>['19', '22']</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>['12', '61']</t>
-        </is>
-      </c>
-      <c r="Q165" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R165" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S165" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="T165" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U165" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="V165" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="W165" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X165" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z165" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AA165" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AB165" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AC165" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD165" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE165" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF165" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG165" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH165" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AJ165" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AK165" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AL165" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM165" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AN165" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AO165" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AP165" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AQ165" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AR165" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS165" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT165" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AU165" t="n">
-        <v>6</v>
       </c>
       <c r="AV165" t="n">
         <v>5</v>
       </c>
       <c r="AW165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>7248737</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45227.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>3</v>
+      </c>
+      <c r="L166" t="n">
+        <v>5</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>5</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['3', '32', '44', '52', '89']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S166" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X166" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE166" t="n">
         <v>9</v>
       </c>
-      <c r="AX165" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY165" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ165" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA165" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB165" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC165" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD165" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BE165" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF165" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BG165" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BH165" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI165" t="n">
+      <c r="BF166" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP166" t="n">
         <v>1.41</v>
-      </c>
-      <c r="BJ165" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BK165" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BL165" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BM165" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BN165" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BO165" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BP165" t="n">
-        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.54</v>
@@ -3753,7 +3753,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR15" t="n">
         <v>1.36</v>
@@ -6802,7 +6802,7 @@
         <v>1.67</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.92</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.77</v>
@@ -8328,7 +8328,7 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.15</v>
@@ -8985,7 +8985,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR39" t="n">
         <v>0.87</v>
@@ -9857,7 +9857,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR43" t="n">
         <v>1.23</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.57</v>
@@ -12473,7 +12473,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR55" t="n">
         <v>1.17</v>
@@ -13778,7 +13778,7 @@
         <v>0.25</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.86</v>
@@ -14435,7 +14435,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR64" t="n">
         <v>1.71</v>
@@ -16830,10 +16830,10 @@
         <v>0.2</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR75" t="n">
         <v>1.53</v>
@@ -17266,7 +17266,7 @@
         <v>1.43</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.77</v>
@@ -19231,7 +19231,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR86" t="n">
         <v>1.61</v>
@@ -19885,7 +19885,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR89" t="n">
         <v>1.77</v>
@@ -22065,7 +22065,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR99" t="n">
         <v>1.23</v>
@@ -22934,7 +22934,7 @@
         <v>1.89</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.2</v>
@@ -24896,7 +24896,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.07</v>
@@ -25553,7 +25553,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR115" t="n">
         <v>1.33</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.14</v>
@@ -29259,7 +29259,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR132" t="n">
         <v>1.25</v>
@@ -30785,7 +30785,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR139" t="n">
         <v>1.59</v>
@@ -31436,10 +31436,10 @@
         <v>1.58</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR142" t="n">
         <v>1.56</v>
@@ -35796,7 +35796,7 @@
         <v>1.15</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.07</v>
@@ -36017,7 +36017,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR163" t="n">
         <v>1.56</v>
@@ -36450,7 +36450,7 @@
         <v>1.3</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.29</v>
@@ -36668,7 +36668,7 @@
         <v>1.39</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.34</v>
@@ -36747,6 +36747,224 @@
       </c>
       <c r="BP166" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>7251531</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45231.54166666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S167" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X167" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -36901,31 +36901,31 @@
         <v>2.95</v>
       </c>
       <c r="AU167" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA167" t="n">
         <v>5</v>
-      </c>
-      <c r="AX167" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY167" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ167" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA167" t="n">
-        <v>4</v>
       </c>
       <c r="BB167" t="n">
         <v>3</v>
       </c>
       <c r="BC167" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD167" t="n">
         <v>1.59</v>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.92</v>
@@ -2009,7 +2009,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.77</v>
@@ -3535,7 +3535,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR14" t="n">
         <v>2.23</v>
@@ -4843,7 +4843,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR20" t="n">
         <v>1.1</v>
@@ -5276,10 +5276,10 @@
         <v>1.33</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR22" t="n">
         <v>0.8</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.86</v>
@@ -10075,7 +10075,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.19</v>
@@ -11380,7 +11380,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.14</v>
@@ -12037,7 +12037,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.94</v>
@@ -14653,7 +14653,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.27</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ68" t="n">
         <v>2.15</v>
@@ -17484,7 +17484,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.07</v>
@@ -19013,7 +19013,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR85" t="n">
         <v>1.61</v>
@@ -20318,7 +20318,7 @@
         <v>2.13</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.2</v>
@@ -21844,7 +21844,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.77</v>
@@ -24027,7 +24027,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR108" t="n">
         <v>1.34</v>
@@ -24242,7 +24242,7 @@
         <v>2</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.54</v>
@@ -25771,7 +25771,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR116" t="n">
         <v>1.25</v>
@@ -26858,7 +26858,7 @@
         <v>0.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.57</v>
@@ -29041,7 +29041,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR131" t="n">
         <v>1.41</v>
@@ -30131,7 +30131,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR136" t="n">
         <v>1.56</v>
@@ -32311,7 +32311,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR146" t="n">
         <v>1.38</v>
@@ -32962,7 +32962,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.07</v>
@@ -34488,7 +34488,7 @@
         <v>1.92</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.77</v>
@@ -34709,7 +34709,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR157" t="n">
         <v>1.56</v>
@@ -36450,7 +36450,7 @@
         <v>1.3</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.29</v>
@@ -36668,7 +36668,7 @@
         <v>1.39</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.34</v>
@@ -36886,10 +36886,10 @@
         <v>1.81</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AR167" t="n">
         <v>1.59</v>
@@ -36965,6 +36965,224 @@
       </c>
       <c r="BP167" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>7251532</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S168" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X168" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
